--- a/excel/new.xlsx
+++ b/excel/new.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Логутов В.Н." sheetId="1" state="visible" r:id="rId1"/>
@@ -196,9 +196,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -227,6 +224,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -611,7 +611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G24"/>
+  <dimension ref="A2:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,156 +619,159 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5" customWidth="1" style="7" min="1" max="1"/>
-    <col width="19.77734375" customWidth="1" style="7" min="2" max="2"/>
-    <col width="15.33203125" customWidth="1" style="7" min="3" max="3"/>
-    <col width="12.88671875" customWidth="1" style="7" min="4" max="4"/>
-    <col width="10.5546875" customWidth="1" style="7" min="5" max="6"/>
-    <col width="12.44140625" customWidth="1" style="7" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="7" min="8" max="16384"/>
+    <col width="5" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.77734375" customWidth="1" style="6" min="2" max="2"/>
+    <col width="15.33203125" customWidth="1" style="6" min="3" max="3"/>
+    <col width="12.88671875" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.5546875" customWidth="1" style="6" min="5" max="6"/>
+    <col width="12.44140625" customWidth="1" style="6" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" style="6" min="8" max="16384"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="8" t="inlineStr">
+      <c r="B2" s="7" t="inlineStr">
         <is>
           <t>Отчет №</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>9/05</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="F2" s="7" t="inlineStr">
         <is>
           <t>"Утверждаю"</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="7" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>"     " _________202__г.</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="n"/>
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>Начальник ТЭО</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="7" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>Корнейчик Е.В.</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="7" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>_______________________</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>о служебных поездках</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>В ИООО "Белбогемия"</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Транспортно экспедиционный отдел</t>
         </is>
       </c>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="10" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>Фамилия</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t>Логутов В.Н.</t>
         </is>
       </c>
-      <c r="D11" s="7" t="n"/>
+      <c r="D11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="9" t="inlineStr">
         <is>
           <t>Должность</t>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="C12" s="7" t="inlineStr">
         <is>
           <t>водитель</t>
         </is>
       </c>
-      <c r="D12" s="7" t="n"/>
+      <c r="D12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
     </row>
     <row r="14" ht="79.8" customHeight="1">
-      <c r="A14" s="16" t="inlineStr">
+      <c r="A14" s="15" t="inlineStr">
         <is>
           <t>№ п/п</t>
         </is>
       </c>
-      <c r="B14" s="16" t="inlineStr">
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="C14" s="16" t="inlineStr">
+      <c r="C14" s="15" t="inlineStr">
         <is>
           <t>Цель служебной поездки</t>
         </is>
       </c>
-      <c r="D14" s="16" t="inlineStr">
+      <c r="D14" s="15" t="inlineStr">
         <is>
           <t>Количетсво дней (включая дни отъезда/приезда, выходные и праздничные дни</t>
         </is>
       </c>
-      <c r="E14" s="16" t="inlineStr">
+      <c r="E14" s="15" t="inlineStr">
         <is>
           <t>Расходы по проезду</t>
         </is>
       </c>
-      <c r="F14" s="16" t="inlineStr">
+      <c r="F14" s="15" t="inlineStr">
         <is>
           <t>Расходы по найму жилого помещения</t>
         </is>
       </c>
-      <c r="G14" s="16" t="inlineStr">
+      <c r="G14" s="15" t="inlineStr">
         <is>
           <t>Иные расходы, произведенные с разрешения нанимателя</t>
         </is>
@@ -779,7 +782,7 @@
       <c r="B15" s="17" t="n"/>
       <c r="C15" s="17" t="n"/>
       <c r="D15" s="17" t="n"/>
-      <c r="E15" s="16" t="inlineStr">
+      <c r="E15" s="15" t="inlineStr">
         <is>
           <t>(указываются виды, суммы расходов и документы, подстверждающие эти расходы</t>
         </is>
@@ -788,25 +791,25 @@
       <c r="G15" s="19" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="13" t="n">
+      <c r="A16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="13" t="n">
+      <c r="C16" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F16" s="13" t="n">
+      <c r="F16" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="G16" s="13" t="n">
+      <c r="G16" s="12" t="n">
         <v>7</v>
       </c>
     </row>
@@ -874,67 +877,89 @@
       <c r="G19" s="20" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n"/>
-      <c r="B20" s="6" t="n"/>
-      <c r="C20" s="6" t="n"/>
-      <c r="D20" s="6" t="n"/>
-      <c r="E20" s="6" t="n"/>
-      <c r="F20" s="6" t="n"/>
-      <c r="G20" s="6" t="n"/>
+      <c r="A20" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" s="20" t="inlineStr">
+        <is>
+          <t>30-31.05.2022</t>
+        </is>
+      </c>
+      <c r="C20" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D20" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="20" t="n"/>
+      <c r="F20" s="20" t="n"/>
+      <c r="G20" s="20" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n"/>
-      <c r="B21" s="6" t="inlineStr">
+      <c r="A21" s="5" t="n"/>
+      <c r="B21" s="5" t="n"/>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="5" t="n"/>
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="5" t="n"/>
+      <c r="G21" s="5" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Итого однодневных </t>
         </is>
       </c>
-      <c r="C21" s="5" t="n"/>
-      <c r="D21" s="14" t="n">
+      <c r="C22" s="4" t="n"/>
+      <c r="D22" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="E21" s="6" t="n"/>
-      <c r="F21" s="6" t="n"/>
-      <c r="G21" s="6" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="n"/>
-      <c r="B22" s="6" t="inlineStr">
+      <c r="E22" s="5" t="n"/>
+      <c r="F22" s="5" t="n"/>
+      <c r="G22" s="5" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Итого многодневных</t>
         </is>
       </c>
-      <c r="C22" s="6" t="n"/>
-      <c r="D22" s="14" t="n">
-        <v>6</v>
-      </c>
-      <c r="E22" s="6" t="n"/>
-      <c r="F22" s="6" t="n"/>
-      <c r="G22" s="6" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="6" t="n"/>
-      <c r="D23" s="6" t="n"/>
-      <c r="E23" s="6" t="n"/>
-      <c r="F23" s="6" t="n"/>
-      <c r="G23" s="6" t="n"/>
+      <c r="C23" s="5" t="n"/>
+      <c r="D23" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E23" s="5" t="n"/>
+      <c r="F23" s="5" t="n"/>
+      <c r="G23" s="5" t="n"/>
     </row>
     <row r="24">
-      <c r="F24" s="7" t="inlineStr">
+      <c r="A24" s="5" t="n"/>
+      <c r="B24" s="5" t="n"/>
+      <c r="C24" s="5" t="n"/>
+      <c r="D24" s="5" t="n"/>
+      <c r="E24" s="5" t="n"/>
+      <c r="F24" s="5" t="n"/>
+      <c r="G24" s="5" t="n"/>
+    </row>
+    <row r="25">
+      <c r="F25" s="6" t="inlineStr">
         <is>
           <t>____________</t>
         </is>
       </c>
-      <c r="G24" s="7" t="inlineStr">
+      <c r="G25" s="6" t="inlineStr">
         <is>
           <t>Логутов В.Н.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
@@ -952,7 +977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G26"/>
+  <dimension ref="A2:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -960,156 +985,159 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5" customWidth="1" style="7" min="1" max="1"/>
-    <col width="19.77734375" customWidth="1" style="7" min="2" max="2"/>
-    <col width="15.33203125" customWidth="1" style="7" min="3" max="3"/>
-    <col width="12.88671875" customWidth="1" style="7" min="4" max="4"/>
-    <col width="10.5546875" customWidth="1" style="7" min="5" max="6"/>
-    <col width="12.44140625" customWidth="1" style="7" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="7" min="8" max="16384"/>
+    <col width="5" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.77734375" customWidth="1" style="6" min="2" max="2"/>
+    <col width="15.33203125" customWidth="1" style="6" min="3" max="3"/>
+    <col width="12.88671875" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.5546875" customWidth="1" style="6" min="5" max="6"/>
+    <col width="12.44140625" customWidth="1" style="6" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" style="6" min="8" max="16384"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="8" t="inlineStr">
+      <c r="B2" s="7" t="inlineStr">
         <is>
           <t>Отчет №</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>11/05</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="F2" s="7" t="inlineStr">
         <is>
           <t>"Утверждаю"</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="7" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>"     " _________202__г.</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="n"/>
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>Начальник ТЭО</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="7" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>Корнейчик Е.В.</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="7" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>_______________________</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>о служебных поездках</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>В ИООО "Белбогемия"</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Транспортно экспедиционный отдел</t>
         </is>
       </c>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="10" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>Фамилия</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t>Ивановский А.С.</t>
         </is>
       </c>
-      <c r="D11" s="7" t="n"/>
+      <c r="D11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="9" t="inlineStr">
         <is>
           <t>Должность</t>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="C12" s="7" t="inlineStr">
         <is>
           <t>экспедитор</t>
         </is>
       </c>
-      <c r="D12" s="7" t="n"/>
+      <c r="D12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
     </row>
     <row r="14" ht="79.8" customHeight="1">
-      <c r="A14" s="16" t="inlineStr">
+      <c r="A14" s="15" t="inlineStr">
         <is>
           <t>№ п/п</t>
         </is>
       </c>
-      <c r="B14" s="16" t="inlineStr">
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="C14" s="16" t="inlineStr">
+      <c r="C14" s="15" t="inlineStr">
         <is>
           <t>Цель служебной поездки</t>
         </is>
       </c>
-      <c r="D14" s="16" t="inlineStr">
+      <c r="D14" s="15" t="inlineStr">
         <is>
           <t>Количетсво дней (включая дни отъезда/приезда, выходные и праздничные дни</t>
         </is>
       </c>
-      <c r="E14" s="16" t="inlineStr">
+      <c r="E14" s="15" t="inlineStr">
         <is>
           <t>Расходы по проезду</t>
         </is>
       </c>
-      <c r="F14" s="16" t="inlineStr">
+      <c r="F14" s="15" t="inlineStr">
         <is>
           <t>Расходы по найму жилого помещения</t>
         </is>
       </c>
-      <c r="G14" s="16" t="inlineStr">
+      <c r="G14" s="15" t="inlineStr">
         <is>
           <t>Иные расходы, произведенные с разрешения нанимателя</t>
         </is>
@@ -1120,7 +1148,7 @@
       <c r="B15" s="17" t="n"/>
       <c r="C15" s="17" t="n"/>
       <c r="D15" s="17" t="n"/>
-      <c r="E15" s="16" t="inlineStr">
+      <c r="E15" s="15" t="inlineStr">
         <is>
           <t>(указываются виды, суммы расходов и документы, подстверждающие эти расходы</t>
         </is>
@@ -1129,25 +1157,25 @@
       <c r="G15" s="19" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="13" t="n">
+      <c r="A16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="13" t="n">
+      <c r="C16" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F16" s="13" t="n">
+      <c r="F16" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="G16" s="13" t="n">
+      <c r="G16" s="12" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1220,7 +1248,7 @@
       </c>
       <c r="B20" s="20" t="inlineStr">
         <is>
-          <t>18-19.05.2022</t>
+          <t>25-26.05.2022</t>
         </is>
       </c>
       <c r="C20" s="20" t="inlineStr">
@@ -1236,88 +1264,68 @@
       <c r="G20" s="20" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" s="20" t="inlineStr">
-        <is>
-          <t>25-26.05.2022</t>
-        </is>
-      </c>
-      <c r="C21" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D21" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" s="20" t="n"/>
-      <c r="F21" s="20" t="n"/>
-      <c r="G21" s="20" t="n"/>
+      <c r="A21" s="5" t="n"/>
+      <c r="B21" s="5" t="n"/>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="5" t="n"/>
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="5" t="n"/>
+      <c r="G21" s="5" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n"/>
-      <c r="B22" s="6" t="n"/>
-      <c r="C22" s="6" t="n"/>
-      <c r="D22" s="6" t="n"/>
-      <c r="E22" s="6" t="n"/>
-      <c r="F22" s="6" t="n"/>
-      <c r="G22" s="6" t="n"/>
+      <c r="A22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Итого однодневных </t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="n"/>
+      <c r="D22" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5" t="n"/>
+      <c r="F22" s="5" t="n"/>
+      <c r="G22" s="5" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Итого однодневных </t>
+      <c r="A23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Итого многодневных</t>
         </is>
       </c>
       <c r="C23" s="5" t="n"/>
-      <c r="D23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6" t="n"/>
-      <c r="F23" s="6" t="n"/>
-      <c r="G23" s="6" t="n"/>
+      <c r="D23" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E23" s="5" t="n"/>
+      <c r="F23" s="5" t="n"/>
+      <c r="G23" s="5" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n"/>
-      <c r="B24" s="6" t="inlineStr">
-        <is>
-          <t>Итого многодневных</t>
-        </is>
-      </c>
-      <c r="C24" s="6" t="n"/>
-      <c r="D24" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="E24" s="6" t="n"/>
-      <c r="F24" s="6" t="n"/>
-      <c r="G24" s="6" t="n"/>
+      <c r="A24" s="5" t="n"/>
+      <c r="B24" s="5" t="n"/>
+      <c r="C24" s="5" t="n"/>
+      <c r="D24" s="5" t="n"/>
+      <c r="E24" s="5" t="n"/>
+      <c r="F24" s="5" t="n"/>
+      <c r="G24" s="5" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
-      <c r="F25" s="6" t="n"/>
-      <c r="G25" s="6" t="n"/>
-    </row>
-    <row r="26">
-      <c r="F26" s="7" t="inlineStr">
+      <c r="F25" s="6" t="inlineStr">
         <is>
           <t>____________</t>
         </is>
       </c>
-      <c r="G26" s="7" t="inlineStr">
+      <c r="G25" s="6" t="inlineStr">
         <is>
           <t>Ивановский А.С.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
@@ -1335,7 +1343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G25"/>
+  <dimension ref="A2:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1343,156 +1351,159 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5" customWidth="1" style="7" min="1" max="1"/>
-    <col width="19.77734375" customWidth="1" style="7" min="2" max="2"/>
-    <col width="15.33203125" customWidth="1" style="7" min="3" max="3"/>
-    <col width="12.88671875" customWidth="1" style="7" min="4" max="4"/>
-    <col width="10.5546875" customWidth="1" style="7" min="5" max="6"/>
-    <col width="12.44140625" customWidth="1" style="7" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="7" min="8" max="16384"/>
+    <col width="5" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.77734375" customWidth="1" style="6" min="2" max="2"/>
+    <col width="15.33203125" customWidth="1" style="6" min="3" max="3"/>
+    <col width="12.88671875" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.5546875" customWidth="1" style="6" min="5" max="6"/>
+    <col width="12.44140625" customWidth="1" style="6" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" style="6" min="8" max="16384"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="8" t="inlineStr">
+      <c r="B2" s="7" t="inlineStr">
         <is>
           <t>Отчет №</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>16/05</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="F2" s="7" t="inlineStr">
         <is>
           <t>"Утверждаю"</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="7" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>"     " _________202__г.</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="n"/>
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>Начальник ТЭО</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="7" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>Корнейчик Е.В.</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="7" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>_______________________</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>о служебных поездках</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>В ИООО "Белбогемия"</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Транспортно экспедиционный отдел</t>
         </is>
       </c>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="10" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>Фамилия</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t>Можейко А.М.</t>
         </is>
       </c>
-      <c r="D11" s="7" t="n"/>
+      <c r="D11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="9" t="inlineStr">
         <is>
           <t>Должность</t>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="C12" s="7" t="inlineStr">
         <is>
           <t>экспедитор</t>
         </is>
       </c>
-      <c r="D12" s="7" t="n"/>
+      <c r="D12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
     </row>
     <row r="14" ht="79.8" customHeight="1">
-      <c r="A14" s="16" t="inlineStr">
+      <c r="A14" s="15" t="inlineStr">
         <is>
           <t>№ п/п</t>
         </is>
       </c>
-      <c r="B14" s="16" t="inlineStr">
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="C14" s="16" t="inlineStr">
+      <c r="C14" s="15" t="inlineStr">
         <is>
           <t>Цель служебной поездки</t>
         </is>
       </c>
-      <c r="D14" s="16" t="inlineStr">
+      <c r="D14" s="15" t="inlineStr">
         <is>
           <t>Количетсво дней (включая дни отъезда/приезда, выходные и праздничные дни</t>
         </is>
       </c>
-      <c r="E14" s="16" t="inlineStr">
+      <c r="E14" s="15" t="inlineStr">
         <is>
           <t>Расходы по проезду</t>
         </is>
       </c>
-      <c r="F14" s="16" t="inlineStr">
+      <c r="F14" s="15" t="inlineStr">
         <is>
           <t>Расходы по найму жилого помещения</t>
         </is>
       </c>
-      <c r="G14" s="16" t="inlineStr">
+      <c r="G14" s="15" t="inlineStr">
         <is>
           <t>Иные расходы, произведенные с разрешения нанимателя</t>
         </is>
@@ -1503,7 +1514,7 @@
       <c r="B15" s="17" t="n"/>
       <c r="C15" s="17" t="n"/>
       <c r="D15" s="17" t="n"/>
-      <c r="E15" s="16" t="inlineStr">
+      <c r="E15" s="15" t="inlineStr">
         <is>
           <t>(указываются виды, суммы расходов и документы, подстверждающие эти расходы</t>
         </is>
@@ -1512,25 +1523,25 @@
       <c r="G15" s="19" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="13" t="n">
+      <c r="A16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="13" t="n">
+      <c r="C16" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F16" s="13" t="n">
+      <c r="F16" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="G16" s="13" t="n">
+      <c r="G16" s="12" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1619,67 +1630,89 @@
       <c r="G20" s="20" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n"/>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="6" t="n"/>
-      <c r="D21" s="6" t="n"/>
-      <c r="E21" s="6" t="n"/>
-      <c r="F21" s="6" t="n"/>
-      <c r="G21" s="6" t="n"/>
+      <c r="A21" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" s="20" t="inlineStr">
+        <is>
+          <t>31-01.06.2022</t>
+        </is>
+      </c>
+      <c r="C21" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D21" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="20" t="n"/>
+      <c r="F21" s="20" t="n"/>
+      <c r="G21" s="20" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n"/>
-      <c r="B22" s="6" t="inlineStr">
+      <c r="A22" s="5" t="n"/>
+      <c r="B22" s="5" t="n"/>
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="5" t="n"/>
+      <c r="E22" s="5" t="n"/>
+      <c r="F22" s="5" t="n"/>
+      <c r="G22" s="5" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Итого однодневных </t>
         </is>
       </c>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6" t="n"/>
-      <c r="F22" s="6" t="n"/>
-      <c r="G22" s="6" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="6" t="inlineStr">
+      <c r="C23" s="4" t="n"/>
+      <c r="D23" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5" t="n"/>
+      <c r="F23" s="5" t="n"/>
+      <c r="G23" s="5" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>Итого многодневных</t>
         </is>
       </c>
-      <c r="C23" s="6" t="n"/>
-      <c r="D23" s="14" t="n">
-        <v>6</v>
-      </c>
-      <c r="E23" s="6" t="n"/>
-      <c r="F23" s="6" t="n"/>
-      <c r="G23" s="6" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="n"/>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="n"/>
-      <c r="D24" s="6" t="n"/>
-      <c r="E24" s="6" t="n"/>
-      <c r="F24" s="6" t="n"/>
-      <c r="G24" s="6" t="n"/>
+      <c r="C24" s="5" t="n"/>
+      <c r="D24" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E24" s="5" t="n"/>
+      <c r="F24" s="5" t="n"/>
+      <c r="G24" s="5" t="n"/>
     </row>
     <row r="25">
-      <c r="F25" s="7" t="inlineStr">
+      <c r="A25" s="5" t="n"/>
+      <c r="B25" s="5" t="n"/>
+      <c r="C25" s="5" t="n"/>
+      <c r="D25" s="5" t="n"/>
+      <c r="E25" s="5" t="n"/>
+      <c r="F25" s="5" t="n"/>
+      <c r="G25" s="5" t="n"/>
+    </row>
+    <row r="26">
+      <c r="F26" s="6" t="inlineStr">
         <is>
           <t>____________</t>
         </is>
       </c>
-      <c r="G25" s="7" t="inlineStr">
+      <c r="G26" s="6" t="inlineStr">
         <is>
           <t>Можейко А.М.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
@@ -1705,156 +1738,159 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5" customWidth="1" style="7" min="1" max="1"/>
-    <col width="19.77734375" customWidth="1" style="7" min="2" max="2"/>
-    <col width="15.33203125" customWidth="1" style="7" min="3" max="3"/>
-    <col width="12.88671875" customWidth="1" style="7" min="4" max="4"/>
-    <col width="10.5546875" customWidth="1" style="7" min="5" max="6"/>
-    <col width="12.44140625" customWidth="1" style="7" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="7" min="8" max="16384"/>
+    <col width="5" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.77734375" customWidth="1" style="6" min="2" max="2"/>
+    <col width="15.33203125" customWidth="1" style="6" min="3" max="3"/>
+    <col width="12.88671875" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.5546875" customWidth="1" style="6" min="5" max="6"/>
+    <col width="12.44140625" customWidth="1" style="6" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" style="6" min="8" max="16384"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="8" t="inlineStr">
+      <c r="B2" s="7" t="inlineStr">
         <is>
           <t>Отчет №</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>23/05</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="F2" s="7" t="inlineStr">
         <is>
           <t>"Утверждаю"</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="7" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>"     " _________202__г.</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="n"/>
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>Начальник ТЭО</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="7" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>Корнейчик Е.В.</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="7" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>_______________________</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>о служебных поездках</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>В ИООО "Белбогемия"</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Транспортно экспедиционный отдел</t>
         </is>
       </c>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="10" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>Фамилия</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t>Автухович Ю.И.</t>
         </is>
       </c>
-      <c r="D11" s="7" t="n"/>
+      <c r="D11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="9" t="inlineStr">
         <is>
           <t>Должность</t>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="C12" s="7" t="inlineStr">
         <is>
           <t>экспедитор</t>
         </is>
       </c>
-      <c r="D12" s="7" t="n"/>
+      <c r="D12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
     </row>
     <row r="14" ht="79.8" customHeight="1">
-      <c r="A14" s="16" t="inlineStr">
+      <c r="A14" s="15" t="inlineStr">
         <is>
           <t>№ п/п</t>
         </is>
       </c>
-      <c r="B14" s="16" t="inlineStr">
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="C14" s="16" t="inlineStr">
+      <c r="C14" s="15" t="inlineStr">
         <is>
           <t>Цель служебной поездки</t>
         </is>
       </c>
-      <c r="D14" s="16" t="inlineStr">
+      <c r="D14" s="15" t="inlineStr">
         <is>
           <t>Количетсво дней (включая дни отъезда/приезда, выходные и праздничные дни</t>
         </is>
       </c>
-      <c r="E14" s="16" t="inlineStr">
+      <c r="E14" s="15" t="inlineStr">
         <is>
           <t>Расходы по проезду</t>
         </is>
       </c>
-      <c r="F14" s="16" t="inlineStr">
+      <c r="F14" s="15" t="inlineStr">
         <is>
           <t>Расходы по найму жилого помещения</t>
         </is>
       </c>
-      <c r="G14" s="16" t="inlineStr">
+      <c r="G14" s="15" t="inlineStr">
         <is>
           <t>Иные расходы, произведенные с разрешения нанимателя</t>
         </is>
@@ -1865,7 +1901,7 @@
       <c r="B15" s="17" t="n"/>
       <c r="C15" s="17" t="n"/>
       <c r="D15" s="17" t="n"/>
-      <c r="E15" s="16" t="inlineStr">
+      <c r="E15" s="15" t="inlineStr">
         <is>
           <t>(указываются виды, суммы расходов и документы, подстверждающие эти расходы</t>
         </is>
@@ -1874,25 +1910,25 @@
       <c r="G15" s="19" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="13" t="n">
+      <c r="A16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="13" t="n">
+      <c r="C16" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F16" s="13" t="n">
+      <c r="F16" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="G16" s="13" t="n">
+      <c r="G16" s="12" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1918,67 +1954,68 @@
       <c r="G17" s="20" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n"/>
-      <c r="B18" s="6" t="n"/>
-      <c r="C18" s="6" t="n"/>
-      <c r="D18" s="6" t="n"/>
-      <c r="E18" s="6" t="n"/>
-      <c r="F18" s="6" t="n"/>
-      <c r="G18" s="6" t="n"/>
+      <c r="A18" s="5" t="n"/>
+      <c r="B18" s="5" t="n"/>
+      <c r="C18" s="5" t="n"/>
+      <c r="D18" s="5" t="n"/>
+      <c r="E18" s="5" t="n"/>
+      <c r="F18" s="5" t="n"/>
+      <c r="G18" s="5" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="n"/>
-      <c r="B19" s="6" t="inlineStr">
+      <c r="A19" s="5" t="n"/>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Итого однодневных </t>
         </is>
       </c>
-      <c r="C19" s="5" t="n"/>
-      <c r="D19" s="14" t="n">
+      <c r="C19" s="4" t="n"/>
+      <c r="D19" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="E19" s="6" t="n"/>
-      <c r="F19" s="6" t="n"/>
-      <c r="G19" s="6" t="n"/>
+      <c r="E19" s="5" t="n"/>
+      <c r="F19" s="5" t="n"/>
+      <c r="G19" s="5" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n"/>
-      <c r="B20" s="6" t="inlineStr">
+      <c r="A20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>Итого многодневных</t>
         </is>
       </c>
-      <c r="C20" s="6" t="n"/>
-      <c r="D20" s="14" t="n">
+      <c r="C20" s="5" t="n"/>
+      <c r="D20" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="E20" s="6" t="n"/>
-      <c r="F20" s="6" t="n"/>
-      <c r="G20" s="6" t="n"/>
+      <c r="E20" s="5" t="n"/>
+      <c r="F20" s="5" t="n"/>
+      <c r="G20" s="5" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n"/>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="6" t="n"/>
-      <c r="D21" s="6" t="n"/>
-      <c r="E21" s="6" t="n"/>
-      <c r="F21" s="6" t="n"/>
-      <c r="G21" s="6" t="n"/>
+      <c r="A21" s="5" t="n"/>
+      <c r="B21" s="5" t="n"/>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="5" t="n"/>
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="5" t="n"/>
+      <c r="G21" s="5" t="n"/>
     </row>
     <row r="22">
-      <c r="F22" s="7" t="inlineStr">
+      <c r="F22" s="6" t="inlineStr">
         <is>
           <t>____________</t>
         </is>
       </c>
-      <c r="G22" s="7" t="inlineStr">
+      <c r="G22" s="6" t="inlineStr">
         <is>
           <t>Автухович Ю.И.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
@@ -1996,7 +2033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G29"/>
+  <dimension ref="A2:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2004,156 +2041,159 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5" customWidth="1" style="7" min="1" max="1"/>
-    <col width="19.77734375" customWidth="1" style="7" min="2" max="2"/>
-    <col width="15.33203125" customWidth="1" style="7" min="3" max="3"/>
-    <col width="12.88671875" customWidth="1" style="7" min="4" max="4"/>
-    <col width="10.5546875" customWidth="1" style="7" min="5" max="6"/>
-    <col width="12.44140625" customWidth="1" style="7" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="7" min="8" max="16384"/>
+    <col width="5" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.77734375" customWidth="1" style="6" min="2" max="2"/>
+    <col width="15.33203125" customWidth="1" style="6" min="3" max="3"/>
+    <col width="12.88671875" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.5546875" customWidth="1" style="6" min="5" max="6"/>
+    <col width="12.44140625" customWidth="1" style="6" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" style="6" min="8" max="16384"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="8" t="inlineStr">
+      <c r="B2" s="7" t="inlineStr">
         <is>
           <t>Отчет №</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>14/05</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="F2" s="7" t="inlineStr">
         <is>
           <t>"Утверждаю"</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="7" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>"     " _________202__г.</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="n"/>
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>Начальник ТЭО</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="7" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>Корнейчик Е.В.</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="7" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>_______________________</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>о служебных поездках</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>В ИООО "Белбогемия"</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Транспортно экспедиционный отдел</t>
         </is>
       </c>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="10" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>Фамилия</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t>Костицкий Д.Г.</t>
         </is>
       </c>
-      <c r="D11" s="7" t="n"/>
+      <c r="D11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="9" t="inlineStr">
         <is>
           <t>Должность</t>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="C12" s="7" t="inlineStr">
         <is>
           <t>водитель</t>
         </is>
       </c>
-      <c r="D12" s="7" t="n"/>
+      <c r="D12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
     </row>
     <row r="14" ht="79.8" customHeight="1">
-      <c r="A14" s="16" t="inlineStr">
+      <c r="A14" s="15" t="inlineStr">
         <is>
           <t>№ п/п</t>
         </is>
       </c>
-      <c r="B14" s="16" t="inlineStr">
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="C14" s="16" t="inlineStr">
+      <c r="C14" s="15" t="inlineStr">
         <is>
           <t>Цель служебной поездки</t>
         </is>
       </c>
-      <c r="D14" s="16" t="inlineStr">
+      <c r="D14" s="15" t="inlineStr">
         <is>
           <t>Количетсво дней (включая дни отъезда/приезда, выходные и праздничные дни</t>
         </is>
       </c>
-      <c r="E14" s="16" t="inlineStr">
+      <c r="E14" s="15" t="inlineStr">
         <is>
           <t>Расходы по проезду</t>
         </is>
       </c>
-      <c r="F14" s="16" t="inlineStr">
+      <c r="F14" s="15" t="inlineStr">
         <is>
           <t>Расходы по найму жилого помещения</t>
         </is>
       </c>
-      <c r="G14" s="16" t="inlineStr">
+      <c r="G14" s="15" t="inlineStr">
         <is>
           <t>Иные расходы, произведенные с разрешения нанимателя</t>
         </is>
@@ -2164,7 +2204,7 @@
       <c r="B15" s="17" t="n"/>
       <c r="C15" s="17" t="n"/>
       <c r="D15" s="17" t="n"/>
-      <c r="E15" s="16" t="inlineStr">
+      <c r="E15" s="15" t="inlineStr">
         <is>
           <t>(указываются виды, суммы расходов и документы, подстверждающие эти расходы</t>
         </is>
@@ -2173,25 +2213,25 @@
       <c r="G15" s="19" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="13" t="n">
+      <c r="A16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="13" t="n">
+      <c r="C16" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F16" s="13" t="n">
+      <c r="F16" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="G16" s="13" t="n">
+      <c r="G16" s="12" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2364,67 +2404,110 @@
       <c r="G24" s="20" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
-      <c r="F25" s="6" t="n"/>
-      <c r="G25" s="6" t="n"/>
+      <c r="A25" s="20" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" s="20" t="inlineStr">
+        <is>
+          <t>27.05.2022</t>
+        </is>
+      </c>
+      <c r="C25" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D25" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="20" t="n"/>
+      <c r="F25" s="20" t="n"/>
+      <c r="G25" s="20" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="n"/>
-      <c r="B26" s="6" t="inlineStr">
+      <c r="A26" s="20" t="n">
+        <v>10</v>
+      </c>
+      <c r="B26" s="20" t="inlineStr">
+        <is>
+          <t>31.05.2022</t>
+        </is>
+      </c>
+      <c r="C26" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D26" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="20" t="n"/>
+      <c r="F26" s="20" t="n"/>
+      <c r="G26" s="20" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="n"/>
+      <c r="B27" s="5" t="n"/>
+      <c r="C27" s="5" t="n"/>
+      <c r="D27" s="5" t="n"/>
+      <c r="E27" s="5" t="n"/>
+      <c r="F27" s="5" t="n"/>
+      <c r="G27" s="5" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="n"/>
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Итого однодневных </t>
         </is>
       </c>
-      <c r="C26" s="5" t="n"/>
-      <c r="D26" s="14" t="n">
-        <v>8</v>
-      </c>
-      <c r="E26" s="6" t="n"/>
-      <c r="F26" s="6" t="n"/>
-      <c r="G26" s="6" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="n"/>
-      <c r="B27" s="6" t="inlineStr">
+      <c r="C28" s="4" t="n"/>
+      <c r="D28" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" s="5" t="n"/>
+      <c r="F28" s="5" t="n"/>
+      <c r="G28" s="5" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="n"/>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Итого многодневных</t>
         </is>
       </c>
-      <c r="C27" s="6" t="n"/>
-      <c r="D27" s="14" t="n">
+      <c r="C29" s="5" t="n"/>
+      <c r="D29" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="E27" s="6" t="n"/>
-      <c r="F27" s="6" t="n"/>
-      <c r="G27" s="6" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="6" t="n"/>
-      <c r="B28" s="6" t="n"/>
-      <c r="C28" s="6" t="n"/>
-      <c r="D28" s="6" t="n"/>
-      <c r="E28" s="6" t="n"/>
-      <c r="F28" s="6" t="n"/>
-      <c r="G28" s="6" t="n"/>
-    </row>
-    <row r="29">
-      <c r="F29" s="7" t="inlineStr">
+      <c r="E29" s="5" t="n"/>
+      <c r="F29" s="5" t="n"/>
+      <c r="G29" s="5" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="n"/>
+      <c r="B30" s="5" t="n"/>
+      <c r="C30" s="5" t="n"/>
+      <c r="D30" s="5" t="n"/>
+      <c r="E30" s="5" t="n"/>
+      <c r="F30" s="5" t="n"/>
+      <c r="G30" s="5" t="n"/>
+    </row>
+    <row r="31">
+      <c r="F31" s="6" t="inlineStr">
         <is>
           <t>____________</t>
         </is>
       </c>
-      <c r="G29" s="7" t="inlineStr">
+      <c r="G31" s="6" t="inlineStr">
         <is>
           <t>Костицкий Д.Г.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
@@ -2442,7 +2525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G28"/>
+  <dimension ref="A2:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2450,156 +2533,159 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5" customWidth="1" style="7" min="1" max="1"/>
-    <col width="19.77734375" customWidth="1" style="7" min="2" max="2"/>
-    <col width="15.33203125" customWidth="1" style="7" min="3" max="3"/>
-    <col width="12.88671875" customWidth="1" style="7" min="4" max="4"/>
-    <col width="10.5546875" customWidth="1" style="7" min="5" max="6"/>
-    <col width="12.44140625" customWidth="1" style="7" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="7" min="8" max="16384"/>
+    <col width="5" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.77734375" customWidth="1" style="6" min="2" max="2"/>
+    <col width="15.33203125" customWidth="1" style="6" min="3" max="3"/>
+    <col width="12.88671875" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.5546875" customWidth="1" style="6" min="5" max="6"/>
+    <col width="12.44140625" customWidth="1" style="6" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" style="6" min="8" max="16384"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="8" t="inlineStr">
+      <c r="B2" s="7" t="inlineStr">
         <is>
           <t>Отчет №</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>3/05</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="F2" s="7" t="inlineStr">
         <is>
           <t>"Утверждаю"</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="7" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>"     " _________202__г.</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="n"/>
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>Начальник ТЭО</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="7" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>Корнейчик Е.В.</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="7" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>_______________________</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>о служебных поездках</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>В ИООО "Белбогемия"</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Транспортно экспедиционный отдел</t>
         </is>
       </c>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="10" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>Фамилия</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t>Колесень А.Л.</t>
         </is>
       </c>
-      <c r="D11" s="7" t="n"/>
+      <c r="D11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="9" t="inlineStr">
         <is>
           <t>Должность</t>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="C12" s="7" t="inlineStr">
         <is>
           <t>водитель</t>
         </is>
       </c>
-      <c r="D12" s="7" t="n"/>
+      <c r="D12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
     </row>
     <row r="14" ht="79.8" customHeight="1">
-      <c r="A14" s="16" t="inlineStr">
+      <c r="A14" s="15" t="inlineStr">
         <is>
           <t>№ п/п</t>
         </is>
       </c>
-      <c r="B14" s="16" t="inlineStr">
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="C14" s="16" t="inlineStr">
+      <c r="C14" s="15" t="inlineStr">
         <is>
           <t>Цель служебной поездки</t>
         </is>
       </c>
-      <c r="D14" s="16" t="inlineStr">
+      <c r="D14" s="15" t="inlineStr">
         <is>
           <t>Количетсво дней (включая дни отъезда/приезда, выходные и праздничные дни</t>
         </is>
       </c>
-      <c r="E14" s="16" t="inlineStr">
+      <c r="E14" s="15" t="inlineStr">
         <is>
           <t>Расходы по проезду</t>
         </is>
       </c>
-      <c r="F14" s="16" t="inlineStr">
+      <c r="F14" s="15" t="inlineStr">
         <is>
           <t>Расходы по найму жилого помещения</t>
         </is>
       </c>
-      <c r="G14" s="16" t="inlineStr">
+      <c r="G14" s="15" t="inlineStr">
         <is>
           <t>Иные расходы, произведенные с разрешения нанимателя</t>
         </is>
@@ -2610,7 +2696,7 @@
       <c r="B15" s="17" t="n"/>
       <c r="C15" s="17" t="n"/>
       <c r="D15" s="17" t="n"/>
-      <c r="E15" s="16" t="inlineStr">
+      <c r="E15" s="15" t="inlineStr">
         <is>
           <t>(указываются виды, суммы расходов и документы, подстверждающие эти расходы</t>
         </is>
@@ -2619,25 +2705,25 @@
       <c r="G15" s="19" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="13" t="n">
+      <c r="A16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="13" t="n">
+      <c r="C16" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F16" s="13" t="n">
+      <c r="F16" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="G16" s="13" t="n">
+      <c r="G16" s="12" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2789,67 +2875,110 @@
       <c r="G23" s="20" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n"/>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="n"/>
-      <c r="D24" s="6" t="n"/>
-      <c r="E24" s="6" t="n"/>
-      <c r="F24" s="6" t="n"/>
-      <c r="G24" s="6" t="n"/>
+      <c r="A24" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="B24" s="20" t="inlineStr">
+        <is>
+          <t>27.05.2022</t>
+        </is>
+      </c>
+      <c r="C24" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D24" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="20" t="n"/>
+      <c r="F24" s="20" t="n"/>
+      <c r="G24" s="20" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" s="6" t="inlineStr">
+      <c r="A25" s="20" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" s="20" t="inlineStr">
+        <is>
+          <t>30.05.2022</t>
+        </is>
+      </c>
+      <c r="C25" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D25" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="20" t="n"/>
+      <c r="F25" s="20" t="n"/>
+      <c r="G25" s="20" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="n"/>
+      <c r="B26" s="5" t="n"/>
+      <c r="C26" s="5" t="n"/>
+      <c r="D26" s="5" t="n"/>
+      <c r="E26" s="5" t="n"/>
+      <c r="F26" s="5" t="n"/>
+      <c r="G26" s="5" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="n"/>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Итого однодневных </t>
         </is>
       </c>
-      <c r="C25" s="5" t="n"/>
-      <c r="D25" s="14" t="n">
-        <v>7</v>
-      </c>
-      <c r="E25" s="6" t="n"/>
-      <c r="F25" s="6" t="n"/>
-      <c r="G25" s="6" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="6" t="n"/>
-      <c r="B26" s="6" t="inlineStr">
+      <c r="C27" s="4" t="n"/>
+      <c r="D27" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="E27" s="5" t="n"/>
+      <c r="F27" s="5" t="n"/>
+      <c r="G27" s="5" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="n"/>
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>Итого многодневных</t>
         </is>
       </c>
-      <c r="C26" s="6" t="n"/>
-      <c r="D26" s="14" t="n">
+      <c r="C28" s="5" t="n"/>
+      <c r="D28" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="E26" s="6" t="n"/>
-      <c r="F26" s="6" t="n"/>
-      <c r="G26" s="6" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="n"/>
-      <c r="B27" s="6" t="n"/>
-      <c r="C27" s="6" t="n"/>
-      <c r="D27" s="6" t="n"/>
-      <c r="E27" s="6" t="n"/>
-      <c r="F27" s="6" t="n"/>
-      <c r="G27" s="6" t="n"/>
-    </row>
-    <row r="28">
-      <c r="F28" s="7" t="inlineStr">
+      <c r="E28" s="5" t="n"/>
+      <c r="F28" s="5" t="n"/>
+      <c r="G28" s="5" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="n"/>
+      <c r="B29" s="5" t="n"/>
+      <c r="C29" s="5" t="n"/>
+      <c r="D29" s="5" t="n"/>
+      <c r="E29" s="5" t="n"/>
+      <c r="F29" s="5" t="n"/>
+      <c r="G29" s="5" t="n"/>
+    </row>
+    <row r="30">
+      <c r="F30" s="6" t="inlineStr">
         <is>
           <t>____________</t>
         </is>
       </c>
-      <c r="G28" s="7" t="inlineStr">
+      <c r="G30" s="6" t="inlineStr">
         <is>
           <t>Колесень А.Л.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
@@ -2867,7 +2996,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G29"/>
+  <dimension ref="A2:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2875,156 +3004,159 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5" customWidth="1" style="7" min="1" max="1"/>
-    <col width="19.77734375" customWidth="1" style="7" min="2" max="2"/>
-    <col width="15.33203125" customWidth="1" style="7" min="3" max="3"/>
-    <col width="12.88671875" customWidth="1" style="7" min="4" max="4"/>
-    <col width="10.5546875" customWidth="1" style="7" min="5" max="6"/>
-    <col width="12.44140625" customWidth="1" style="7" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="7" min="8" max="16384"/>
+    <col width="5" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.77734375" customWidth="1" style="6" min="2" max="2"/>
+    <col width="15.33203125" customWidth="1" style="6" min="3" max="3"/>
+    <col width="12.88671875" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.5546875" customWidth="1" style="6" min="5" max="6"/>
+    <col width="12.44140625" customWidth="1" style="6" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" style="6" min="8" max="16384"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="8" t="inlineStr">
+      <c r="B2" s="7" t="inlineStr">
         <is>
           <t>Отчет №</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>7/05</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="F2" s="7" t="inlineStr">
         <is>
           <t>"Утверждаю"</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="7" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>"     " _________202__г.</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="n"/>
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>Начальник ТЭО</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="7" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>Корнейчик Е.В.</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="7" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>_______________________</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>о служебных поездках</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>В ИООО "Белбогемия"</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Транспортно экспедиционный отдел</t>
         </is>
       </c>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="10" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>Фамилия</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t>Жук Е.А.</t>
         </is>
       </c>
-      <c r="D11" s="7" t="n"/>
+      <c r="D11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="9" t="inlineStr">
         <is>
           <t>Должность</t>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="C12" s="7" t="inlineStr">
         <is>
           <t>водитель</t>
         </is>
       </c>
-      <c r="D12" s="7" t="n"/>
+      <c r="D12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
     </row>
     <row r="14" ht="79.8" customHeight="1">
-      <c r="A14" s="16" t="inlineStr">
+      <c r="A14" s="15" t="inlineStr">
         <is>
           <t>№ п/п</t>
         </is>
       </c>
-      <c r="B14" s="16" t="inlineStr">
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="C14" s="16" t="inlineStr">
+      <c r="C14" s="15" t="inlineStr">
         <is>
           <t>Цель служебной поездки</t>
         </is>
       </c>
-      <c r="D14" s="16" t="inlineStr">
+      <c r="D14" s="15" t="inlineStr">
         <is>
           <t>Количетсво дней (включая дни отъезда/приезда, выходные и праздничные дни</t>
         </is>
       </c>
-      <c r="E14" s="16" t="inlineStr">
+      <c r="E14" s="15" t="inlineStr">
         <is>
           <t>Расходы по проезду</t>
         </is>
       </c>
-      <c r="F14" s="16" t="inlineStr">
+      <c r="F14" s="15" t="inlineStr">
         <is>
           <t>Расходы по найму жилого помещения</t>
         </is>
       </c>
-      <c r="G14" s="16" t="inlineStr">
+      <c r="G14" s="15" t="inlineStr">
         <is>
           <t>Иные расходы, произведенные с разрешения нанимателя</t>
         </is>
@@ -3035,7 +3167,7 @@
       <c r="B15" s="17" t="n"/>
       <c r="C15" s="17" t="n"/>
       <c r="D15" s="17" t="n"/>
-      <c r="E15" s="16" t="inlineStr">
+      <c r="E15" s="15" t="inlineStr">
         <is>
           <t>(указываются виды, суммы расходов и документы, подстверждающие эти расходы</t>
         </is>
@@ -3044,25 +3176,25 @@
       <c r="G15" s="19" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="13" t="n">
+      <c r="A16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="13" t="n">
+      <c r="C16" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F16" s="13" t="n">
+      <c r="F16" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="G16" s="13" t="n">
+      <c r="G16" s="12" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3235,67 +3367,89 @@
       <c r="G24" s="20" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
-      <c r="F25" s="6" t="n"/>
-      <c r="G25" s="6" t="n"/>
+      <c r="A25" s="20" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" s="20" t="inlineStr">
+        <is>
+          <t>31-01.06.2022</t>
+        </is>
+      </c>
+      <c r="C25" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D25" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" s="20" t="n"/>
+      <c r="F25" s="20" t="n"/>
+      <c r="G25" s="20" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="n"/>
-      <c r="B26" s="6" t="inlineStr">
+      <c r="A26" s="5" t="n"/>
+      <c r="B26" s="5" t="n"/>
+      <c r="C26" s="5" t="n"/>
+      <c r="D26" s="5" t="n"/>
+      <c r="E26" s="5" t="n"/>
+      <c r="F26" s="5" t="n"/>
+      <c r="G26" s="5" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="n"/>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Итого однодневных </t>
         </is>
       </c>
-      <c r="C26" s="5" t="n"/>
-      <c r="D26" s="14" t="n">
+      <c r="C27" s="4" t="n"/>
+      <c r="D27" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="E26" s="6" t="n"/>
-      <c r="F26" s="6" t="n"/>
-      <c r="G26" s="6" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="n"/>
-      <c r="B27" s="6" t="inlineStr">
+      <c r="E27" s="5" t="n"/>
+      <c r="F27" s="5" t="n"/>
+      <c r="G27" s="5" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="n"/>
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>Итого многодневных</t>
         </is>
       </c>
-      <c r="C27" s="6" t="n"/>
-      <c r="D27" s="14" t="n">
-        <v>8</v>
-      </c>
-      <c r="E27" s="6" t="n"/>
-      <c r="F27" s="6" t="n"/>
-      <c r="G27" s="6" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="6" t="n"/>
-      <c r="B28" s="6" t="n"/>
-      <c r="C28" s="6" t="n"/>
-      <c r="D28" s="6" t="n"/>
-      <c r="E28" s="6" t="n"/>
-      <c r="F28" s="6" t="n"/>
-      <c r="G28" s="6" t="n"/>
+      <c r="C28" s="5" t="n"/>
+      <c r="D28" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" s="5" t="n"/>
+      <c r="F28" s="5" t="n"/>
+      <c r="G28" s="5" t="n"/>
     </row>
     <row r="29">
-      <c r="F29" s="7" t="inlineStr">
+      <c r="A29" s="5" t="n"/>
+      <c r="B29" s="5" t="n"/>
+      <c r="C29" s="5" t="n"/>
+      <c r="D29" s="5" t="n"/>
+      <c r="E29" s="5" t="n"/>
+      <c r="F29" s="5" t="n"/>
+      <c r="G29" s="5" t="n"/>
+    </row>
+    <row r="30">
+      <c r="F30" s="6" t="inlineStr">
         <is>
           <t>____________</t>
         </is>
       </c>
-      <c r="G29" s="7" t="inlineStr">
+      <c r="G30" s="6" t="inlineStr">
         <is>
           <t>Жук Е.А.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
@@ -3321,156 +3475,159 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5" customWidth="1" style="7" min="1" max="1"/>
-    <col width="19.77734375" customWidth="1" style="7" min="2" max="2"/>
-    <col width="15.33203125" customWidth="1" style="7" min="3" max="3"/>
-    <col width="12.88671875" customWidth="1" style="7" min="4" max="4"/>
-    <col width="10.5546875" customWidth="1" style="7" min="5" max="6"/>
-    <col width="12.44140625" customWidth="1" style="7" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="7" min="8" max="16384"/>
+    <col width="5" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.77734375" customWidth="1" style="6" min="2" max="2"/>
+    <col width="15.33203125" customWidth="1" style="6" min="3" max="3"/>
+    <col width="12.88671875" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.5546875" customWidth="1" style="6" min="5" max="6"/>
+    <col width="12.44140625" customWidth="1" style="6" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" style="6" min="8" max="16384"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="8" t="inlineStr">
+      <c r="B2" s="7" t="inlineStr">
         <is>
           <t>Отчет №</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>4/05</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="F2" s="7" t="inlineStr">
         <is>
           <t>"Утверждаю"</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="7" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>"     " _________202__г.</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="n"/>
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>Начальник ТЭО</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="7" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>Корнейчик Е.В.</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="7" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>_______________________</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>о служебных поездках</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>В ИООО "Белбогемия"</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Транспортно экспедиционный отдел</t>
         </is>
       </c>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="10" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>Фамилия</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t>Дрозд В.Н.</t>
         </is>
       </c>
-      <c r="D11" s="7" t="n"/>
+      <c r="D11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="9" t="inlineStr">
         <is>
           <t>Должность</t>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="C12" s="7" t="inlineStr">
         <is>
           <t>водитель</t>
         </is>
       </c>
-      <c r="D12" s="7" t="n"/>
+      <c r="D12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
     </row>
     <row r="14" ht="79.8" customHeight="1">
-      <c r="A14" s="16" t="inlineStr">
+      <c r="A14" s="15" t="inlineStr">
         <is>
           <t>№ п/п</t>
         </is>
       </c>
-      <c r="B14" s="16" t="inlineStr">
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="C14" s="16" t="inlineStr">
+      <c r="C14" s="15" t="inlineStr">
         <is>
           <t>Цель служебной поездки</t>
         </is>
       </c>
-      <c r="D14" s="16" t="inlineStr">
+      <c r="D14" s="15" t="inlineStr">
         <is>
           <t>Количетсво дней (включая дни отъезда/приезда, выходные и праздничные дни</t>
         </is>
       </c>
-      <c r="E14" s="16" t="inlineStr">
+      <c r="E14" s="15" t="inlineStr">
         <is>
           <t>Расходы по проезду</t>
         </is>
       </c>
-      <c r="F14" s="16" t="inlineStr">
+      <c r="F14" s="15" t="inlineStr">
         <is>
           <t>Расходы по найму жилого помещения</t>
         </is>
       </c>
-      <c r="G14" s="16" t="inlineStr">
+      <c r="G14" s="15" t="inlineStr">
         <is>
           <t>Иные расходы, произведенные с разрешения нанимателя</t>
         </is>
@@ -3481,7 +3638,7 @@
       <c r="B15" s="17" t="n"/>
       <c r="C15" s="17" t="n"/>
       <c r="D15" s="17" t="n"/>
-      <c r="E15" s="16" t="inlineStr">
+      <c r="E15" s="15" t="inlineStr">
         <is>
           <t>(указываются виды, суммы расходов и документы, подстверждающие эти расходы</t>
         </is>
@@ -3490,25 +3647,25 @@
       <c r="G15" s="19" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="13" t="n">
+      <c r="A16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="13" t="n">
+      <c r="C16" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F16" s="13" t="n">
+      <c r="F16" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="G16" s="13" t="n">
+      <c r="G16" s="12" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3576,67 +3733,68 @@
       <c r="G19" s="20" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n"/>
-      <c r="B20" s="6" t="n"/>
-      <c r="C20" s="6" t="n"/>
-      <c r="D20" s="6" t="n"/>
-      <c r="E20" s="6" t="n"/>
-      <c r="F20" s="6" t="n"/>
-      <c r="G20" s="6" t="n"/>
+      <c r="A20" s="5" t="n"/>
+      <c r="B20" s="5" t="n"/>
+      <c r="C20" s="5" t="n"/>
+      <c r="D20" s="5" t="n"/>
+      <c r="E20" s="5" t="n"/>
+      <c r="F20" s="5" t="n"/>
+      <c r="G20" s="5" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n"/>
-      <c r="B21" s="6" t="inlineStr">
+      <c r="A21" s="5" t="n"/>
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Итого однодневных </t>
         </is>
       </c>
-      <c r="C21" s="5" t="n"/>
-      <c r="D21" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6" t="n"/>
-      <c r="F21" s="6" t="n"/>
-      <c r="G21" s="6" t="n"/>
+      <c r="C21" s="4" t="n"/>
+      <c r="D21" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="5" t="n"/>
+      <c r="G21" s="5" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n"/>
-      <c r="B22" s="6" t="inlineStr">
+      <c r="A22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>Итого многодневных</t>
         </is>
       </c>
-      <c r="C22" s="6" t="n"/>
-      <c r="D22" s="14" t="n">
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="E22" s="6" t="n"/>
-      <c r="F22" s="6" t="n"/>
-      <c r="G22" s="6" t="n"/>
+      <c r="E22" s="5" t="n"/>
+      <c r="F22" s="5" t="n"/>
+      <c r="G22" s="5" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="6" t="n"/>
-      <c r="D23" s="6" t="n"/>
-      <c r="E23" s="6" t="n"/>
-      <c r="F23" s="6" t="n"/>
-      <c r="G23" s="6" t="n"/>
+      <c r="A23" s="5" t="n"/>
+      <c r="B23" s="5" t="n"/>
+      <c r="C23" s="5" t="n"/>
+      <c r="D23" s="5" t="n"/>
+      <c r="E23" s="5" t="n"/>
+      <c r="F23" s="5" t="n"/>
+      <c r="G23" s="5" t="n"/>
     </row>
     <row r="24">
-      <c r="F24" s="7" t="inlineStr">
+      <c r="F24" s="6" t="inlineStr">
         <is>
           <t>____________</t>
         </is>
       </c>
-      <c r="G24" s="7" t="inlineStr">
+      <c r="G24" s="6" t="inlineStr">
         <is>
           <t>Дрозд В.Н.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
@@ -3662,156 +3820,159 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5" customWidth="1" style="7" min="1" max="1"/>
-    <col width="19.77734375" customWidth="1" style="7" min="2" max="2"/>
-    <col width="15.33203125" customWidth="1" style="7" min="3" max="3"/>
-    <col width="12.88671875" customWidth="1" style="7" min="4" max="4"/>
-    <col width="10.5546875" customWidth="1" style="7" min="5" max="6"/>
-    <col width="12.44140625" customWidth="1" style="7" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="7" min="8" max="16384"/>
+    <col width="5" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.77734375" customWidth="1" style="6" min="2" max="2"/>
+    <col width="15.33203125" customWidth="1" style="6" min="3" max="3"/>
+    <col width="12.88671875" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.5546875" customWidth="1" style="6" min="5" max="6"/>
+    <col width="12.44140625" customWidth="1" style="6" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" style="6" min="8" max="16384"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="8" t="inlineStr">
+      <c r="B2" s="7" t="inlineStr">
         <is>
           <t>Отчет №</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>6/05</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="F2" s="7" t="inlineStr">
         <is>
           <t>"Утверждаю"</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="7" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>"     " _________202__г.</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="n"/>
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>Начальник ТЭО</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="7" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>Корнейчик Е.В.</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="7" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>_______________________</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>о служебных поездках</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>В ИООО "Белбогемия"</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Транспортно экспедиционный отдел</t>
         </is>
       </c>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="10" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>Фамилия</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t>Колесень С.Л.</t>
         </is>
       </c>
-      <c r="D11" s="7" t="n"/>
+      <c r="D11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="9" t="inlineStr">
         <is>
           <t>Должность</t>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="C12" s="7" t="inlineStr">
         <is>
           <t>водитель</t>
         </is>
       </c>
-      <c r="D12" s="7" t="n"/>
+      <c r="D12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
     </row>
     <row r="14" ht="79.8" customHeight="1">
-      <c r="A14" s="16" t="inlineStr">
+      <c r="A14" s="15" t="inlineStr">
         <is>
           <t>№ п/п</t>
         </is>
       </c>
-      <c r="B14" s="16" t="inlineStr">
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="C14" s="16" t="inlineStr">
+      <c r="C14" s="15" t="inlineStr">
         <is>
           <t>Цель служебной поездки</t>
         </is>
       </c>
-      <c r="D14" s="16" t="inlineStr">
+      <c r="D14" s="15" t="inlineStr">
         <is>
           <t>Количетсво дней (включая дни отъезда/приезда, выходные и праздничные дни</t>
         </is>
       </c>
-      <c r="E14" s="16" t="inlineStr">
+      <c r="E14" s="15" t="inlineStr">
         <is>
           <t>Расходы по проезду</t>
         </is>
       </c>
-      <c r="F14" s="16" t="inlineStr">
+      <c r="F14" s="15" t="inlineStr">
         <is>
           <t>Расходы по найму жилого помещения</t>
         </is>
       </c>
-      <c r="G14" s="16" t="inlineStr">
+      <c r="G14" s="15" t="inlineStr">
         <is>
           <t>Иные расходы, произведенные с разрешения нанимателя</t>
         </is>
@@ -3822,7 +3983,7 @@
       <c r="B15" s="17" t="n"/>
       <c r="C15" s="17" t="n"/>
       <c r="D15" s="17" t="n"/>
-      <c r="E15" s="16" t="inlineStr">
+      <c r="E15" s="15" t="inlineStr">
         <is>
           <t>(указываются виды, суммы расходов и документы, подстверждающие эти расходы</t>
         </is>
@@ -3831,25 +3992,25 @@
       <c r="G15" s="19" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="13" t="n">
+      <c r="A16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="13" t="n">
+      <c r="C16" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F16" s="13" t="n">
+      <c r="F16" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="G16" s="13" t="n">
+      <c r="G16" s="12" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4022,67 +4183,68 @@
       <c r="G24" s="20" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
-      <c r="F25" s="6" t="n"/>
-      <c r="G25" s="6" t="n"/>
+      <c r="A25" s="5" t="n"/>
+      <c r="B25" s="5" t="n"/>
+      <c r="C25" s="5" t="n"/>
+      <c r="D25" s="5" t="n"/>
+      <c r="E25" s="5" t="n"/>
+      <c r="F25" s="5" t="n"/>
+      <c r="G25" s="5" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="n"/>
-      <c r="B26" s="6" t="inlineStr">
+      <c r="A26" s="5" t="n"/>
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Итого однодневных </t>
         </is>
       </c>
-      <c r="C26" s="5" t="n"/>
-      <c r="D26" s="14" t="n">
+      <c r="C26" s="4" t="n"/>
+      <c r="D26" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="E26" s="6" t="n"/>
-      <c r="F26" s="6" t="n"/>
-      <c r="G26" s="6" t="n"/>
+      <c r="E26" s="5" t="n"/>
+      <c r="F26" s="5" t="n"/>
+      <c r="G26" s="5" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="n"/>
-      <c r="B27" s="6" t="inlineStr">
+      <c r="A27" s="5" t="n"/>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Итого многодневных</t>
         </is>
       </c>
-      <c r="C27" s="6" t="n"/>
-      <c r="D27" s="14" t="n">
+      <c r="C27" s="5" t="n"/>
+      <c r="D27" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="E27" s="6" t="n"/>
-      <c r="F27" s="6" t="n"/>
-      <c r="G27" s="6" t="n"/>
+      <c r="E27" s="5" t="n"/>
+      <c r="F27" s="5" t="n"/>
+      <c r="G27" s="5" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="n"/>
-      <c r="B28" s="6" t="n"/>
-      <c r="C28" s="6" t="n"/>
-      <c r="D28" s="6" t="n"/>
-      <c r="E28" s="6" t="n"/>
-      <c r="F28" s="6" t="n"/>
-      <c r="G28" s="6" t="n"/>
+      <c r="A28" s="5" t="n"/>
+      <c r="B28" s="5" t="n"/>
+      <c r="C28" s="5" t="n"/>
+      <c r="D28" s="5" t="n"/>
+      <c r="E28" s="5" t="n"/>
+      <c r="F28" s="5" t="n"/>
+      <c r="G28" s="5" t="n"/>
     </row>
     <row r="29">
-      <c r="F29" s="7" t="inlineStr">
+      <c r="F29" s="6" t="inlineStr">
         <is>
           <t>____________</t>
         </is>
       </c>
-      <c r="G29" s="7" t="inlineStr">
+      <c r="G29" s="6" t="inlineStr">
         <is>
           <t>Колесень С.Л.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
@@ -4100,7 +4262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G29"/>
+  <dimension ref="A2:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4108,156 +4270,159 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5" customWidth="1" style="7" min="1" max="1"/>
-    <col width="19.77734375" customWidth="1" style="7" min="2" max="2"/>
-    <col width="15.33203125" customWidth="1" style="7" min="3" max="3"/>
-    <col width="12.88671875" customWidth="1" style="7" min="4" max="4"/>
-    <col width="10.5546875" customWidth="1" style="7" min="5" max="6"/>
-    <col width="12.44140625" customWidth="1" style="7" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="7" min="8" max="16384"/>
+    <col width="5" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.77734375" customWidth="1" style="6" min="2" max="2"/>
+    <col width="15.33203125" customWidth="1" style="6" min="3" max="3"/>
+    <col width="12.88671875" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.5546875" customWidth="1" style="6" min="5" max="6"/>
+    <col width="12.44140625" customWidth="1" style="6" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" style="6" min="8" max="16384"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="8" t="inlineStr">
+      <c r="B2" s="7" t="inlineStr">
         <is>
           <t>Отчет №</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>8/05</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="F2" s="7" t="inlineStr">
         <is>
           <t>"Утверждаю"</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="7" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>"     " _________202__г.</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="n"/>
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>Начальник ТЭО</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="7" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>Корнейчик Е.В.</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="7" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>_______________________</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>о служебных поездках</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>В ИООО "Белбогемия"</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Транспортно экспедиционный отдел</t>
         </is>
       </c>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="10" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>Фамилия</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t>Шиманович С.А.</t>
         </is>
       </c>
-      <c r="D11" s="7" t="n"/>
+      <c r="D11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="9" t="inlineStr">
         <is>
           <t>Должность</t>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="C12" s="7" t="inlineStr">
         <is>
           <t>водитель</t>
         </is>
       </c>
-      <c r="D12" s="7" t="n"/>
+      <c r="D12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
     </row>
     <row r="14" ht="79.8" customHeight="1">
-      <c r="A14" s="16" t="inlineStr">
+      <c r="A14" s="15" t="inlineStr">
         <is>
           <t>№ п/п</t>
         </is>
       </c>
-      <c r="B14" s="16" t="inlineStr">
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="C14" s="16" t="inlineStr">
+      <c r="C14" s="15" t="inlineStr">
         <is>
           <t>Цель служебной поездки</t>
         </is>
       </c>
-      <c r="D14" s="16" t="inlineStr">
+      <c r="D14" s="15" t="inlineStr">
         <is>
           <t>Количетсво дней (включая дни отъезда/приезда, выходные и праздничные дни</t>
         </is>
       </c>
-      <c r="E14" s="16" t="inlineStr">
+      <c r="E14" s="15" t="inlineStr">
         <is>
           <t>Расходы по проезду</t>
         </is>
       </c>
-      <c r="F14" s="16" t="inlineStr">
+      <c r="F14" s="15" t="inlineStr">
         <is>
           <t>Расходы по найму жилого помещения</t>
         </is>
       </c>
-      <c r="G14" s="16" t="inlineStr">
+      <c r="G14" s="15" t="inlineStr">
         <is>
           <t>Иные расходы, произведенные с разрешения нанимателя</t>
         </is>
@@ -4268,7 +4433,7 @@
       <c r="B15" s="17" t="n"/>
       <c r="C15" s="17" t="n"/>
       <c r="D15" s="17" t="n"/>
-      <c r="E15" s="16" t="inlineStr">
+      <c r="E15" s="15" t="inlineStr">
         <is>
           <t>(указываются виды, суммы расходов и документы, подстверждающие эти расходы</t>
         </is>
@@ -4277,25 +4442,25 @@
       <c r="G15" s="19" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="13" t="n">
+      <c r="A16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="13" t="n">
+      <c r="C16" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F16" s="13" t="n">
+      <c r="F16" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="G16" s="13" t="n">
+      <c r="G16" s="12" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4468,67 +4633,110 @@
       <c r="G24" s="20" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
-      <c r="F25" s="6" t="n"/>
-      <c r="G25" s="6" t="n"/>
+      <c r="A25" s="20" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" s="20" t="inlineStr">
+        <is>
+          <t>27.05.2022</t>
+        </is>
+      </c>
+      <c r="C25" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D25" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="20" t="n"/>
+      <c r="F25" s="20" t="n"/>
+      <c r="G25" s="20" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="n"/>
-      <c r="B26" s="6" t="inlineStr">
+      <c r="A26" s="20" t="n">
+        <v>10</v>
+      </c>
+      <c r="B26" s="20" t="inlineStr">
+        <is>
+          <t>31.05.2022</t>
+        </is>
+      </c>
+      <c r="C26" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D26" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="20" t="n"/>
+      <c r="F26" s="20" t="n"/>
+      <c r="G26" s="20" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="n"/>
+      <c r="B27" s="5" t="n"/>
+      <c r="C27" s="5" t="n"/>
+      <c r="D27" s="5" t="n"/>
+      <c r="E27" s="5" t="n"/>
+      <c r="F27" s="5" t="n"/>
+      <c r="G27" s="5" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="n"/>
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Итого однодневных </t>
         </is>
       </c>
-      <c r="C26" s="5" t="n"/>
-      <c r="D26" s="14" t="n">
-        <v>8</v>
-      </c>
-      <c r="E26" s="6" t="n"/>
-      <c r="F26" s="6" t="n"/>
-      <c r="G26" s="6" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="n"/>
-      <c r="B27" s="6" t="inlineStr">
+      <c r="C28" s="4" t="n"/>
+      <c r="D28" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" s="5" t="n"/>
+      <c r="F28" s="5" t="n"/>
+      <c r="G28" s="5" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="n"/>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Итого многодневных</t>
         </is>
       </c>
-      <c r="C27" s="6" t="n"/>
-      <c r="D27" s="14" t="n">
+      <c r="C29" s="5" t="n"/>
+      <c r="D29" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="E27" s="6" t="n"/>
-      <c r="F27" s="6" t="n"/>
-      <c r="G27" s="6" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="6" t="n"/>
-      <c r="B28" s="6" t="n"/>
-      <c r="C28" s="6" t="n"/>
-      <c r="D28" s="6" t="n"/>
-      <c r="E28" s="6" t="n"/>
-      <c r="F28" s="6" t="n"/>
-      <c r="G28" s="6" t="n"/>
-    </row>
-    <row r="29">
-      <c r="F29" s="7" t="inlineStr">
+      <c r="E29" s="5" t="n"/>
+      <c r="F29" s="5" t="n"/>
+      <c r="G29" s="5" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="n"/>
+      <c r="B30" s="5" t="n"/>
+      <c r="C30" s="5" t="n"/>
+      <c r="D30" s="5" t="n"/>
+      <c r="E30" s="5" t="n"/>
+      <c r="F30" s="5" t="n"/>
+      <c r="G30" s="5" t="n"/>
+    </row>
+    <row r="31">
+      <c r="F31" s="6" t="inlineStr">
         <is>
           <t>____________</t>
         </is>
       </c>
-      <c r="G29" s="7" t="inlineStr">
+      <c r="G31" s="6" t="inlineStr">
         <is>
           <t>Шиманович С.А.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
@@ -4554,156 +4762,159 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5" customWidth="1" style="7" min="1" max="1"/>
-    <col width="19.77734375" customWidth="1" style="7" min="2" max="2"/>
-    <col width="15.33203125" customWidth="1" style="7" min="3" max="3"/>
-    <col width="12.88671875" customWidth="1" style="7" min="4" max="4"/>
-    <col width="10.5546875" customWidth="1" style="7" min="5" max="6"/>
-    <col width="12.44140625" customWidth="1" style="7" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="7" min="8" max="16384"/>
+    <col width="5" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.77734375" customWidth="1" style="6" min="2" max="2"/>
+    <col width="15.33203125" customWidth="1" style="6" min="3" max="3"/>
+    <col width="12.88671875" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.5546875" customWidth="1" style="6" min="5" max="6"/>
+    <col width="12.44140625" customWidth="1" style="6" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" style="6" min="8" max="16384"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="8" t="inlineStr">
+      <c r="B2" s="7" t="inlineStr">
         <is>
           <t>Отчет №</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>5/05</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="F2" s="7" t="inlineStr">
         <is>
           <t>"Утверждаю"</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="7" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>"     " _________202__г.</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="n"/>
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>Начальник ТЭО</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="7" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>Корнейчик Е.В.</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="7" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>_______________________</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>о служебных поездках</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>В ИООО "Белбогемия"</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Транспортно экспедиционный отдел</t>
         </is>
       </c>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="10" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>Фамилия</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t>Дудорга Р.В.</t>
         </is>
       </c>
-      <c r="D11" s="7" t="n"/>
+      <c r="D11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="9" t="inlineStr">
         <is>
           <t>Должность</t>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="C12" s="7" t="inlineStr">
         <is>
           <t>водитель</t>
         </is>
       </c>
-      <c r="D12" s="7" t="n"/>
+      <c r="D12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
     </row>
     <row r="14" ht="79.8" customHeight="1">
-      <c r="A14" s="16" t="inlineStr">
+      <c r="A14" s="15" t="inlineStr">
         <is>
           <t>№ п/п</t>
         </is>
       </c>
-      <c r="B14" s="16" t="inlineStr">
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="C14" s="16" t="inlineStr">
+      <c r="C14" s="15" t="inlineStr">
         <is>
           <t>Цель служебной поездки</t>
         </is>
       </c>
-      <c r="D14" s="16" t="inlineStr">
+      <c r="D14" s="15" t="inlineStr">
         <is>
           <t>Количетсво дней (включая дни отъезда/приезда, выходные и праздничные дни</t>
         </is>
       </c>
-      <c r="E14" s="16" t="inlineStr">
+      <c r="E14" s="15" t="inlineStr">
         <is>
           <t>Расходы по проезду</t>
         </is>
       </c>
-      <c r="F14" s="16" t="inlineStr">
+      <c r="F14" s="15" t="inlineStr">
         <is>
           <t>Расходы по найму жилого помещения</t>
         </is>
       </c>
-      <c r="G14" s="16" t="inlineStr">
+      <c r="G14" s="15" t="inlineStr">
         <is>
           <t>Иные расходы, произведенные с разрешения нанимателя</t>
         </is>
@@ -4714,7 +4925,7 @@
       <c r="B15" s="17" t="n"/>
       <c r="C15" s="17" t="n"/>
       <c r="D15" s="17" t="n"/>
-      <c r="E15" s="16" t="inlineStr">
+      <c r="E15" s="15" t="inlineStr">
         <is>
           <t>(указываются виды, суммы расходов и документы, подстверждающие эти расходы</t>
         </is>
@@ -4723,25 +4934,25 @@
       <c r="G15" s="19" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="13" t="n">
+      <c r="A16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="13" t="n">
+      <c r="C16" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F16" s="13" t="n">
+      <c r="F16" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="G16" s="13" t="n">
+      <c r="G16" s="12" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4830,67 +5041,68 @@
       <c r="G20" s="20" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n"/>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="6" t="n"/>
-      <c r="D21" s="6" t="n"/>
-      <c r="E21" s="6" t="n"/>
-      <c r="F21" s="6" t="n"/>
-      <c r="G21" s="6" t="n"/>
+      <c r="A21" s="5" t="n"/>
+      <c r="B21" s="5" t="n"/>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="5" t="n"/>
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="5" t="n"/>
+      <c r="G21" s="5" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n"/>
-      <c r="B22" s="6" t="inlineStr">
+      <c r="A22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Итого однодневных </t>
         </is>
       </c>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6" t="n"/>
-      <c r="F22" s="6" t="n"/>
-      <c r="G22" s="6" t="n"/>
+      <c r="C22" s="4" t="n"/>
+      <c r="D22" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="n"/>
+      <c r="F22" s="5" t="n"/>
+      <c r="G22" s="5" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="6" t="inlineStr">
+      <c r="A23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Итого многодневных</t>
         </is>
       </c>
-      <c r="C23" s="6" t="n"/>
-      <c r="D23" s="14" t="n">
+      <c r="C23" s="5" t="n"/>
+      <c r="D23" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="E23" s="6" t="n"/>
-      <c r="F23" s="6" t="n"/>
-      <c r="G23" s="6" t="n"/>
+      <c r="E23" s="5" t="n"/>
+      <c r="F23" s="5" t="n"/>
+      <c r="G23" s="5" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n"/>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="n"/>
-      <c r="D24" s="6" t="n"/>
-      <c r="E24" s="6" t="n"/>
-      <c r="F24" s="6" t="n"/>
-      <c r="G24" s="6" t="n"/>
+      <c r="A24" s="5" t="n"/>
+      <c r="B24" s="5" t="n"/>
+      <c r="C24" s="5" t="n"/>
+      <c r="D24" s="5" t="n"/>
+      <c r="E24" s="5" t="n"/>
+      <c r="F24" s="5" t="n"/>
+      <c r="G24" s="5" t="n"/>
     </row>
     <row r="25">
-      <c r="F25" s="7" t="inlineStr">
+      <c r="F25" s="6" t="inlineStr">
         <is>
           <t>____________</t>
         </is>
       </c>
-      <c r="G25" s="7" t="inlineStr">
+      <c r="G25" s="6" t="inlineStr">
         <is>
           <t>Дудорга Р.В.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
@@ -4908,7 +5120,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G26"/>
+  <dimension ref="A2:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4916,156 +5128,159 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5" customWidth="1" style="7" min="1" max="1"/>
-    <col width="19.77734375" customWidth="1" style="7" min="2" max="2"/>
-    <col width="15.33203125" customWidth="1" style="7" min="3" max="3"/>
-    <col width="12.88671875" customWidth="1" style="7" min="4" max="4"/>
-    <col width="10.5546875" customWidth="1" style="7" min="5" max="6"/>
-    <col width="12.44140625" customWidth="1" style="7" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="7" min="8" max="16384"/>
+    <col width="5" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.77734375" customWidth="1" style="6" min="2" max="2"/>
+    <col width="15.33203125" customWidth="1" style="6" min="3" max="3"/>
+    <col width="12.88671875" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.5546875" customWidth="1" style="6" min="5" max="6"/>
+    <col width="12.44140625" customWidth="1" style="6" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" style="6" min="8" max="16384"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="8" t="inlineStr">
+      <c r="B2" s="7" t="inlineStr">
         <is>
           <t>Отчет №</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>10/05</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="F2" s="7" t="inlineStr">
         <is>
           <t>"Утверждаю"</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="7" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>"     " _________202__г.</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="n"/>
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>Начальник ТЭО</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="7" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>Корнейчик Е.В.</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="7" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>_______________________</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>о служебных поездках</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>В ИООО "Белбогемия"</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Транспортно экспедиционный отдел</t>
         </is>
       </c>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="10" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>Фамилия</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t>Клюев С.В.</t>
         </is>
       </c>
-      <c r="D11" s="7" t="n"/>
+      <c r="D11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="9" t="inlineStr">
         <is>
           <t>Должность</t>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="C12" s="7" t="inlineStr">
         <is>
           <t>экспедитор</t>
         </is>
       </c>
-      <c r="D12" s="7" t="n"/>
+      <c r="D12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
     </row>
     <row r="14" ht="79.8" customHeight="1">
-      <c r="A14" s="16" t="inlineStr">
+      <c r="A14" s="15" t="inlineStr">
         <is>
           <t>№ п/п</t>
         </is>
       </c>
-      <c r="B14" s="16" t="inlineStr">
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="C14" s="16" t="inlineStr">
+      <c r="C14" s="15" t="inlineStr">
         <is>
           <t>Цель служебной поездки</t>
         </is>
       </c>
-      <c r="D14" s="16" t="inlineStr">
+      <c r="D14" s="15" t="inlineStr">
         <is>
           <t>Количетсво дней (включая дни отъезда/приезда, выходные и праздничные дни</t>
         </is>
       </c>
-      <c r="E14" s="16" t="inlineStr">
+      <c r="E14" s="15" t="inlineStr">
         <is>
           <t>Расходы по проезду</t>
         </is>
       </c>
-      <c r="F14" s="16" t="inlineStr">
+      <c r="F14" s="15" t="inlineStr">
         <is>
           <t>Расходы по найму жилого помещения</t>
         </is>
       </c>
-      <c r="G14" s="16" t="inlineStr">
+      <c r="G14" s="15" t="inlineStr">
         <is>
           <t>Иные расходы, произведенные с разрешения нанимателя</t>
         </is>
@@ -5076,7 +5291,7 @@
       <c r="B15" s="17" t="n"/>
       <c r="C15" s="17" t="n"/>
       <c r="D15" s="17" t="n"/>
-      <c r="E15" s="16" t="inlineStr">
+      <c r="E15" s="15" t="inlineStr">
         <is>
           <t>(указываются виды, суммы расходов и документы, подстверждающие эти расходы</t>
         </is>
@@ -5085,25 +5300,25 @@
       <c r="G15" s="19" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="13" t="n">
+      <c r="A16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="13" t="n">
+      <c r="C16" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F16" s="13" t="n">
+      <c r="F16" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="G16" s="13" t="n">
+      <c r="G16" s="12" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5197,7 +5412,7 @@
       </c>
       <c r="B21" s="20" t="inlineStr">
         <is>
-          <t>24-25.05.2022</t>
+          <t>18-19.05.2022</t>
         </is>
       </c>
       <c r="C21" s="20" t="inlineStr">
@@ -5213,67 +5428,110 @@
       <c r="G21" s="20" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n"/>
-      <c r="B22" s="6" t="n"/>
-      <c r="C22" s="6" t="n"/>
-      <c r="D22" s="6" t="n"/>
-      <c r="E22" s="6" t="n"/>
-      <c r="F22" s="6" t="n"/>
-      <c r="G22" s="6" t="n"/>
+      <c r="A22" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="20" t="inlineStr">
+        <is>
+          <t>24-25.05.2022</t>
+        </is>
+      </c>
+      <c r="C22" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D22" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="20" t="n"/>
+      <c r="F22" s="20" t="n"/>
+      <c r="G22" s="20" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="6" t="inlineStr">
+      <c r="A23" s="20" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" s="20" t="inlineStr">
+        <is>
+          <t>30-31.05.2022</t>
+        </is>
+      </c>
+      <c r="C23" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D23" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="20" t="n"/>
+      <c r="F23" s="20" t="n"/>
+      <c r="G23" s="20" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="n"/>
+      <c r="B24" s="5" t="n"/>
+      <c r="C24" s="5" t="n"/>
+      <c r="D24" s="5" t="n"/>
+      <c r="E24" s="5" t="n"/>
+      <c r="F24" s="5" t="n"/>
+      <c r="G24" s="5" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="n"/>
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Итого однодневных </t>
         </is>
       </c>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="14" t="n">
+      <c r="C25" s="4" t="n"/>
+      <c r="D25" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="E23" s="6" t="n"/>
-      <c r="F23" s="6" t="n"/>
-      <c r="G23" s="6" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="n"/>
-      <c r="B24" s="6" t="inlineStr">
+      <c r="E25" s="5" t="n"/>
+      <c r="F25" s="5" t="n"/>
+      <c r="G25" s="5" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="n"/>
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>Итого многодневных</t>
         </is>
       </c>
-      <c r="C24" s="6" t="n"/>
-      <c r="D24" s="14" t="n">
-        <v>6</v>
-      </c>
-      <c r="E24" s="6" t="n"/>
-      <c r="F24" s="6" t="n"/>
-      <c r="G24" s="6" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
-      <c r="F25" s="6" t="n"/>
-      <c r="G25" s="6" t="n"/>
-    </row>
-    <row r="26">
-      <c r="F26" s="7" t="inlineStr">
+      <c r="C26" s="5" t="n"/>
+      <c r="D26" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" s="5" t="n"/>
+      <c r="F26" s="5" t="n"/>
+      <c r="G26" s="5" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="n"/>
+      <c r="B27" s="5" t="n"/>
+      <c r="C27" s="5" t="n"/>
+      <c r="D27" s="5" t="n"/>
+      <c r="E27" s="5" t="n"/>
+      <c r="F27" s="5" t="n"/>
+      <c r="G27" s="5" t="n"/>
+    </row>
+    <row r="28">
+      <c r="F28" s="6" t="inlineStr">
         <is>
           <t>____________</t>
         </is>
       </c>
-      <c r="G26" s="7" t="inlineStr">
+      <c r="G28" s="6" t="inlineStr">
         <is>
           <t>Клюев С.В.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>

--- a/excel/new.xlsx
+++ b/excel/new.xlsx
@@ -6,17 +6,17 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Логутов В.Н." sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Костицкий Д.Г." sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Колесень А.Л." sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Жук Е.А." sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Дрозд В.Н." sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Колесень С.Л." sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Шиманович С.А." sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Дудорга Р.В." sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Клюев С.В." sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Ивановский А.С." sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Можейко А.М." sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Дудорга Р.В." sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Колесень А.Л." sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Жук Е.А." sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Шиманович С.А." sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Костицкий Д.Г." sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Логутов В.Н." sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Колесень С.Л." sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Сикорский С.И." sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Ивановский А.С." sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Можейко А.М." sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Клюев С.В." sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Автухович Ю.И." sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
@@ -611,7 +611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G25"/>
+  <dimension ref="A2:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,7 +636,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>9/05</t>
+          <t>5/06</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>Логутов В.Н.</t>
+          <t>Дудорга Р.В.</t>
         </is>
       </c>
       <c r="D11" s="6" t="n"/>
@@ -819,7 +819,7 @@
       </c>
       <c r="B17" s="20" t="inlineStr">
         <is>
-          <t>12-13.05.2022</t>
+          <t>01-02.06.2022</t>
         </is>
       </c>
       <c r="C17" s="20" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="B18" s="20" t="inlineStr">
         <is>
-          <t>16-17.05.2022</t>
+          <t>03.06.2022</t>
         </is>
       </c>
       <c r="C18" s="20" t="inlineStr">
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="D18" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="20" t="n"/>
       <c r="F18" s="20" t="n"/>
@@ -861,7 +861,7 @@
       </c>
       <c r="B19" s="20" t="inlineStr">
         <is>
-          <t>24-25.05.2022</t>
+          <t>06.06.2022</t>
         </is>
       </c>
       <c r="C19" s="20" t="inlineStr">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="D19" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="20" t="n"/>
       <c r="F19" s="20" t="n"/>
@@ -882,7 +882,7 @@
       </c>
       <c r="B20" s="20" t="inlineStr">
         <is>
-          <t>30-31.05.2022</t>
+          <t>07.06.2022</t>
         </is>
       </c>
       <c r="C20" s="20" t="inlineStr">
@@ -891,69 +891,195 @@
         </is>
       </c>
       <c r="D20" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="20" t="n"/>
       <c r="F20" s="20" t="n"/>
       <c r="G20" s="20" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n"/>
-      <c r="B21" s="5" t="n"/>
-      <c r="C21" s="5" t="n"/>
-      <c r="D21" s="5" t="n"/>
-      <c r="E21" s="5" t="n"/>
-      <c r="F21" s="5" t="n"/>
-      <c r="G21" s="5" t="n"/>
+      <c r="A21" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" s="20" t="inlineStr">
+        <is>
+          <t>08.06.2022</t>
+        </is>
+      </c>
+      <c r="C21" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D21" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="20" t="n"/>
+      <c r="F21" s="20" t="n"/>
+      <c r="G21" s="20" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="n"/>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="A22" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="20" t="inlineStr">
+        <is>
+          <t>13-14.06.2022</t>
+        </is>
+      </c>
+      <c r="C22" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D22" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="20" t="n"/>
+      <c r="F22" s="20" t="n"/>
+      <c r="G22" s="20" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="20" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" s="20" t="inlineStr">
+        <is>
+          <t>15-16.06.2022</t>
+        </is>
+      </c>
+      <c r="C23" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D23" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="20" t="n"/>
+      <c r="F23" s="20" t="n"/>
+      <c r="G23" s="20" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="B24" s="20" t="inlineStr">
+        <is>
+          <t>21-22.06.2022</t>
+        </is>
+      </c>
+      <c r="C24" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D24" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="20" t="n"/>
+      <c r="F24" s="20" t="n"/>
+      <c r="G24" s="20" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="20" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" s="20" t="inlineStr">
+        <is>
+          <t>23-24.06.2022</t>
+        </is>
+      </c>
+      <c r="C25" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D25" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" s="20" t="n"/>
+      <c r="F25" s="20" t="n"/>
+      <c r="G25" s="20" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="20" t="n">
+        <v>10</v>
+      </c>
+      <c r="B26" s="20" t="inlineStr">
+        <is>
+          <t>29-30.06.2022</t>
+        </is>
+      </c>
+      <c r="C26" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D26" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" s="20" t="n"/>
+      <c r="F26" s="20" t="n"/>
+      <c r="G26" s="20" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="n"/>
+      <c r="B27" s="5" t="n"/>
+      <c r="C27" s="5" t="n"/>
+      <c r="D27" s="5" t="n"/>
+      <c r="E27" s="5" t="n"/>
+      <c r="F27" s="5" t="n"/>
+      <c r="G27" s="5" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="n"/>
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Итого однодневных </t>
         </is>
       </c>
-      <c r="C22" s="4" t="n"/>
-      <c r="D22" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="n"/>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="C28" s="4" t="n"/>
+      <c r="D28" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" s="5" t="n"/>
+      <c r="F28" s="5" t="n"/>
+      <c r="G28" s="5" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="n"/>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Итого многодневных</t>
         </is>
       </c>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="n"/>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-    </row>
-    <row r="25">
-      <c r="F25" s="6" t="inlineStr">
+      <c r="C29" s="5" t="n"/>
+      <c r="D29" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E29" s="5" t="n"/>
+      <c r="F29" s="5" t="n"/>
+      <c r="G29" s="5" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="n"/>
+      <c r="B30" s="5" t="n"/>
+      <c r="C30" s="5" t="n"/>
+      <c r="D30" s="5" t="n"/>
+      <c r="E30" s="5" t="n"/>
+      <c r="F30" s="5" t="n"/>
+      <c r="G30" s="5" t="n"/>
+    </row>
+    <row r="31">
+      <c r="F31" s="6" t="inlineStr">
         <is>
           <t>____________</t>
         </is>
       </c>
-      <c r="G25" s="6" t="inlineStr">
-        <is>
-          <t>Логутов В.Н.</t>
+      <c r="G31" s="6" t="inlineStr">
+        <is>
+          <t>Дудорга Р.В.</t>
         </is>
       </c>
     </row>
@@ -972,6 +1098,1962 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <cols>
+    <col width="5" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.77734375" customWidth="1" style="6" min="2" max="2"/>
+    <col width="15.33203125" customWidth="1" style="6" min="3" max="3"/>
+    <col width="12.88671875" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.5546875" customWidth="1" style="6" min="5" max="6"/>
+    <col width="12.44140625" customWidth="1" style="6" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" style="6" min="8" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>Отчет №</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>16/06</t>
+        </is>
+      </c>
+      <c r="F2" s="7" t="inlineStr">
+        <is>
+          <t>"Утверждаю"</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>"     " _________202__г.</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="n"/>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>Начальник ТЭО</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>Корнейчик Е.В.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>_______________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>о служебных поездках</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>В ИООО "Белбогемия"</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Транспортно экспедиционный отдел</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="9" t="inlineStr">
+        <is>
+          <t>Фамилия</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>Можейко А.М.</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="9" t="inlineStr">
+        <is>
+          <t>Должность</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr">
+        <is>
+          <t>экспедитор</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="n"/>
+    </row>
+    <row r="13">
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+    </row>
+    <row r="14" ht="79.8" customHeight="1">
+      <c r="A14" s="15" t="inlineStr">
+        <is>
+          <t>№ п/п</t>
+        </is>
+      </c>
+      <c r="B14" s="15" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="C14" s="15" t="inlineStr">
+        <is>
+          <t>Цель служебной поездки</t>
+        </is>
+      </c>
+      <c r="D14" s="15" t="inlineStr">
+        <is>
+          <t>Количетсво дней (включая дни отъезда/приезда, выходные и праздничные дни</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>Расходы по проезду</t>
+        </is>
+      </c>
+      <c r="F14" s="15" t="inlineStr">
+        <is>
+          <t>Расходы по найму жилого помещения</t>
+        </is>
+      </c>
+      <c r="G14" s="15" t="inlineStr">
+        <is>
+          <t>Иные расходы, произведенные с разрешения нанимателя</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="36" customHeight="1">
+      <c r="A15" s="17" t="n"/>
+      <c r="B15" s="17" t="n"/>
+      <c r="C15" s="17" t="n"/>
+      <c r="D15" s="17" t="n"/>
+      <c r="E15" s="15" t="inlineStr">
+        <is>
+          <t>(указываются виды, суммы расходов и документы, подстверждающие эти расходы</t>
+        </is>
+      </c>
+      <c r="F15" s="18" t="n"/>
+      <c r="G15" s="19" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" s="12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="20" t="inlineStr">
+        <is>
+          <t>02-03.06.2022</t>
+        </is>
+      </c>
+      <c r="C17" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D17" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="20" t="n"/>
+      <c r="F17" s="20" t="n"/>
+      <c r="G17" s="20" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" s="20" t="inlineStr">
+        <is>
+          <t>10.06.2022</t>
+        </is>
+      </c>
+      <c r="C18" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D18" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="20" t="n"/>
+      <c r="F18" s="20" t="n"/>
+      <c r="G18" s="20" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" s="20" t="inlineStr">
+        <is>
+          <t>17.06.2022</t>
+        </is>
+      </c>
+      <c r="C19" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D19" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="20" t="n"/>
+      <c r="F19" s="20" t="n"/>
+      <c r="G19" s="20" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n"/>
+      <c r="B20" s="5" t="n"/>
+      <c r="C20" s="5" t="n"/>
+      <c r="D20" s="5" t="n"/>
+      <c r="E20" s="5" t="n"/>
+      <c r="F20" s="5" t="n"/>
+      <c r="G20" s="5" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="n"/>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Итого однодневных </t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n"/>
+      <c r="D21" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="5" t="n"/>
+      <c r="G21" s="5" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Итого многодневных</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5" t="n"/>
+      <c r="F22" s="5" t="n"/>
+      <c r="G22" s="5" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="n"/>
+      <c r="B23" s="5" t="n"/>
+      <c r="C23" s="5" t="n"/>
+      <c r="D23" s="5" t="n"/>
+      <c r="E23" s="5" t="n"/>
+      <c r="F23" s="5" t="n"/>
+      <c r="G23" s="5" t="n"/>
+    </row>
+    <row r="24">
+      <c r="F24" s="6" t="inlineStr">
+        <is>
+          <t>____________</t>
+        </is>
+      </c>
+      <c r="G24" s="6" t="inlineStr">
+        <is>
+          <t>Можейко А.М.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E15:G15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <cols>
+    <col width="5" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.77734375" customWidth="1" style="6" min="2" max="2"/>
+    <col width="15.33203125" customWidth="1" style="6" min="3" max="3"/>
+    <col width="12.88671875" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.5546875" customWidth="1" style="6" min="5" max="6"/>
+    <col width="12.44140625" customWidth="1" style="6" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" style="6" min="8" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>Отчет №</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>10/06</t>
+        </is>
+      </c>
+      <c r="F2" s="7" t="inlineStr">
+        <is>
+          <t>"Утверждаю"</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>"     " _________202__г.</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="n"/>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>Начальник ТЭО</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>Корнейчик Е.В.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>_______________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>о служебных поездках</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>В ИООО "Белбогемия"</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Транспортно экспедиционный отдел</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="9" t="inlineStr">
+        <is>
+          <t>Фамилия</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>Клюев С.В.</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="9" t="inlineStr">
+        <is>
+          <t>Должность</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr">
+        <is>
+          <t>экспедитор</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="n"/>
+    </row>
+    <row r="13">
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+    </row>
+    <row r="14" ht="79.8" customHeight="1">
+      <c r="A14" s="15" t="inlineStr">
+        <is>
+          <t>№ п/п</t>
+        </is>
+      </c>
+      <c r="B14" s="15" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="C14" s="15" t="inlineStr">
+        <is>
+          <t>Цель служебной поездки</t>
+        </is>
+      </c>
+      <c r="D14" s="15" t="inlineStr">
+        <is>
+          <t>Количетсво дней (включая дни отъезда/приезда, выходные и праздничные дни</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>Расходы по проезду</t>
+        </is>
+      </c>
+      <c r="F14" s="15" t="inlineStr">
+        <is>
+          <t>Расходы по найму жилого помещения</t>
+        </is>
+      </c>
+      <c r="G14" s="15" t="inlineStr">
+        <is>
+          <t>Иные расходы, произведенные с разрешения нанимателя</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="36" customHeight="1">
+      <c r="A15" s="17" t="n"/>
+      <c r="B15" s="17" t="n"/>
+      <c r="C15" s="17" t="n"/>
+      <c r="D15" s="17" t="n"/>
+      <c r="E15" s="15" t="inlineStr">
+        <is>
+          <t>(указываются виды, суммы расходов и документы, подстверждающие эти расходы</t>
+        </is>
+      </c>
+      <c r="F15" s="18" t="n"/>
+      <c r="G15" s="19" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" s="12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="20" t="inlineStr">
+        <is>
+          <t>06-07.06.2022</t>
+        </is>
+      </c>
+      <c r="C17" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D17" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="20" t="n"/>
+      <c r="F17" s="20" t="n"/>
+      <c r="G17" s="20" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" s="20" t="inlineStr">
+        <is>
+          <t>08-09.06.2022</t>
+        </is>
+      </c>
+      <c r="C18" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D18" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="20" t="n"/>
+      <c r="F18" s="20" t="n"/>
+      <c r="G18" s="20" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" s="20" t="inlineStr">
+        <is>
+          <t>10.06.2022</t>
+        </is>
+      </c>
+      <c r="C19" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D19" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="20" t="n"/>
+      <c r="F19" s="20" t="n"/>
+      <c r="G19" s="20" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" s="20" t="inlineStr">
+        <is>
+          <t>14-15.06.2022</t>
+        </is>
+      </c>
+      <c r="C20" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D20" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="20" t="n"/>
+      <c r="F20" s="20" t="n"/>
+      <c r="G20" s="20" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" s="20" t="inlineStr">
+        <is>
+          <t>20-21.06.2022</t>
+        </is>
+      </c>
+      <c r="C21" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D21" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="20" t="n"/>
+      <c r="F21" s="20" t="n"/>
+      <c r="G21" s="20" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="20" t="inlineStr">
+        <is>
+          <t>22-23.06.2022</t>
+        </is>
+      </c>
+      <c r="C22" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D22" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="20" t="n"/>
+      <c r="F22" s="20" t="n"/>
+      <c r="G22" s="20" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="20" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" s="20" t="inlineStr">
+        <is>
+          <t>24.06.2022</t>
+        </is>
+      </c>
+      <c r="C23" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D23" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="20" t="n"/>
+      <c r="F23" s="20" t="n"/>
+      <c r="G23" s="20" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="B24" s="20" t="inlineStr">
+        <is>
+          <t>27-28.06.2022</t>
+        </is>
+      </c>
+      <c r="C24" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D24" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="20" t="n"/>
+      <c r="F24" s="20" t="n"/>
+      <c r="G24" s="20" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="20" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" s="20" t="inlineStr">
+        <is>
+          <t>30-01.07.2022</t>
+        </is>
+      </c>
+      <c r="C25" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D25" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" s="20" t="n"/>
+      <c r="F25" s="20" t="n"/>
+      <c r="G25" s="20" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="n"/>
+      <c r="B26" s="5" t="n"/>
+      <c r="C26" s="5" t="n"/>
+      <c r="D26" s="5" t="n"/>
+      <c r="E26" s="5" t="n"/>
+      <c r="F26" s="5" t="n"/>
+      <c r="G26" s="5" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="n"/>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Итого однодневных </t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="n"/>
+      <c r="D27" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" s="5" t="n"/>
+      <c r="F27" s="5" t="n"/>
+      <c r="G27" s="5" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="n"/>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>Итого многодневных</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="n"/>
+      <c r="D28" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="E28" s="5" t="n"/>
+      <c r="F28" s="5" t="n"/>
+      <c r="G28" s="5" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="n"/>
+      <c r="B29" s="5" t="n"/>
+      <c r="C29" s="5" t="n"/>
+      <c r="D29" s="5" t="n"/>
+      <c r="E29" s="5" t="n"/>
+      <c r="F29" s="5" t="n"/>
+      <c r="G29" s="5" t="n"/>
+    </row>
+    <row r="30">
+      <c r="F30" s="6" t="inlineStr">
+        <is>
+          <t>____________</t>
+        </is>
+      </c>
+      <c r="G30" s="6" t="inlineStr">
+        <is>
+          <t>Клюев С.В.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E15:G15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <cols>
+    <col width="5" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.77734375" customWidth="1" style="6" min="2" max="2"/>
+    <col width="15.33203125" customWidth="1" style="6" min="3" max="3"/>
+    <col width="12.88671875" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.5546875" customWidth="1" style="6" min="5" max="6"/>
+    <col width="12.44140625" customWidth="1" style="6" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" style="6" min="8" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>Отчет №</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>23/06</t>
+        </is>
+      </c>
+      <c r="F2" s="7" t="inlineStr">
+        <is>
+          <t>"Утверждаю"</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>"     " _________202__г.</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="n"/>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>Начальник ТЭО</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>Корнейчик Е.В.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>_______________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>о служебных поездках</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>В ИООО "Белбогемия"</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Транспортно экспедиционный отдел</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="9" t="inlineStr">
+        <is>
+          <t>Фамилия</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>Автухович Ю.И.</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="9" t="inlineStr">
+        <is>
+          <t>Должность</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr">
+        <is>
+          <t>экспедитор</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="n"/>
+    </row>
+    <row r="13">
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+    </row>
+    <row r="14" ht="79.8" customHeight="1">
+      <c r="A14" s="15" t="inlineStr">
+        <is>
+          <t>№ п/п</t>
+        </is>
+      </c>
+      <c r="B14" s="15" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="C14" s="15" t="inlineStr">
+        <is>
+          <t>Цель служебной поездки</t>
+        </is>
+      </c>
+      <c r="D14" s="15" t="inlineStr">
+        <is>
+          <t>Количетсво дней (включая дни отъезда/приезда, выходные и праздничные дни</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>Расходы по проезду</t>
+        </is>
+      </c>
+      <c r="F14" s="15" t="inlineStr">
+        <is>
+          <t>Расходы по найму жилого помещения</t>
+        </is>
+      </c>
+      <c r="G14" s="15" t="inlineStr">
+        <is>
+          <t>Иные расходы, произведенные с разрешения нанимателя</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="36" customHeight="1">
+      <c r="A15" s="17" t="n"/>
+      <c r="B15" s="17" t="n"/>
+      <c r="C15" s="17" t="n"/>
+      <c r="D15" s="17" t="n"/>
+      <c r="E15" s="15" t="inlineStr">
+        <is>
+          <t>(указываются виды, суммы расходов и документы, подстверждающие эти расходы</t>
+        </is>
+      </c>
+      <c r="F15" s="18" t="n"/>
+      <c r="G15" s="19" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" s="12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="20" t="inlineStr">
+        <is>
+          <t>17.06.2022</t>
+        </is>
+      </c>
+      <c r="C17" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D17" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="20" t="n"/>
+      <c r="F17" s="20" t="n"/>
+      <c r="G17" s="20" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" s="20" t="inlineStr">
+        <is>
+          <t>24.06.2022</t>
+        </is>
+      </c>
+      <c r="C18" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D18" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="20" t="n"/>
+      <c r="F18" s="20" t="n"/>
+      <c r="G18" s="20" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n"/>
+      <c r="B19" s="5" t="n"/>
+      <c r="C19" s="5" t="n"/>
+      <c r="D19" s="5" t="n"/>
+      <c r="E19" s="5" t="n"/>
+      <c r="F19" s="5" t="n"/>
+      <c r="G19" s="5" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Итого однодневных </t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n"/>
+      <c r="D20" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5" t="n"/>
+      <c r="F20" s="5" t="n"/>
+      <c r="G20" s="5" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="n"/>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>Итого многодневных</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="5" t="n"/>
+      <c r="G21" s="5" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="n"/>
+      <c r="B22" s="5" t="n"/>
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="5" t="n"/>
+      <c r="E22" s="5" t="n"/>
+      <c r="F22" s="5" t="n"/>
+      <c r="G22" s="5" t="n"/>
+    </row>
+    <row r="23">
+      <c r="F23" s="6" t="inlineStr">
+        <is>
+          <t>____________</t>
+        </is>
+      </c>
+      <c r="G23" s="6" t="inlineStr">
+        <is>
+          <t>Автухович Ю.И.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E15:G15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <cols>
+    <col width="5" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.77734375" customWidth="1" style="6" min="2" max="2"/>
+    <col width="15.33203125" customWidth="1" style="6" min="3" max="3"/>
+    <col width="12.88671875" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.5546875" customWidth="1" style="6" min="5" max="6"/>
+    <col width="12.44140625" customWidth="1" style="6" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" style="6" min="8" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>Отчет №</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>3/06</t>
+        </is>
+      </c>
+      <c r="F2" s="7" t="inlineStr">
+        <is>
+          <t>"Утверждаю"</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>"     " _________202__г.</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="n"/>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>Начальник ТЭО</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>Корнейчик Е.В.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>_______________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>о служебных поездках</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>В ИООО "Белбогемия"</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Транспортно экспедиционный отдел</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="9" t="inlineStr">
+        <is>
+          <t>Фамилия</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>Колесень А.Л.</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="9" t="inlineStr">
+        <is>
+          <t>Должность</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr">
+        <is>
+          <t>водитель</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="n"/>
+    </row>
+    <row r="13">
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+    </row>
+    <row r="14" ht="79.8" customHeight="1">
+      <c r="A14" s="15" t="inlineStr">
+        <is>
+          <t>№ п/п</t>
+        </is>
+      </c>
+      <c r="B14" s="15" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="C14" s="15" t="inlineStr">
+        <is>
+          <t>Цель служебной поездки</t>
+        </is>
+      </c>
+      <c r="D14" s="15" t="inlineStr">
+        <is>
+          <t>Количетсво дней (включая дни отъезда/приезда, выходные и праздничные дни</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>Расходы по проезду</t>
+        </is>
+      </c>
+      <c r="F14" s="15" t="inlineStr">
+        <is>
+          <t>Расходы по найму жилого помещения</t>
+        </is>
+      </c>
+      <c r="G14" s="15" t="inlineStr">
+        <is>
+          <t>Иные расходы, произведенные с разрешения нанимателя</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="36" customHeight="1">
+      <c r="A15" s="17" t="n"/>
+      <c r="B15" s="17" t="n"/>
+      <c r="C15" s="17" t="n"/>
+      <c r="D15" s="17" t="n"/>
+      <c r="E15" s="15" t="inlineStr">
+        <is>
+          <t>(указываются виды, суммы расходов и документы, подстверждающие эти расходы</t>
+        </is>
+      </c>
+      <c r="F15" s="18" t="n"/>
+      <c r="G15" s="19" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" s="12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="20" t="inlineStr">
+        <is>
+          <t>01.06.2022</t>
+        </is>
+      </c>
+      <c r="C17" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D17" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="20" t="n"/>
+      <c r="F17" s="20" t="n"/>
+      <c r="G17" s="20" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" s="20" t="inlineStr">
+        <is>
+          <t>06.06.2022</t>
+        </is>
+      </c>
+      <c r="C18" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D18" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="20" t="n"/>
+      <c r="F18" s="20" t="n"/>
+      <c r="G18" s="20" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" s="20" t="inlineStr">
+        <is>
+          <t>08.06.2022</t>
+        </is>
+      </c>
+      <c r="C19" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D19" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="20" t="n"/>
+      <c r="F19" s="20" t="n"/>
+      <c r="G19" s="20" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" s="20" t="inlineStr">
+        <is>
+          <t>10.06.2022</t>
+        </is>
+      </c>
+      <c r="C20" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D20" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="20" t="n"/>
+      <c r="F20" s="20" t="n"/>
+      <c r="G20" s="20" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" s="20" t="inlineStr">
+        <is>
+          <t>15.06.2022</t>
+        </is>
+      </c>
+      <c r="C21" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D21" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="20" t="n"/>
+      <c r="F21" s="20" t="n"/>
+      <c r="G21" s="20" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="20" t="inlineStr">
+        <is>
+          <t>17.06.2022</t>
+        </is>
+      </c>
+      <c r="C22" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D22" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="20" t="n"/>
+      <c r="F22" s="20" t="n"/>
+      <c r="G22" s="20" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="20" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" s="20" t="inlineStr">
+        <is>
+          <t>20.06.2022</t>
+        </is>
+      </c>
+      <c r="C23" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D23" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="20" t="n"/>
+      <c r="F23" s="20" t="n"/>
+      <c r="G23" s="20" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="B24" s="20" t="inlineStr">
+        <is>
+          <t>22.06.2022</t>
+        </is>
+      </c>
+      <c r="C24" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D24" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="20" t="n"/>
+      <c r="F24" s="20" t="n"/>
+      <c r="G24" s="20" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="20" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" s="20" t="inlineStr">
+        <is>
+          <t>24.06.2022</t>
+        </is>
+      </c>
+      <c r="C25" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D25" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="20" t="n"/>
+      <c r="F25" s="20" t="n"/>
+      <c r="G25" s="20" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="20" t="n">
+        <v>10</v>
+      </c>
+      <c r="B26" s="20" t="inlineStr">
+        <is>
+          <t>27.06.2022</t>
+        </is>
+      </c>
+      <c r="C26" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D26" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="20" t="n"/>
+      <c r="F26" s="20" t="n"/>
+      <c r="G26" s="20" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="20" t="n">
+        <v>11</v>
+      </c>
+      <c r="B27" s="20" t="inlineStr">
+        <is>
+          <t>29.06.2022</t>
+        </is>
+      </c>
+      <c r="C27" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D27" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="20" t="n"/>
+      <c r="F27" s="20" t="n"/>
+      <c r="G27" s="20" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="n"/>
+      <c r="B28" s="5" t="n"/>
+      <c r="C28" s="5" t="n"/>
+      <c r="D28" s="5" t="n"/>
+      <c r="E28" s="5" t="n"/>
+      <c r="F28" s="5" t="n"/>
+      <c r="G28" s="5" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="n"/>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Итого однодневных </t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="n"/>
+      <c r="D29" s="13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E29" s="5" t="n"/>
+      <c r="F29" s="5" t="n"/>
+      <c r="G29" s="5" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="n"/>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>Итого многодневных</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n"/>
+      <c r="D30" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5" t="n"/>
+      <c r="F30" s="5" t="n"/>
+      <c r="G30" s="5" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="n"/>
+      <c r="B31" s="5" t="n"/>
+      <c r="C31" s="5" t="n"/>
+      <c r="D31" s="5" t="n"/>
+      <c r="E31" s="5" t="n"/>
+      <c r="F31" s="5" t="n"/>
+      <c r="G31" s="5" t="n"/>
+    </row>
+    <row r="32">
+      <c r="F32" s="6" t="inlineStr">
+        <is>
+          <t>____________</t>
+        </is>
+      </c>
+      <c r="G32" s="6" t="inlineStr">
+        <is>
+          <t>Колесень А.Л.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E15:G15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <cols>
+    <col width="5" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.77734375" customWidth="1" style="6" min="2" max="2"/>
+    <col width="15.33203125" customWidth="1" style="6" min="3" max="3"/>
+    <col width="12.88671875" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.5546875" customWidth="1" style="6" min="5" max="6"/>
+    <col width="12.44140625" customWidth="1" style="6" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" style="6" min="8" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>Отчет №</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>7/06</t>
+        </is>
+      </c>
+      <c r="F2" s="7" t="inlineStr">
+        <is>
+          <t>"Утверждаю"</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>"     " _________202__г.</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="n"/>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>Начальник ТЭО</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>Корнейчик Е.В.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>_______________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>о служебных поездках</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>В ИООО "Белбогемия"</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Транспортно экспедиционный отдел</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="9" t="inlineStr">
+        <is>
+          <t>Фамилия</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>Жук Е.А.</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="9" t="inlineStr">
+        <is>
+          <t>Должность</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr">
+        <is>
+          <t>водитель</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="n"/>
+    </row>
+    <row r="13">
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+    </row>
+    <row r="14" ht="79.8" customHeight="1">
+      <c r="A14" s="15" t="inlineStr">
+        <is>
+          <t>№ п/п</t>
+        </is>
+      </c>
+      <c r="B14" s="15" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="C14" s="15" t="inlineStr">
+        <is>
+          <t>Цель служебной поездки</t>
+        </is>
+      </c>
+      <c r="D14" s="15" t="inlineStr">
+        <is>
+          <t>Количетсво дней (включая дни отъезда/приезда, выходные и праздничные дни</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>Расходы по проезду</t>
+        </is>
+      </c>
+      <c r="F14" s="15" t="inlineStr">
+        <is>
+          <t>Расходы по найму жилого помещения</t>
+        </is>
+      </c>
+      <c r="G14" s="15" t="inlineStr">
+        <is>
+          <t>Иные расходы, произведенные с разрешения нанимателя</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="36" customHeight="1">
+      <c r="A15" s="17" t="n"/>
+      <c r="B15" s="17" t="n"/>
+      <c r="C15" s="17" t="n"/>
+      <c r="D15" s="17" t="n"/>
+      <c r="E15" s="15" t="inlineStr">
+        <is>
+          <t>(указываются виды, суммы расходов и документы, подстверждающие эти расходы</t>
+        </is>
+      </c>
+      <c r="F15" s="18" t="n"/>
+      <c r="G15" s="19" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" s="12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="20" t="inlineStr">
+        <is>
+          <t>02-03.06.2022</t>
+        </is>
+      </c>
+      <c r="C17" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D17" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="20" t="n"/>
+      <c r="F17" s="20" t="n"/>
+      <c r="G17" s="20" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n"/>
+      <c r="B18" s="5" t="n"/>
+      <c r="C18" s="5" t="n"/>
+      <c r="D18" s="5" t="n"/>
+      <c r="E18" s="5" t="n"/>
+      <c r="F18" s="5" t="n"/>
+      <c r="G18" s="5" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n"/>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Итого однодневных </t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="n"/>
+      <c r="D19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="n"/>
+      <c r="F19" s="5" t="n"/>
+      <c r="G19" s="5" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Итого многодневных</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n"/>
+      <c r="D20" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5" t="n"/>
+      <c r="F20" s="5" t="n"/>
+      <c r="G20" s="5" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="n"/>
+      <c r="B21" s="5" t="n"/>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="5" t="n"/>
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="5" t="n"/>
+      <c r="G21" s="5" t="n"/>
+    </row>
+    <row r="22">
+      <c r="F22" s="6" t="inlineStr">
+        <is>
+          <t>____________</t>
+        </is>
+      </c>
+      <c r="G22" s="6" t="inlineStr">
+        <is>
+          <t>Жук Е.А.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E15:G15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1002,7 +3084,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>11/05</t>
+          <t>8/06</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
@@ -1084,7 +3166,7 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>Ивановский А.С.</t>
+          <t>Шиманович С.А.</t>
         </is>
       </c>
       <c r="D11" s="6" t="n"/>
@@ -1097,7 +3179,7 @@
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>экспедитор</t>
+          <t>водитель</t>
         </is>
       </c>
       <c r="D12" s="6" t="n"/>
@@ -1185,7 +3267,7 @@
       </c>
       <c r="B17" s="20" t="inlineStr">
         <is>
-          <t>11-12.05.2022</t>
+          <t>02.06.2022</t>
         </is>
       </c>
       <c r="C17" s="20" t="inlineStr">
@@ -1194,7 +3276,7 @@
         </is>
       </c>
       <c r="D17" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="20" t="n"/>
       <c r="F17" s="20" t="n"/>
@@ -1206,7 +3288,7 @@
       </c>
       <c r="B18" s="20" t="inlineStr">
         <is>
-          <t>13-14.05.2022</t>
+          <t>07.06.2022</t>
         </is>
       </c>
       <c r="C18" s="20" t="inlineStr">
@@ -1215,7 +3297,7 @@
         </is>
       </c>
       <c r="D18" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="20" t="n"/>
       <c r="F18" s="20" t="n"/>
@@ -1227,7 +3309,7 @@
       </c>
       <c r="B19" s="20" t="inlineStr">
         <is>
-          <t>17-18.05.2022</t>
+          <t>09.06.2022</t>
         </is>
       </c>
       <c r="C19" s="20" t="inlineStr">
@@ -1236,7 +3318,7 @@
         </is>
       </c>
       <c r="D19" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="20" t="n"/>
       <c r="F19" s="20" t="n"/>
@@ -1248,7 +3330,7 @@
       </c>
       <c r="B20" s="20" t="inlineStr">
         <is>
-          <t>25-26.05.2022</t>
+          <t>10.06.2022</t>
         </is>
       </c>
       <c r="C20" s="20" t="inlineStr">
@@ -1257,7 +3339,7 @@
         </is>
       </c>
       <c r="D20" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="20" t="n"/>
       <c r="F20" s="20" t="n"/>
@@ -1281,7 +3363,7 @@
       </c>
       <c r="C22" s="4" t="n"/>
       <c r="D22" s="13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22" s="5" t="n"/>
       <c r="F22" s="5" t="n"/>
@@ -1296,7 +3378,7 @@
       </c>
       <c r="C23" s="5" t="n"/>
       <c r="D23" s="13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E23" s="5" t="n"/>
       <c r="F23" s="5" t="n"/>
@@ -1319,2131 +3401,7 @@
       </c>
       <c r="G25" s="6" t="inlineStr">
         <is>
-          <t>Ивановский А.С.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E15:G15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
-  <cols>
-    <col width="5" customWidth="1" style="6" min="1" max="1"/>
-    <col width="19.77734375" customWidth="1" style="6" min="2" max="2"/>
-    <col width="15.33203125" customWidth="1" style="6" min="3" max="3"/>
-    <col width="12.88671875" customWidth="1" style="6" min="4" max="4"/>
-    <col width="10.5546875" customWidth="1" style="6" min="5" max="6"/>
-    <col width="12.44140625" customWidth="1" style="6" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="6" min="8" max="16384"/>
-  </cols>
-  <sheetData>
-    <row r="2">
-      <c r="B2" s="7" t="inlineStr">
-        <is>
-          <t>Отчет №</t>
-        </is>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>16/05</t>
-        </is>
-      </c>
-      <c r="F2" s="7" t="inlineStr">
-        <is>
-          <t>"Утверждаю"</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="16" t="inlineStr">
-        <is>
-          <t>"     " _________202__г.</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="n"/>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>Начальник ТЭО</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>Корнейчик Е.В.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="6" t="n"/>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>_______________________</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n"/>
-    </row>
-    <row r="7">
-      <c r="C7" s="6" t="n"/>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>о служебных поездках</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="6" t="n"/>
-      <c r="D8" s="6" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>В ИООО "Белбогемия"</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="n"/>
-      <c r="D9" s="6" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Транспортно экспедиционный отдел</t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="6" t="n"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="9" t="inlineStr">
-        <is>
-          <t>Фамилия</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr">
-        <is>
-          <t>Можейко А.М.</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="n"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="9" t="inlineStr">
-        <is>
-          <t>Должность</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr">
-        <is>
-          <t>экспедитор</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="n"/>
-    </row>
-    <row r="13">
-      <c r="C13" s="6" t="n"/>
-      <c r="D13" s="6" t="n"/>
-    </row>
-    <row r="14" ht="79.8" customHeight="1">
-      <c r="A14" s="15" t="inlineStr">
-        <is>
-          <t>№ п/п</t>
-        </is>
-      </c>
-      <c r="B14" s="15" t="inlineStr">
-        <is>
-          <t>Дата</t>
-        </is>
-      </c>
-      <c r="C14" s="15" t="inlineStr">
-        <is>
-          <t>Цель служебной поездки</t>
-        </is>
-      </c>
-      <c r="D14" s="15" t="inlineStr">
-        <is>
-          <t>Количетсво дней (включая дни отъезда/приезда, выходные и праздничные дни</t>
-        </is>
-      </c>
-      <c r="E14" s="15" t="inlineStr">
-        <is>
-          <t>Расходы по проезду</t>
-        </is>
-      </c>
-      <c r="F14" s="15" t="inlineStr">
-        <is>
-          <t>Расходы по найму жилого помещения</t>
-        </is>
-      </c>
-      <c r="G14" s="15" t="inlineStr">
-        <is>
-          <t>Иные расходы, произведенные с разрешения нанимателя</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="36" customHeight="1">
-      <c r="A15" s="17" t="n"/>
-      <c r="B15" s="17" t="n"/>
-      <c r="C15" s="17" t="n"/>
-      <c r="D15" s="17" t="n"/>
-      <c r="E15" s="15" t="inlineStr">
-        <is>
-          <t>(указываются виды, суммы расходов и документы, подстверждающие эти расходы</t>
-        </is>
-      </c>
-      <c r="F15" s="18" t="n"/>
-      <c r="G15" s="19" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F16" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="G16" s="12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="20" t="inlineStr">
-        <is>
-          <t>18.05.2022</t>
-        </is>
-      </c>
-      <c r="C17" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D17" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="20" t="n"/>
-      <c r="F17" s="20" t="n"/>
-      <c r="G17" s="20" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" s="20" t="inlineStr">
-        <is>
-          <t>19-20.05.2022</t>
-        </is>
-      </c>
-      <c r="C18" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D18" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" s="20" t="n"/>
-      <c r="F18" s="20" t="n"/>
-      <c r="G18" s="20" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="B19" s="20" t="inlineStr">
-        <is>
-          <t>23-24.05.2022</t>
-        </is>
-      </c>
-      <c r="C19" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D19" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" s="20" t="n"/>
-      <c r="F19" s="20" t="n"/>
-      <c r="G19" s="20" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" s="20" t="inlineStr">
-        <is>
-          <t>26-27.05.2022</t>
-        </is>
-      </c>
-      <c r="C20" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D20" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="20" t="n"/>
-      <c r="F20" s="20" t="n"/>
-      <c r="G20" s="20" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" s="20" t="inlineStr">
-        <is>
-          <t>31-01.06.2022</t>
-        </is>
-      </c>
-      <c r="C21" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D21" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" s="20" t="n"/>
-      <c r="F21" s="20" t="n"/>
-      <c r="G21" s="20" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="n"/>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="n"/>
-      <c r="B23" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Итого однодневных </t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="n"/>
-      <c r="D23" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="n"/>
-      <c r="B24" s="5" t="inlineStr">
-        <is>
-          <t>Итого многодневных</t>
-        </is>
-      </c>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="n"/>
-      <c r="B25" s="5" t="n"/>
-      <c r="C25" s="5" t="n"/>
-      <c r="D25" s="5" t="n"/>
-      <c r="E25" s="5" t="n"/>
-      <c r="F25" s="5" t="n"/>
-      <c r="G25" s="5" t="n"/>
-    </row>
-    <row r="26">
-      <c r="F26" s="6" t="inlineStr">
-        <is>
-          <t>____________</t>
-        </is>
-      </c>
-      <c r="G26" s="6" t="inlineStr">
-        <is>
-          <t>Можейко А.М.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E15:G15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:G22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
-  <cols>
-    <col width="5" customWidth="1" style="6" min="1" max="1"/>
-    <col width="19.77734375" customWidth="1" style="6" min="2" max="2"/>
-    <col width="15.33203125" customWidth="1" style="6" min="3" max="3"/>
-    <col width="12.88671875" customWidth="1" style="6" min="4" max="4"/>
-    <col width="10.5546875" customWidth="1" style="6" min="5" max="6"/>
-    <col width="12.44140625" customWidth="1" style="6" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="6" min="8" max="16384"/>
-  </cols>
-  <sheetData>
-    <row r="2">
-      <c r="B2" s="7" t="inlineStr">
-        <is>
-          <t>Отчет №</t>
-        </is>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>23/05</t>
-        </is>
-      </c>
-      <c r="F2" s="7" t="inlineStr">
-        <is>
-          <t>"Утверждаю"</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="16" t="inlineStr">
-        <is>
-          <t>"     " _________202__г.</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="n"/>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>Начальник ТЭО</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>Корнейчик Е.В.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="6" t="n"/>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>_______________________</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n"/>
-    </row>
-    <row r="7">
-      <c r="C7" s="6" t="n"/>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>о служебных поездках</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="6" t="n"/>
-      <c r="D8" s="6" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>В ИООО "Белбогемия"</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="n"/>
-      <c r="D9" s="6" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Транспортно экспедиционный отдел</t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="6" t="n"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="9" t="inlineStr">
-        <is>
-          <t>Фамилия</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr">
-        <is>
-          <t>Автухович Ю.И.</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="n"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="9" t="inlineStr">
-        <is>
-          <t>Должность</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr">
-        <is>
-          <t>экспедитор</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="n"/>
-    </row>
-    <row r="13">
-      <c r="C13" s="6" t="n"/>
-      <c r="D13" s="6" t="n"/>
-    </row>
-    <row r="14" ht="79.8" customHeight="1">
-      <c r="A14" s="15" t="inlineStr">
-        <is>
-          <t>№ п/п</t>
-        </is>
-      </c>
-      <c r="B14" s="15" t="inlineStr">
-        <is>
-          <t>Дата</t>
-        </is>
-      </c>
-      <c r="C14" s="15" t="inlineStr">
-        <is>
-          <t>Цель служебной поездки</t>
-        </is>
-      </c>
-      <c r="D14" s="15" t="inlineStr">
-        <is>
-          <t>Количетсво дней (включая дни отъезда/приезда, выходные и праздничные дни</t>
-        </is>
-      </c>
-      <c r="E14" s="15" t="inlineStr">
-        <is>
-          <t>Расходы по проезду</t>
-        </is>
-      </c>
-      <c r="F14" s="15" t="inlineStr">
-        <is>
-          <t>Расходы по найму жилого помещения</t>
-        </is>
-      </c>
-      <c r="G14" s="15" t="inlineStr">
-        <is>
-          <t>Иные расходы, произведенные с разрешения нанимателя</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="36" customHeight="1">
-      <c r="A15" s="17" t="n"/>
-      <c r="B15" s="17" t="n"/>
-      <c r="C15" s="17" t="n"/>
-      <c r="D15" s="17" t="n"/>
-      <c r="E15" s="15" t="inlineStr">
-        <is>
-          <t>(указываются виды, суммы расходов и документы, подстверждающие эти расходы</t>
-        </is>
-      </c>
-      <c r="F15" s="18" t="n"/>
-      <c r="G15" s="19" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F16" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="G16" s="12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="20" t="inlineStr">
-        <is>
-          <t>12-13.05.2022</t>
-        </is>
-      </c>
-      <c r="C17" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D17" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="20" t="n"/>
-      <c r="F17" s="20" t="n"/>
-      <c r="G17" s="20" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="n"/>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="n"/>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Итого однодневных </t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5" t="n"/>
-      <c r="F19" s="5" t="n"/>
-      <c r="G19" s="5" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="n"/>
-      <c r="B20" s="5" t="inlineStr">
-        <is>
-          <t>Итого многодневных</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="n"/>
-      <c r="B21" s="5" t="n"/>
-      <c r="C21" s="5" t="n"/>
-      <c r="D21" s="5" t="n"/>
-      <c r="E21" s="5" t="n"/>
-      <c r="F21" s="5" t="n"/>
-      <c r="G21" s="5" t="n"/>
-    </row>
-    <row r="22">
-      <c r="F22" s="6" t="inlineStr">
-        <is>
-          <t>____________</t>
-        </is>
-      </c>
-      <c r="G22" s="6" t="inlineStr">
-        <is>
-          <t>Автухович Ю.И.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E15:G15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:G31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
-  <cols>
-    <col width="5" customWidth="1" style="6" min="1" max="1"/>
-    <col width="19.77734375" customWidth="1" style="6" min="2" max="2"/>
-    <col width="15.33203125" customWidth="1" style="6" min="3" max="3"/>
-    <col width="12.88671875" customWidth="1" style="6" min="4" max="4"/>
-    <col width="10.5546875" customWidth="1" style="6" min="5" max="6"/>
-    <col width="12.44140625" customWidth="1" style="6" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="6" min="8" max="16384"/>
-  </cols>
-  <sheetData>
-    <row r="2">
-      <c r="B2" s="7" t="inlineStr">
-        <is>
-          <t>Отчет №</t>
-        </is>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>14/05</t>
-        </is>
-      </c>
-      <c r="F2" s="7" t="inlineStr">
-        <is>
-          <t>"Утверждаю"</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="16" t="inlineStr">
-        <is>
-          <t>"     " _________202__г.</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="n"/>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>Начальник ТЭО</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>Корнейчик Е.В.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="6" t="n"/>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>_______________________</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n"/>
-    </row>
-    <row r="7">
-      <c r="C7" s="6" t="n"/>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>о служебных поездках</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="6" t="n"/>
-      <c r="D8" s="6" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>В ИООО "Белбогемия"</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="n"/>
-      <c r="D9" s="6" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Транспортно экспедиционный отдел</t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="6" t="n"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="9" t="inlineStr">
-        <is>
-          <t>Фамилия</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr">
-        <is>
-          <t>Костицкий Д.Г.</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="n"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="9" t="inlineStr">
-        <is>
-          <t>Должность</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr">
-        <is>
-          <t>водитель</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="n"/>
-    </row>
-    <row r="13">
-      <c r="C13" s="6" t="n"/>
-      <c r="D13" s="6" t="n"/>
-    </row>
-    <row r="14" ht="79.8" customHeight="1">
-      <c r="A14" s="15" t="inlineStr">
-        <is>
-          <t>№ п/п</t>
-        </is>
-      </c>
-      <c r="B14" s="15" t="inlineStr">
-        <is>
-          <t>Дата</t>
-        </is>
-      </c>
-      <c r="C14" s="15" t="inlineStr">
-        <is>
-          <t>Цель служебной поездки</t>
-        </is>
-      </c>
-      <c r="D14" s="15" t="inlineStr">
-        <is>
-          <t>Количетсво дней (включая дни отъезда/приезда, выходные и праздничные дни</t>
-        </is>
-      </c>
-      <c r="E14" s="15" t="inlineStr">
-        <is>
-          <t>Расходы по проезду</t>
-        </is>
-      </c>
-      <c r="F14" s="15" t="inlineStr">
-        <is>
-          <t>Расходы по найму жилого помещения</t>
-        </is>
-      </c>
-      <c r="G14" s="15" t="inlineStr">
-        <is>
-          <t>Иные расходы, произведенные с разрешения нанимателя</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="36" customHeight="1">
-      <c r="A15" s="17" t="n"/>
-      <c r="B15" s="17" t="n"/>
-      <c r="C15" s="17" t="n"/>
-      <c r="D15" s="17" t="n"/>
-      <c r="E15" s="15" t="inlineStr">
-        <is>
-          <t>(указываются виды, суммы расходов и документы, подстверждающие эти расходы</t>
-        </is>
-      </c>
-      <c r="F15" s="18" t="n"/>
-      <c r="G15" s="19" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F16" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="G16" s="12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="20" t="inlineStr">
-        <is>
-          <t>11.05.2022</t>
-        </is>
-      </c>
-      <c r="C17" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D17" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="20" t="n"/>
-      <c r="F17" s="20" t="n"/>
-      <c r="G17" s="20" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" s="20" t="inlineStr">
-        <is>
-          <t>12.05.2022</t>
-        </is>
-      </c>
-      <c r="C18" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D18" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="20" t="n"/>
-      <c r="F18" s="20" t="n"/>
-      <c r="G18" s="20" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="B19" s="20" t="inlineStr">
-        <is>
-          <t>14.05.2022</t>
-        </is>
-      </c>
-      <c r="C19" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D19" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="20" t="n"/>
-      <c r="F19" s="20" t="n"/>
-      <c r="G19" s="20" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" s="20" t="inlineStr">
-        <is>
-          <t>16.05.2022</t>
-        </is>
-      </c>
-      <c r="C20" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D20" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="20" t="n"/>
-      <c r="F20" s="20" t="n"/>
-      <c r="G20" s="20" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" s="20" t="inlineStr">
-        <is>
-          <t>18.05.2022</t>
-        </is>
-      </c>
-      <c r="C21" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D21" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="20" t="n"/>
-      <c r="F21" s="20" t="n"/>
-      <c r="G21" s="20" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="B22" s="20" t="inlineStr">
-        <is>
-          <t>19.05.2022</t>
-        </is>
-      </c>
-      <c r="C22" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D22" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="20" t="n"/>
-      <c r="F22" s="20" t="n"/>
-      <c r="G22" s="20" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="20" t="n">
-        <v>7</v>
-      </c>
-      <c r="B23" s="20" t="inlineStr">
-        <is>
-          <t>23.05.2022</t>
-        </is>
-      </c>
-      <c r="C23" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D23" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="20" t="n"/>
-      <c r="F23" s="20" t="n"/>
-      <c r="G23" s="20" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="20" t="n">
-        <v>8</v>
-      </c>
-      <c r="B24" s="20" t="inlineStr">
-        <is>
-          <t>25.05.2022</t>
-        </is>
-      </c>
-      <c r="C24" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D24" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="20" t="n"/>
-      <c r="F24" s="20" t="n"/>
-      <c r="G24" s="20" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="20" t="n">
-        <v>9</v>
-      </c>
-      <c r="B25" s="20" t="inlineStr">
-        <is>
-          <t>27.05.2022</t>
-        </is>
-      </c>
-      <c r="C25" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D25" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="20" t="n"/>
-      <c r="F25" s="20" t="n"/>
-      <c r="G25" s="20" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="20" t="n">
-        <v>10</v>
-      </c>
-      <c r="B26" s="20" t="inlineStr">
-        <is>
-          <t>31.05.2022</t>
-        </is>
-      </c>
-      <c r="C26" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D26" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="20" t="n"/>
-      <c r="F26" s="20" t="n"/>
-      <c r="G26" s="20" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="n"/>
-      <c r="B27" s="5" t="n"/>
-      <c r="C27" s="5" t="n"/>
-      <c r="D27" s="5" t="n"/>
-      <c r="E27" s="5" t="n"/>
-      <c r="F27" s="5" t="n"/>
-      <c r="G27" s="5" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="n"/>
-      <c r="B28" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Итого однодневных </t>
-        </is>
-      </c>
-      <c r="C28" s="4" t="n"/>
-      <c r="D28" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="E28" s="5" t="n"/>
-      <c r="F28" s="5" t="n"/>
-      <c r="G28" s="5" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="n"/>
-      <c r="B29" s="5" t="inlineStr">
-        <is>
-          <t>Итого многодневных</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="n"/>
-      <c r="D29" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5" t="n"/>
-      <c r="F29" s="5" t="n"/>
-      <c r="G29" s="5" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="n"/>
-      <c r="B30" s="5" t="n"/>
-      <c r="C30" s="5" t="n"/>
-      <c r="D30" s="5" t="n"/>
-      <c r="E30" s="5" t="n"/>
-      <c r="F30" s="5" t="n"/>
-      <c r="G30" s="5" t="n"/>
-    </row>
-    <row r="31">
-      <c r="F31" s="6" t="inlineStr">
-        <is>
-          <t>____________</t>
-        </is>
-      </c>
-      <c r="G31" s="6" t="inlineStr">
-        <is>
-          <t>Костицкий Д.Г.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E15:G15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:G30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
-  <cols>
-    <col width="5" customWidth="1" style="6" min="1" max="1"/>
-    <col width="19.77734375" customWidth="1" style="6" min="2" max="2"/>
-    <col width="15.33203125" customWidth="1" style="6" min="3" max="3"/>
-    <col width="12.88671875" customWidth="1" style="6" min="4" max="4"/>
-    <col width="10.5546875" customWidth="1" style="6" min="5" max="6"/>
-    <col width="12.44140625" customWidth="1" style="6" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="6" min="8" max="16384"/>
-  </cols>
-  <sheetData>
-    <row r="2">
-      <c r="B2" s="7" t="inlineStr">
-        <is>
-          <t>Отчет №</t>
-        </is>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>3/05</t>
-        </is>
-      </c>
-      <c r="F2" s="7" t="inlineStr">
-        <is>
-          <t>"Утверждаю"</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="16" t="inlineStr">
-        <is>
-          <t>"     " _________202__г.</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="n"/>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>Начальник ТЭО</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>Корнейчик Е.В.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="6" t="n"/>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>_______________________</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n"/>
-    </row>
-    <row r="7">
-      <c r="C7" s="6" t="n"/>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>о служебных поездках</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="6" t="n"/>
-      <c r="D8" s="6" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>В ИООО "Белбогемия"</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="n"/>
-      <c r="D9" s="6" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Транспортно экспедиционный отдел</t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="6" t="n"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="9" t="inlineStr">
-        <is>
-          <t>Фамилия</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr">
-        <is>
-          <t>Колесень А.Л.</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="n"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="9" t="inlineStr">
-        <is>
-          <t>Должность</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr">
-        <is>
-          <t>водитель</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="n"/>
-    </row>
-    <row r="13">
-      <c r="C13" s="6" t="n"/>
-      <c r="D13" s="6" t="n"/>
-    </row>
-    <row r="14" ht="79.8" customHeight="1">
-      <c r="A14" s="15" t="inlineStr">
-        <is>
-          <t>№ п/п</t>
-        </is>
-      </c>
-      <c r="B14" s="15" t="inlineStr">
-        <is>
-          <t>Дата</t>
-        </is>
-      </c>
-      <c r="C14" s="15" t="inlineStr">
-        <is>
-          <t>Цель служебной поездки</t>
-        </is>
-      </c>
-      <c r="D14" s="15" t="inlineStr">
-        <is>
-          <t>Количетсво дней (включая дни отъезда/приезда, выходные и праздничные дни</t>
-        </is>
-      </c>
-      <c r="E14" s="15" t="inlineStr">
-        <is>
-          <t>Расходы по проезду</t>
-        </is>
-      </c>
-      <c r="F14" s="15" t="inlineStr">
-        <is>
-          <t>Расходы по найму жилого помещения</t>
-        </is>
-      </c>
-      <c r="G14" s="15" t="inlineStr">
-        <is>
-          <t>Иные расходы, произведенные с разрешения нанимателя</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="36" customHeight="1">
-      <c r="A15" s="17" t="n"/>
-      <c r="B15" s="17" t="n"/>
-      <c r="C15" s="17" t="n"/>
-      <c r="D15" s="17" t="n"/>
-      <c r="E15" s="15" t="inlineStr">
-        <is>
-          <t>(указываются виды, суммы расходов и документы, подстверждающие эти расходы</t>
-        </is>
-      </c>
-      <c r="F15" s="18" t="n"/>
-      <c r="G15" s="19" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F16" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="G16" s="12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="20" t="inlineStr">
-        <is>
-          <t>12.05.2022</t>
-        </is>
-      </c>
-      <c r="C17" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D17" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="20" t="n"/>
-      <c r="F17" s="20" t="n"/>
-      <c r="G17" s="20" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" s="20" t="inlineStr">
-        <is>
-          <t>14.05.2022</t>
-        </is>
-      </c>
-      <c r="C18" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D18" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="20" t="n"/>
-      <c r="F18" s="20" t="n"/>
-      <c r="G18" s="20" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="B19" s="20" t="inlineStr">
-        <is>
-          <t>16.05.2022</t>
-        </is>
-      </c>
-      <c r="C19" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D19" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="20" t="n"/>
-      <c r="F19" s="20" t="n"/>
-      <c r="G19" s="20" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" s="20" t="inlineStr">
-        <is>
-          <t>17.05.2022</t>
-        </is>
-      </c>
-      <c r="C20" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D20" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="20" t="n"/>
-      <c r="F20" s="20" t="n"/>
-      <c r="G20" s="20" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" s="20" t="inlineStr">
-        <is>
-          <t>18.05.2022</t>
-        </is>
-      </c>
-      <c r="C21" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D21" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="20" t="n"/>
-      <c r="F21" s="20" t="n"/>
-      <c r="G21" s="20" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="B22" s="20" t="inlineStr">
-        <is>
-          <t>23.05.2022</t>
-        </is>
-      </c>
-      <c r="C22" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D22" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="20" t="n"/>
-      <c r="F22" s="20" t="n"/>
-      <c r="G22" s="20" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="20" t="n">
-        <v>7</v>
-      </c>
-      <c r="B23" s="20" t="inlineStr">
-        <is>
-          <t>25.05.2022</t>
-        </is>
-      </c>
-      <c r="C23" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D23" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="20" t="n"/>
-      <c r="F23" s="20" t="n"/>
-      <c r="G23" s="20" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="20" t="n">
-        <v>8</v>
-      </c>
-      <c r="B24" s="20" t="inlineStr">
-        <is>
-          <t>27.05.2022</t>
-        </is>
-      </c>
-      <c r="C24" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D24" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="20" t="n"/>
-      <c r="F24" s="20" t="n"/>
-      <c r="G24" s="20" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="20" t="n">
-        <v>9</v>
-      </c>
-      <c r="B25" s="20" t="inlineStr">
-        <is>
-          <t>30.05.2022</t>
-        </is>
-      </c>
-      <c r="C25" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D25" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="20" t="n"/>
-      <c r="F25" s="20" t="n"/>
-      <c r="G25" s="20" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="5" t="n"/>
-      <c r="B26" s="5" t="n"/>
-      <c r="C26" s="5" t="n"/>
-      <c r="D26" s="5" t="n"/>
-      <c r="E26" s="5" t="n"/>
-      <c r="F26" s="5" t="n"/>
-      <c r="G26" s="5" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="n"/>
-      <c r="B27" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Итого однодневных </t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="n"/>
-      <c r="D27" s="13" t="n">
-        <v>9</v>
-      </c>
-      <c r="E27" s="5" t="n"/>
-      <c r="F27" s="5" t="n"/>
-      <c r="G27" s="5" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="n"/>
-      <c r="B28" s="5" t="inlineStr">
-        <is>
-          <t>Итого многодневных</t>
-        </is>
-      </c>
-      <c r="C28" s="5" t="n"/>
-      <c r="D28" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5" t="n"/>
-      <c r="F28" s="5" t="n"/>
-      <c r="G28" s="5" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="n"/>
-      <c r="B29" s="5" t="n"/>
-      <c r="C29" s="5" t="n"/>
-      <c r="D29" s="5" t="n"/>
-      <c r="E29" s="5" t="n"/>
-      <c r="F29" s="5" t="n"/>
-      <c r="G29" s="5" t="n"/>
-    </row>
-    <row r="30">
-      <c r="F30" s="6" t="inlineStr">
-        <is>
-          <t>____________</t>
-        </is>
-      </c>
-      <c r="G30" s="6" t="inlineStr">
-        <is>
-          <t>Колесень А.Л.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E15:G15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:G30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
-  <cols>
-    <col width="5" customWidth="1" style="6" min="1" max="1"/>
-    <col width="19.77734375" customWidth="1" style="6" min="2" max="2"/>
-    <col width="15.33203125" customWidth="1" style="6" min="3" max="3"/>
-    <col width="12.88671875" customWidth="1" style="6" min="4" max="4"/>
-    <col width="10.5546875" customWidth="1" style="6" min="5" max="6"/>
-    <col width="12.44140625" customWidth="1" style="6" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="6" min="8" max="16384"/>
-  </cols>
-  <sheetData>
-    <row r="2">
-      <c r="B2" s="7" t="inlineStr">
-        <is>
-          <t>Отчет №</t>
-        </is>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>7/05</t>
-        </is>
-      </c>
-      <c r="F2" s="7" t="inlineStr">
-        <is>
-          <t>"Утверждаю"</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="16" t="inlineStr">
-        <is>
-          <t>"     " _________202__г.</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="n"/>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>Начальник ТЭО</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>Корнейчик Е.В.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="6" t="n"/>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>_______________________</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n"/>
-    </row>
-    <row r="7">
-      <c r="C7" s="6" t="n"/>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>о служебных поездках</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="6" t="n"/>
-      <c r="D8" s="6" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>В ИООО "Белбогемия"</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="n"/>
-      <c r="D9" s="6" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Транспортно экспедиционный отдел</t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="6" t="n"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="9" t="inlineStr">
-        <is>
-          <t>Фамилия</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr">
-        <is>
-          <t>Жук Е.А.</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="n"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="9" t="inlineStr">
-        <is>
-          <t>Должность</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr">
-        <is>
-          <t>водитель</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="n"/>
-    </row>
-    <row r="13">
-      <c r="C13" s="6" t="n"/>
-      <c r="D13" s="6" t="n"/>
-    </row>
-    <row r="14" ht="79.8" customHeight="1">
-      <c r="A14" s="15" t="inlineStr">
-        <is>
-          <t>№ п/п</t>
-        </is>
-      </c>
-      <c r="B14" s="15" t="inlineStr">
-        <is>
-          <t>Дата</t>
-        </is>
-      </c>
-      <c r="C14" s="15" t="inlineStr">
-        <is>
-          <t>Цель служебной поездки</t>
-        </is>
-      </c>
-      <c r="D14" s="15" t="inlineStr">
-        <is>
-          <t>Количетсво дней (включая дни отъезда/приезда, выходные и праздничные дни</t>
-        </is>
-      </c>
-      <c r="E14" s="15" t="inlineStr">
-        <is>
-          <t>Расходы по проезду</t>
-        </is>
-      </c>
-      <c r="F14" s="15" t="inlineStr">
-        <is>
-          <t>Расходы по найму жилого помещения</t>
-        </is>
-      </c>
-      <c r="G14" s="15" t="inlineStr">
-        <is>
-          <t>Иные расходы, произведенные с разрешения нанимателя</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="36" customHeight="1">
-      <c r="A15" s="17" t="n"/>
-      <c r="B15" s="17" t="n"/>
-      <c r="C15" s="17" t="n"/>
-      <c r="D15" s="17" t="n"/>
-      <c r="E15" s="15" t="inlineStr">
-        <is>
-          <t>(указываются виды, суммы расходов и документы, подстверждающие эти расходы</t>
-        </is>
-      </c>
-      <c r="F15" s="18" t="n"/>
-      <c r="G15" s="19" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F16" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="G16" s="12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="20" t="inlineStr">
-        <is>
-          <t>11-12.05.2022</t>
-        </is>
-      </c>
-      <c r="C17" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D17" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="20" t="n"/>
-      <c r="F17" s="20" t="n"/>
-      <c r="G17" s="20" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" s="20" t="inlineStr">
-        <is>
-          <t>13.05.2022</t>
-        </is>
-      </c>
-      <c r="C18" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D18" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="20" t="n"/>
-      <c r="F18" s="20" t="n"/>
-      <c r="G18" s="20" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="B19" s="20" t="inlineStr">
-        <is>
-          <t>14.05.2022</t>
-        </is>
-      </c>
-      <c r="C19" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D19" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="20" t="n"/>
-      <c r="F19" s="20" t="n"/>
-      <c r="G19" s="20" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" s="20" t="inlineStr">
-        <is>
-          <t>16.05.2022</t>
-        </is>
-      </c>
-      <c r="C20" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D20" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="20" t="n"/>
-      <c r="F20" s="20" t="n"/>
-      <c r="G20" s="20" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" s="20" t="inlineStr">
-        <is>
-          <t>18.05.2022</t>
-        </is>
-      </c>
-      <c r="C21" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D21" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="20" t="n"/>
-      <c r="F21" s="20" t="n"/>
-      <c r="G21" s="20" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="B22" s="20" t="inlineStr">
-        <is>
-          <t>19-20.05.2022</t>
-        </is>
-      </c>
-      <c r="C22" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D22" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="20" t="n"/>
-      <c r="F22" s="20" t="n"/>
-      <c r="G22" s="20" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="20" t="n">
-        <v>7</v>
-      </c>
-      <c r="B23" s="20" t="inlineStr">
-        <is>
-          <t>23-24.05.2022</t>
-        </is>
-      </c>
-      <c r="C23" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D23" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" s="20" t="n"/>
-      <c r="F23" s="20" t="n"/>
-      <c r="G23" s="20" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="20" t="n">
-        <v>8</v>
-      </c>
-      <c r="B24" s="20" t="inlineStr">
-        <is>
-          <t>26-27.05.2022</t>
-        </is>
-      </c>
-      <c r="C24" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D24" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" s="20" t="n"/>
-      <c r="F24" s="20" t="n"/>
-      <c r="G24" s="20" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="20" t="n">
-        <v>9</v>
-      </c>
-      <c r="B25" s="20" t="inlineStr">
-        <is>
-          <t>31-01.06.2022</t>
-        </is>
-      </c>
-      <c r="C25" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D25" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" s="20" t="n"/>
-      <c r="F25" s="20" t="n"/>
-      <c r="G25" s="20" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="5" t="n"/>
-      <c r="B26" s="5" t="n"/>
-      <c r="C26" s="5" t="n"/>
-      <c r="D26" s="5" t="n"/>
-      <c r="E26" s="5" t="n"/>
-      <c r="F26" s="5" t="n"/>
-      <c r="G26" s="5" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="n"/>
-      <c r="B27" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Итого однодневных </t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="n"/>
-      <c r="D27" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="E27" s="5" t="n"/>
-      <c r="F27" s="5" t="n"/>
-      <c r="G27" s="5" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="n"/>
-      <c r="B28" s="5" t="inlineStr">
-        <is>
-          <t>Итого многодневных</t>
-        </is>
-      </c>
-      <c r="C28" s="5" t="n"/>
-      <c r="D28" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="E28" s="5" t="n"/>
-      <c r="F28" s="5" t="n"/>
-      <c r="G28" s="5" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="n"/>
-      <c r="B29" s="5" t="n"/>
-      <c r="C29" s="5" t="n"/>
-      <c r="D29" s="5" t="n"/>
-      <c r="E29" s="5" t="n"/>
-      <c r="F29" s="5" t="n"/>
-      <c r="G29" s="5" t="n"/>
-    </row>
-    <row r="30">
-      <c r="F30" s="6" t="inlineStr">
-        <is>
-          <t>____________</t>
-        </is>
-      </c>
-      <c r="G30" s="6" t="inlineStr">
-        <is>
-          <t>Жук Е.А.</t>
+          <t>Шиманович С.А.</t>
         </is>
       </c>
     </row>
@@ -3467,7 +3425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G24"/>
+  <dimension ref="A2:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3492,7 +3450,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>4/05</t>
+          <t>14/06</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
@@ -3574,7 +3532,7 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>Дрозд В.Н.</t>
+          <t>Костицкий Д.Г.</t>
         </is>
       </c>
       <c r="D11" s="6" t="n"/>
@@ -3675,7 +3633,7 @@
       </c>
       <c r="B17" s="20" t="inlineStr">
         <is>
-          <t>11.05.2022</t>
+          <t>03.06.2022</t>
         </is>
       </c>
       <c r="C17" s="20" t="inlineStr">
@@ -3696,7 +3654,7 @@
       </c>
       <c r="B18" s="20" t="inlineStr">
         <is>
-          <t>13-14.05.2022</t>
+          <t>08.06.2022</t>
         </is>
       </c>
       <c r="C18" s="20" t="inlineStr">
@@ -3705,7 +3663,7 @@
         </is>
       </c>
       <c r="D18" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="20" t="n"/>
       <c r="F18" s="20" t="n"/>
@@ -3717,7 +3675,7 @@
       </c>
       <c r="B19" s="20" t="inlineStr">
         <is>
-          <t>17-18.05.2022</t>
+          <t>09.06.2022</t>
         </is>
       </c>
       <c r="C19" s="20" t="inlineStr">
@@ -3726,69 +3684,237 @@
         </is>
       </c>
       <c r="D19" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="20" t="n"/>
       <c r="F19" s="20" t="n"/>
       <c r="G19" s="20" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n"/>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
+      <c r="A20" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" s="20" t="inlineStr">
+        <is>
+          <t>10.06.2022</t>
+        </is>
+      </c>
+      <c r="C20" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D20" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="20" t="n"/>
+      <c r="F20" s="20" t="n"/>
+      <c r="G20" s="20" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n"/>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="A21" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" s="20" t="inlineStr">
+        <is>
+          <t>14.06.2022</t>
+        </is>
+      </c>
+      <c r="C21" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D21" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="20" t="n"/>
+      <c r="F21" s="20" t="n"/>
+      <c r="G21" s="20" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="20" t="inlineStr">
+        <is>
+          <t>16.06.2022</t>
+        </is>
+      </c>
+      <c r="C22" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D22" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="20" t="n"/>
+      <c r="F22" s="20" t="n"/>
+      <c r="G22" s="20" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="20" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" s="20" t="inlineStr">
+        <is>
+          <t>17.06.2022</t>
+        </is>
+      </c>
+      <c r="C23" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D23" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="20" t="n"/>
+      <c r="F23" s="20" t="n"/>
+      <c r="G23" s="20" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="B24" s="20" t="inlineStr">
+        <is>
+          <t>21.06.2022</t>
+        </is>
+      </c>
+      <c r="C24" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D24" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="20" t="n"/>
+      <c r="F24" s="20" t="n"/>
+      <c r="G24" s="20" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="20" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" s="20" t="inlineStr">
+        <is>
+          <t>23.06.2022</t>
+        </is>
+      </c>
+      <c r="C25" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D25" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="20" t="n"/>
+      <c r="F25" s="20" t="n"/>
+      <c r="G25" s="20" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="20" t="n">
+        <v>10</v>
+      </c>
+      <c r="B26" s="20" t="inlineStr">
+        <is>
+          <t>27.06.2022</t>
+        </is>
+      </c>
+      <c r="C26" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D26" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="20" t="n"/>
+      <c r="F26" s="20" t="n"/>
+      <c r="G26" s="20" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="20" t="n">
+        <v>11</v>
+      </c>
+      <c r="B27" s="20" t="inlineStr">
+        <is>
+          <t>29.06.2022</t>
+        </is>
+      </c>
+      <c r="C27" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D27" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="20" t="n"/>
+      <c r="F27" s="20" t="n"/>
+      <c r="G27" s="20" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="n"/>
+      <c r="B28" s="5" t="n"/>
+      <c r="C28" s="5" t="n"/>
+      <c r="D28" s="5" t="n"/>
+      <c r="E28" s="5" t="n"/>
+      <c r="F28" s="5" t="n"/>
+      <c r="G28" s="5" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="n"/>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Итого однодневных </t>
         </is>
       </c>
-      <c r="C21" s="4" t="n"/>
-      <c r="D21" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5" t="n"/>
-      <c r="F21" s="5" t="n"/>
-      <c r="G21" s="5" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="n"/>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="C29" s="4" t="n"/>
+      <c r="D29" s="13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E29" s="5" t="n"/>
+      <c r="F29" s="5" t="n"/>
+      <c r="G29" s="5" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="n"/>
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>Итого многодневных</t>
         </is>
       </c>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="n"/>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-    </row>
-    <row r="24">
-      <c r="F24" s="6" t="inlineStr">
+      <c r="C30" s="5" t="n"/>
+      <c r="D30" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5" t="n"/>
+      <c r="F30" s="5" t="n"/>
+      <c r="G30" s="5" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="n"/>
+      <c r="B31" s="5" t="n"/>
+      <c r="C31" s="5" t="n"/>
+      <c r="D31" s="5" t="n"/>
+      <c r="E31" s="5" t="n"/>
+      <c r="F31" s="5" t="n"/>
+      <c r="G31" s="5" t="n"/>
+    </row>
+    <row r="32">
+      <c r="F32" s="6" t="inlineStr">
         <is>
           <t>____________</t>
         </is>
       </c>
-      <c r="G24" s="6" t="inlineStr">
-        <is>
-          <t>Дрозд В.Н.</t>
+      <c r="G32" s="6" t="inlineStr">
+        <is>
+          <t>Костицкий Д.Г.</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3963,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>6/05</t>
+          <t>9/06</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
@@ -3919,7 +4045,7 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>Колесень С.Л.</t>
+          <t>Логутов В.Н.</t>
         </is>
       </c>
       <c r="D11" s="6" t="n"/>
@@ -4020,7 +4146,7 @@
       </c>
       <c r="B17" s="20" t="inlineStr">
         <is>
-          <t>11.05.2022</t>
+          <t>06-07.06.2022</t>
         </is>
       </c>
       <c r="C17" s="20" t="inlineStr">
@@ -4029,7 +4155,7 @@
         </is>
       </c>
       <c r="D17" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="20" t="n"/>
       <c r="F17" s="20" t="n"/>
@@ -4041,7 +4167,7 @@
       </c>
       <c r="B18" s="20" t="inlineStr">
         <is>
-          <t>13.05.2022</t>
+          <t>08-09.06.2022</t>
         </is>
       </c>
       <c r="C18" s="20" t="inlineStr">
@@ -4050,7 +4176,7 @@
         </is>
       </c>
       <c r="D18" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="20" t="n"/>
       <c r="F18" s="20" t="n"/>
@@ -4062,7 +4188,7 @@
       </c>
       <c r="B19" s="20" t="inlineStr">
         <is>
-          <t>14.05.2022</t>
+          <t>14-15.06.2022</t>
         </is>
       </c>
       <c r="C19" s="20" t="inlineStr">
@@ -4071,7 +4197,7 @@
         </is>
       </c>
       <c r="D19" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="20" t="n"/>
       <c r="F19" s="20" t="n"/>
@@ -4083,7 +4209,7 @@
       </c>
       <c r="B20" s="20" t="inlineStr">
         <is>
-          <t>17.05.2022</t>
+          <t>20-21.06.2022</t>
         </is>
       </c>
       <c r="C20" s="20" t="inlineStr">
@@ -4092,7 +4218,7 @@
         </is>
       </c>
       <c r="D20" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="20" t="n"/>
       <c r="F20" s="20" t="n"/>
@@ -4104,7 +4230,7 @@
       </c>
       <c r="B21" s="20" t="inlineStr">
         <is>
-          <t>19.05.2022</t>
+          <t>22-23.06.2022</t>
         </is>
       </c>
       <c r="C21" s="20" t="inlineStr">
@@ -4113,7 +4239,7 @@
         </is>
       </c>
       <c r="D21" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="20" t="n"/>
       <c r="F21" s="20" t="n"/>
@@ -4125,7 +4251,7 @@
       </c>
       <c r="B22" s="20" t="inlineStr">
         <is>
-          <t>20.05.2022</t>
+          <t>24.06.2022</t>
         </is>
       </c>
       <c r="C22" s="20" t="inlineStr">
@@ -4146,7 +4272,7 @@
       </c>
       <c r="B23" s="20" t="inlineStr">
         <is>
-          <t>24.05.2022</t>
+          <t>27-28.06.2022</t>
         </is>
       </c>
       <c r="C23" s="20" t="inlineStr">
@@ -4155,7 +4281,7 @@
         </is>
       </c>
       <c r="D23" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="20" t="n"/>
       <c r="F23" s="20" t="n"/>
@@ -4167,7 +4293,7 @@
       </c>
       <c r="B24" s="20" t="inlineStr">
         <is>
-          <t>26.05.2022</t>
+          <t>30-01.07.2022</t>
         </is>
       </c>
       <c r="C24" s="20" t="inlineStr">
@@ -4176,7 +4302,7 @@
         </is>
       </c>
       <c r="D24" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="20" t="n"/>
       <c r="F24" s="20" t="n"/>
@@ -4200,7 +4326,7 @@
       </c>
       <c r="C26" s="4" t="n"/>
       <c r="D26" s="13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E26" s="5" t="n"/>
       <c r="F26" s="5" t="n"/>
@@ -4215,7 +4341,7 @@
       </c>
       <c r="C27" s="5" t="n"/>
       <c r="D27" s="13" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E27" s="5" t="n"/>
       <c r="F27" s="5" t="n"/>
@@ -4238,7 +4364,7 @@
       </c>
       <c r="G29" s="6" t="inlineStr">
         <is>
-          <t>Колесень С.Л.</t>
+          <t>Логутов В.Н.</t>
         </is>
       </c>
     </row>
@@ -4262,7 +4388,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G31"/>
+  <dimension ref="A2:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4287,7 +4413,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>8/05</t>
+          <t>6/06</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
@@ -4369,7 +4495,7 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>Шиманович С.А.</t>
+          <t>Колесень С.Л.</t>
         </is>
       </c>
       <c r="D11" s="6" t="n"/>
@@ -4470,7 +4596,7 @@
       </c>
       <c r="B17" s="20" t="inlineStr">
         <is>
-          <t>12.05.2022</t>
+          <t>13.06.2022</t>
         </is>
       </c>
       <c r="C17" s="20" t="inlineStr">
@@ -4491,7 +4617,7 @@
       </c>
       <c r="B18" s="20" t="inlineStr">
         <is>
-          <t>13.05.2022</t>
+          <t>14.06.2022</t>
         </is>
       </c>
       <c r="C18" s="20" t="inlineStr">
@@ -4512,7 +4638,7 @@
       </c>
       <c r="B19" s="20" t="inlineStr">
         <is>
-          <t>14.05.2022</t>
+          <t>16.06.2022</t>
         </is>
       </c>
       <c r="C19" s="20" t="inlineStr">
@@ -4533,7 +4659,7 @@
       </c>
       <c r="B20" s="20" t="inlineStr">
         <is>
-          <t>17.05.2022</t>
+          <t>20.06.2022</t>
         </is>
       </c>
       <c r="C20" s="20" t="inlineStr">
@@ -4554,7 +4680,7 @@
       </c>
       <c r="B21" s="20" t="inlineStr">
         <is>
-          <t>19.05.2022</t>
+          <t>21.06.2022</t>
         </is>
       </c>
       <c r="C21" s="20" t="inlineStr">
@@ -4575,7 +4701,7 @@
       </c>
       <c r="B22" s="20" t="inlineStr">
         <is>
-          <t>20.05.2022</t>
+          <t>23.06.2022</t>
         </is>
       </c>
       <c r="C22" s="20" t="inlineStr">
@@ -4596,7 +4722,7 @@
       </c>
       <c r="B23" s="20" t="inlineStr">
         <is>
-          <t>24.05.2022</t>
+          <t>28.06.2022</t>
         </is>
       </c>
       <c r="C23" s="20" t="inlineStr">
@@ -4617,7 +4743,7 @@
       </c>
       <c r="B24" s="20" t="inlineStr">
         <is>
-          <t>26.05.2022</t>
+          <t>30.06.2022</t>
         </is>
       </c>
       <c r="C24" s="20" t="inlineStr">
@@ -4633,104 +4759,62 @@
       <c r="G24" s="20" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="20" t="n">
-        <v>9</v>
-      </c>
-      <c r="B25" s="20" t="inlineStr">
-        <is>
-          <t>27.05.2022</t>
-        </is>
-      </c>
-      <c r="C25" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D25" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="20" t="n"/>
-      <c r="F25" s="20" t="n"/>
-      <c r="G25" s="20" t="n"/>
+      <c r="A25" s="5" t="n"/>
+      <c r="B25" s="5" t="n"/>
+      <c r="C25" s="5" t="n"/>
+      <c r="D25" s="5" t="n"/>
+      <c r="E25" s="5" t="n"/>
+      <c r="F25" s="5" t="n"/>
+      <c r="G25" s="5" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="20" t="n">
-        <v>10</v>
-      </c>
-      <c r="B26" s="20" t="inlineStr">
-        <is>
-          <t>31.05.2022</t>
-        </is>
-      </c>
-      <c r="C26" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D26" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="20" t="n"/>
-      <c r="F26" s="20" t="n"/>
-      <c r="G26" s="20" t="n"/>
+      <c r="A26" s="5" t="n"/>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Итого однодневных </t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="n"/>
+      <c r="D26" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E26" s="5" t="n"/>
+      <c r="F26" s="5" t="n"/>
+      <c r="G26" s="5" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="5" t="n"/>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>Итого многодневных</t>
+        </is>
+      </c>
       <c r="C27" s="5" t="n"/>
-      <c r="D27" s="5" t="n"/>
+      <c r="D27" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="E27" s="5" t="n"/>
       <c r="F27" s="5" t="n"/>
       <c r="G27" s="5" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Итого однодневных </t>
-        </is>
-      </c>
-      <c r="C28" s="4" t="n"/>
-      <c r="D28" s="13" t="n">
-        <v>10</v>
-      </c>
+      <c r="B28" s="5" t="n"/>
+      <c r="C28" s="5" t="n"/>
+      <c r="D28" s="5" t="n"/>
       <c r="E28" s="5" t="n"/>
       <c r="F28" s="5" t="n"/>
       <c r="G28" s="5" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="n"/>
-      <c r="B29" s="5" t="inlineStr">
-        <is>
-          <t>Итого многодневных</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="n"/>
-      <c r="D29" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5" t="n"/>
-      <c r="F29" s="5" t="n"/>
-      <c r="G29" s="5" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="n"/>
-      <c r="B30" s="5" t="n"/>
-      <c r="C30" s="5" t="n"/>
-      <c r="D30" s="5" t="n"/>
-      <c r="E30" s="5" t="n"/>
-      <c r="F30" s="5" t="n"/>
-      <c r="G30" s="5" t="n"/>
-    </row>
-    <row r="31">
-      <c r="F31" s="6" t="inlineStr">
+      <c r="F29" s="6" t="inlineStr">
         <is>
           <t>____________</t>
         </is>
       </c>
-      <c r="G31" s="6" t="inlineStr">
-        <is>
-          <t>Шиманович С.А.</t>
+      <c r="G29" s="6" t="inlineStr">
+        <is>
+          <t>Колесень С.Л.</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G25"/>
+  <dimension ref="A2:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4779,7 +4863,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>5/05</t>
+          <t>22/06</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
@@ -4861,7 +4945,7 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>Дудорга Р.В.</t>
+          <t>Сикорский С.И.</t>
         </is>
       </c>
       <c r="D11" s="6" t="n"/>
@@ -4962,7 +5046,7 @@
       </c>
       <c r="B17" s="20" t="inlineStr">
         <is>
-          <t>11-12.05.2022</t>
+          <t>17.06.2022</t>
         </is>
       </c>
       <c r="C17" s="20" t="inlineStr">
@@ -4971,7 +5055,7 @@
         </is>
       </c>
       <c r="D17" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="20" t="n"/>
       <c r="F17" s="20" t="n"/>
@@ -4983,7 +5067,7 @@
       </c>
       <c r="B18" s="20" t="inlineStr">
         <is>
-          <t>14.05.2022</t>
+          <t>24.06.2022</t>
         </is>
       </c>
       <c r="C18" s="20" t="inlineStr">
@@ -4999,104 +5083,62 @@
       <c r="G18" s="20" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="B19" s="20" t="inlineStr">
-        <is>
-          <t>18-19.05.2022</t>
-        </is>
-      </c>
-      <c r="C19" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D19" s="20" t="n">
+      <c r="A19" s="5" t="n"/>
+      <c r="B19" s="5" t="n"/>
+      <c r="C19" s="5" t="n"/>
+      <c r="D19" s="5" t="n"/>
+      <c r="E19" s="5" t="n"/>
+      <c r="F19" s="5" t="n"/>
+      <c r="G19" s="5" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Итого однодневных </t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n"/>
+      <c r="D20" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="E19" s="20" t="n"/>
-      <c r="F19" s="20" t="n"/>
-      <c r="G19" s="20" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" s="20" t="inlineStr">
-        <is>
-          <t>25-26.05.2022</t>
-        </is>
-      </c>
-      <c r="C20" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D20" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="20" t="n"/>
-      <c r="F20" s="20" t="n"/>
-      <c r="G20" s="20" t="n"/>
+      <c r="E20" s="5" t="n"/>
+      <c r="F20" s="5" t="n"/>
+      <c r="G20" s="5" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="5" t="n"/>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>Итого многодневных</t>
+        </is>
+      </c>
       <c r="C21" s="5" t="n"/>
-      <c r="D21" s="5" t="n"/>
+      <c r="D21" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="E21" s="5" t="n"/>
       <c r="F21" s="5" t="n"/>
       <c r="G21" s="5" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Итого однодневных </t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="n"/>
-      <c r="D22" s="13" t="n">
-        <v>1</v>
-      </c>
+      <c r="B22" s="5" t="n"/>
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="5" t="n"/>
       <c r="E22" s="5" t="n"/>
       <c r="F22" s="5" t="n"/>
       <c r="G22" s="5" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n"/>
-      <c r="B23" s="5" t="inlineStr">
-        <is>
-          <t>Итого многодневных</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="n"/>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-    </row>
-    <row r="25">
-      <c r="F25" s="6" t="inlineStr">
+      <c r="F23" s="6" t="inlineStr">
         <is>
           <t>____________</t>
         </is>
       </c>
-      <c r="G25" s="6" t="inlineStr">
-        <is>
-          <t>Дудорга Р.В.</t>
+      <c r="G23" s="6" t="inlineStr">
+        <is>
+          <t>Сикорский С.И.</t>
         </is>
       </c>
     </row>
@@ -5120,7 +5162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G28"/>
+  <dimension ref="A2:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5145,7 +5187,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>10/05</t>
+          <t>11/06</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
@@ -5227,7 +5269,7 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>Клюев С.В.</t>
+          <t>Ивановский А.С.</t>
         </is>
       </c>
       <c r="D11" s="6" t="n"/>
@@ -5328,7 +5370,7 @@
       </c>
       <c r="B17" s="20" t="inlineStr">
         <is>
-          <t>11-12.05.2022</t>
+          <t>01-02.06.2022</t>
         </is>
       </c>
       <c r="C17" s="20" t="inlineStr">
@@ -5349,7 +5391,7 @@
       </c>
       <c r="B18" s="20" t="inlineStr">
         <is>
-          <t>13.05.2022</t>
+          <t>03.06.2022</t>
         </is>
       </c>
       <c r="C18" s="20" t="inlineStr">
@@ -5370,7 +5412,7 @@
       </c>
       <c r="B19" s="20" t="inlineStr">
         <is>
-          <t>14.05.2022</t>
+          <t>06.06.2022</t>
         </is>
       </c>
       <c r="C19" s="20" t="inlineStr">
@@ -5391,7 +5433,7 @@
       </c>
       <c r="B20" s="20" t="inlineStr">
         <is>
-          <t>16-17.05.2022</t>
+          <t>07.06.2022</t>
         </is>
       </c>
       <c r="C20" s="20" t="inlineStr">
@@ -5400,7 +5442,7 @@
         </is>
       </c>
       <c r="D20" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="20" t="n"/>
       <c r="F20" s="20" t="n"/>
@@ -5412,7 +5454,7 @@
       </c>
       <c r="B21" s="20" t="inlineStr">
         <is>
-          <t>18-19.05.2022</t>
+          <t>13-14.06.2022</t>
         </is>
       </c>
       <c r="C21" s="20" t="inlineStr">
@@ -5433,7 +5475,7 @@
       </c>
       <c r="B22" s="20" t="inlineStr">
         <is>
-          <t>24-25.05.2022</t>
+          <t>15-16.06.2022</t>
         </is>
       </c>
       <c r="C22" s="20" t="inlineStr">
@@ -5454,7 +5496,7 @@
       </c>
       <c r="B23" s="20" t="inlineStr">
         <is>
-          <t>30-31.05.2022</t>
+          <t>21-22.06.2022</t>
         </is>
       </c>
       <c r="C23" s="20" t="inlineStr">
@@ -5470,62 +5512,104 @@
       <c r="G23" s="20" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="n"/>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
+      <c r="A24" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="B24" s="20" t="inlineStr">
+        <is>
+          <t>23-24.06.2022</t>
+        </is>
+      </c>
+      <c r="C24" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D24" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="20" t="n"/>
+      <c r="F24" s="20" t="n"/>
+      <c r="G24" s="20" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n"/>
-      <c r="B25" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Итого однодневных </t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="n"/>
-      <c r="D25" s="13" t="n">
+      <c r="A25" s="20" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" s="20" t="inlineStr">
+        <is>
+          <t>29-30.06.2022</t>
+        </is>
+      </c>
+      <c r="C25" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D25" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E25" s="5" t="n"/>
-      <c r="F25" s="5" t="n"/>
-      <c r="G25" s="5" t="n"/>
+      <c r="E25" s="20" t="n"/>
+      <c r="F25" s="20" t="n"/>
+      <c r="G25" s="20" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n"/>
-      <c r="B26" s="5" t="inlineStr">
-        <is>
-          <t>Итого многодневных</t>
-        </is>
-      </c>
+      <c r="B26" s="5" t="n"/>
       <c r="C26" s="5" t="n"/>
-      <c r="D26" s="13" t="n">
-        <v>10</v>
-      </c>
+      <c r="D26" s="5" t="n"/>
       <c r="E26" s="5" t="n"/>
       <c r="F26" s="5" t="n"/>
       <c r="G26" s="5" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="5" t="n"/>
-      <c r="C27" s="5" t="n"/>
-      <c r="D27" s="5" t="n"/>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Итого однодневных </t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="n"/>
+      <c r="D27" s="13" t="n">
+        <v>3</v>
+      </c>
       <c r="E27" s="5" t="n"/>
       <c r="F27" s="5" t="n"/>
       <c r="G27" s="5" t="n"/>
     </row>
     <row r="28">
-      <c r="F28" s="6" t="inlineStr">
+      <c r="A28" s="5" t="n"/>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>Итого многодневных</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="n"/>
+      <c r="D28" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E28" s="5" t="n"/>
+      <c r="F28" s="5" t="n"/>
+      <c r="G28" s="5" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="n"/>
+      <c r="B29" s="5" t="n"/>
+      <c r="C29" s="5" t="n"/>
+      <c r="D29" s="5" t="n"/>
+      <c r="E29" s="5" t="n"/>
+      <c r="F29" s="5" t="n"/>
+      <c r="G29" s="5" t="n"/>
+    </row>
+    <row r="30">
+      <c r="F30" s="6" t="inlineStr">
         <is>
           <t>____________</t>
         </is>
       </c>
-      <c r="G28" s="6" t="inlineStr">
-        <is>
-          <t>Клюев С.В.</t>
+      <c r="G30" s="6" t="inlineStr">
+        <is>
+          <t>Ивановский А.С.</t>
         </is>
       </c>
     </row>

--- a/excel/new.xlsx
+++ b/excel/new.xlsx
@@ -6,18 +6,18 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Дудорга Р.В." sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Колесень А.Л." sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Жук Е.А." sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Колесень А.Л." sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Жук Е.А." sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Дудорга Р.В." sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Шиманович С.А." sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Костицкий Д.Г." sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Логутов В.Н." sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Колесень С.Л." sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Сикорский С.И." sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Ивановский А.С." sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Можейко А.М." sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Клюев С.В." sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Автухович Ю.И." sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Колесень С.Л." sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Сикорский С.И." sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Логутов В.Н." sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Можейко А.М." sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Ивановский А.С." sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Автухович Ю.И." sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Клюев С.В." sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="181029" fullCalcOnLoad="1"/>
@@ -611,7 +611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G31"/>
+  <dimension ref="A2:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,7 +636,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>5/06</t>
+          <t>3/08</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>Дудорга Р.В.</t>
+          <t>Колесень А.Л.</t>
         </is>
       </c>
       <c r="D11" s="6" t="n"/>
@@ -819,7 +819,7 @@
       </c>
       <c r="B17" s="20" t="inlineStr">
         <is>
-          <t>01-02.06.2022</t>
+          <t>01.08.2022</t>
         </is>
       </c>
       <c r="C17" s="20" t="inlineStr">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="D17" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="20" t="n"/>
       <c r="F17" s="20" t="n"/>
@@ -840,7 +840,7 @@
       </c>
       <c r="B18" s="20" t="inlineStr">
         <is>
-          <t>03.06.2022</t>
+          <t>02.08.2022</t>
         </is>
       </c>
       <c r="C18" s="20" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="B19" s="20" t="inlineStr">
         <is>
-          <t>06.06.2022</t>
+          <t>05.08.2022</t>
         </is>
       </c>
       <c r="C19" s="20" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B20" s="20" t="inlineStr">
         <is>
-          <t>07.06.2022</t>
+          <t>09.08.2022</t>
         </is>
       </c>
       <c r="C20" s="20" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="B21" s="20" t="inlineStr">
         <is>
-          <t>08.06.2022</t>
+          <t>11.08.2022</t>
         </is>
       </c>
       <c r="C21" s="20" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="B22" s="20" t="inlineStr">
         <is>
-          <t>13-14.06.2022</t>
+          <t>30.08.2022</t>
         </is>
       </c>
       <c r="C22" s="20" t="inlineStr">
@@ -933,153 +933,69 @@
         </is>
       </c>
       <c r="D22" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="20" t="n"/>
       <c r="F22" s="20" t="n"/>
       <c r="G22" s="20" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="20" t="n">
-        <v>7</v>
-      </c>
-      <c r="B23" s="20" t="inlineStr">
-        <is>
-          <t>15-16.06.2022</t>
-        </is>
-      </c>
-      <c r="C23" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D23" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" s="20" t="n"/>
-      <c r="F23" s="20" t="n"/>
-      <c r="G23" s="20" t="n"/>
+      <c r="A23" s="5" t="n"/>
+      <c r="B23" s="5" t="n"/>
+      <c r="C23" s="5" t="n"/>
+      <c r="D23" s="5" t="n"/>
+      <c r="E23" s="5" t="n"/>
+      <c r="F23" s="5" t="n"/>
+      <c r="G23" s="5" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="20" t="n">
-        <v>8</v>
-      </c>
-      <c r="B24" s="20" t="inlineStr">
-        <is>
-          <t>21-22.06.2022</t>
-        </is>
-      </c>
-      <c r="C24" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D24" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" s="20" t="n"/>
-      <c r="F24" s="20" t="n"/>
-      <c r="G24" s="20" t="n"/>
+      <c r="A24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Итого однодневных </t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n"/>
+      <c r="D24" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E24" s="5" t="n"/>
+      <c r="F24" s="5" t="n"/>
+      <c r="G24" s="5" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="20" t="n">
-        <v>9</v>
-      </c>
-      <c r="B25" s="20" t="inlineStr">
-        <is>
-          <t>23-24.06.2022</t>
-        </is>
-      </c>
-      <c r="C25" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D25" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" s="20" t="n"/>
-      <c r="F25" s="20" t="n"/>
-      <c r="G25" s="20" t="n"/>
+      <c r="A25" s="5" t="n"/>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>Итого многодневных</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="n"/>
+      <c r="D25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="n"/>
+      <c r="F25" s="5" t="n"/>
+      <c r="G25" s="5" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="20" t="n">
-        <v>10</v>
-      </c>
-      <c r="B26" s="20" t="inlineStr">
-        <is>
-          <t>29-30.06.2022</t>
-        </is>
-      </c>
-      <c r="C26" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D26" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" s="20" t="n"/>
-      <c r="F26" s="20" t="n"/>
-      <c r="G26" s="20" t="n"/>
+      <c r="A26" s="5" t="n"/>
+      <c r="B26" s="5" t="n"/>
+      <c r="C26" s="5" t="n"/>
+      <c r="D26" s="5" t="n"/>
+      <c r="E26" s="5" t="n"/>
+      <c r="F26" s="5" t="n"/>
+      <c r="G26" s="5" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="n"/>
-      <c r="B27" s="5" t="n"/>
-      <c r="C27" s="5" t="n"/>
-      <c r="D27" s="5" t="n"/>
-      <c r="E27" s="5" t="n"/>
-      <c r="F27" s="5" t="n"/>
-      <c r="G27" s="5" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="n"/>
-      <c r="B28" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Итого однодневных </t>
-        </is>
-      </c>
-      <c r="C28" s="4" t="n"/>
-      <c r="D28" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="E28" s="5" t="n"/>
-      <c r="F28" s="5" t="n"/>
-      <c r="G28" s="5" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="n"/>
-      <c r="B29" s="5" t="inlineStr">
-        <is>
-          <t>Итого многодневных</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="n"/>
-      <c r="D29" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="E29" s="5" t="n"/>
-      <c r="F29" s="5" t="n"/>
-      <c r="G29" s="5" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="n"/>
-      <c r="B30" s="5" t="n"/>
-      <c r="C30" s="5" t="n"/>
-      <c r="D30" s="5" t="n"/>
-      <c r="E30" s="5" t="n"/>
-      <c r="F30" s="5" t="n"/>
-      <c r="G30" s="5" t="n"/>
-    </row>
-    <row r="31">
-      <c r="F31" s="6" t="inlineStr">
+      <c r="F27" s="6" t="inlineStr">
         <is>
           <t>____________</t>
         </is>
       </c>
-      <c r="G31" s="6" t="inlineStr">
-        <is>
-          <t>Дудорга Р.В.</t>
+      <c r="G27" s="6" t="inlineStr">
+        <is>
+          <t>Колесень А.Л.</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1044,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>16/06</t>
+          <t>11/08</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
@@ -1210,7 +1126,7 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>Можейко А.М.</t>
+          <t>Ивановский А.С.</t>
         </is>
       </c>
       <c r="D11" s="6" t="n"/>
@@ -1311,7 +1227,7 @@
       </c>
       <c r="B17" s="20" t="inlineStr">
         <is>
-          <t>02-03.06.2022</t>
+          <t>02.08.2022</t>
         </is>
       </c>
       <c r="C17" s="20" t="inlineStr">
@@ -1320,7 +1236,7 @@
         </is>
       </c>
       <c r="D17" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="20" t="n"/>
       <c r="F17" s="20" t="n"/>
@@ -1332,7 +1248,7 @@
       </c>
       <c r="B18" s="20" t="inlineStr">
         <is>
-          <t>10.06.2022</t>
+          <t>03-04.08.2022</t>
         </is>
       </c>
       <c r="C18" s="20" t="inlineStr">
@@ -1341,7 +1257,7 @@
         </is>
       </c>
       <c r="D18" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="20" t="n"/>
       <c r="F18" s="20" t="n"/>
@@ -1353,7 +1269,7 @@
       </c>
       <c r="B19" s="20" t="inlineStr">
         <is>
-          <t>17.06.2022</t>
+          <t>05.08.2022</t>
         </is>
       </c>
       <c r="C19" s="20" t="inlineStr">
@@ -1424,7 +1340,7 @@
       </c>
       <c r="G24" s="6" t="inlineStr">
         <is>
-          <t>Можейко А.М.</t>
+          <t>Ивановский А.С.</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G30"/>
+  <dimension ref="A2:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1473,7 +1389,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>10/06</t>
+          <t>23/08</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
@@ -1555,7 +1471,7 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>Клюев С.В.</t>
+          <t>Автухович Ю.И.</t>
         </is>
       </c>
       <c r="D11" s="6" t="n"/>
@@ -1656,7 +1572,7 @@
       </c>
       <c r="B17" s="20" t="inlineStr">
         <is>
-          <t>06-07.06.2022</t>
+          <t>04-05.08.2022</t>
         </is>
       </c>
       <c r="C17" s="20" t="inlineStr">
@@ -1677,7 +1593,7 @@
       </c>
       <c r="B18" s="20" t="inlineStr">
         <is>
-          <t>08-09.06.2022</t>
+          <t>08-09.08.2022</t>
         </is>
       </c>
       <c r="C18" s="20" t="inlineStr">
@@ -1698,7 +1614,7 @@
       </c>
       <c r="B19" s="20" t="inlineStr">
         <is>
-          <t>10.06.2022</t>
+          <t>10-11.08.2022</t>
         </is>
       </c>
       <c r="C19" s="20" t="inlineStr">
@@ -1707,7 +1623,7 @@
         </is>
       </c>
       <c r="D19" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="20" t="n"/>
       <c r="F19" s="20" t="n"/>
@@ -1719,7 +1635,7 @@
       </c>
       <c r="B20" s="20" t="inlineStr">
         <is>
-          <t>14-15.06.2022</t>
+          <t>12.08.2022</t>
         </is>
       </c>
       <c r="C20" s="20" t="inlineStr">
@@ -1728,7 +1644,7 @@
         </is>
       </c>
       <c r="D20" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="20" t="n"/>
       <c r="F20" s="20" t="n"/>
@@ -1740,7 +1656,7 @@
       </c>
       <c r="B21" s="20" t="inlineStr">
         <is>
-          <t>20-21.06.2022</t>
+          <t>18-19.08.2022</t>
         </is>
       </c>
       <c r="C21" s="20" t="inlineStr">
@@ -1761,7 +1677,7 @@
       </c>
       <c r="B22" s="20" t="inlineStr">
         <is>
-          <t>22-23.06.2022</t>
+          <t>23-24.08.2022</t>
         </is>
       </c>
       <c r="C22" s="20" t="inlineStr">
@@ -1782,7 +1698,7 @@
       </c>
       <c r="B23" s="20" t="inlineStr">
         <is>
-          <t>24.06.2022</t>
+          <t>26.08.2022</t>
         </is>
       </c>
       <c r="C23" s="20" t="inlineStr">
@@ -1803,7 +1719,7 @@
       </c>
       <c r="B24" s="20" t="inlineStr">
         <is>
-          <t>27-28.06.2022</t>
+          <t>29.08.2022</t>
         </is>
       </c>
       <c r="C24" s="20" t="inlineStr">
@@ -1812,38 +1728,32 @@
         </is>
       </c>
       <c r="D24" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="20" t="n"/>
       <c r="F24" s="20" t="n"/>
       <c r="G24" s="20" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="20" t="n">
-        <v>9</v>
-      </c>
-      <c r="B25" s="20" t="inlineStr">
-        <is>
-          <t>30-01.07.2022</t>
-        </is>
-      </c>
-      <c r="C25" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D25" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" s="20" t="n"/>
-      <c r="F25" s="20" t="n"/>
-      <c r="G25" s="20" t="n"/>
+      <c r="A25" s="5" t="n"/>
+      <c r="B25" s="5" t="n"/>
+      <c r="C25" s="5" t="n"/>
+      <c r="D25" s="5" t="n"/>
+      <c r="E25" s="5" t="n"/>
+      <c r="F25" s="5" t="n"/>
+      <c r="G25" s="5" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n"/>
-      <c r="B26" s="5" t="n"/>
-      <c r="C26" s="5" t="n"/>
-      <c r="D26" s="5" t="n"/>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Итого однодневных </t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="n"/>
+      <c r="D26" s="13" t="n">
+        <v>3</v>
+      </c>
       <c r="E26" s="5" t="n"/>
       <c r="F26" s="5" t="n"/>
       <c r="G26" s="5" t="n"/>
@@ -1852,12 +1762,12 @@
       <c r="A27" s="5" t="n"/>
       <c r="B27" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Итого однодневных </t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="n"/>
+          <t>Итого многодневных</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="n"/>
       <c r="D27" s="13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E27" s="5" t="n"/>
       <c r="F27" s="5" t="n"/>
@@ -1865,37 +1775,22 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="5" t="inlineStr">
-        <is>
-          <t>Итого многодневных</t>
-        </is>
-      </c>
+      <c r="B28" s="5" t="n"/>
       <c r="C28" s="5" t="n"/>
-      <c r="D28" s="13" t="n">
-        <v>14</v>
-      </c>
+      <c r="D28" s="5" t="n"/>
       <c r="E28" s="5" t="n"/>
       <c r="F28" s="5" t="n"/>
       <c r="G28" s="5" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="n"/>
-      <c r="B29" s="5" t="n"/>
-      <c r="C29" s="5" t="n"/>
-      <c r="D29" s="5" t="n"/>
-      <c r="E29" s="5" t="n"/>
-      <c r="F29" s="5" t="n"/>
-      <c r="G29" s="5" t="n"/>
-    </row>
-    <row r="30">
-      <c r="F30" s="6" t="inlineStr">
+      <c r="F29" s="6" t="inlineStr">
         <is>
           <t>____________</t>
         </is>
       </c>
-      <c r="G30" s="6" t="inlineStr">
-        <is>
-          <t>Клюев С.В.</t>
+      <c r="G29" s="6" t="inlineStr">
+        <is>
+          <t>Автухович Ю.И.</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G23"/>
+  <dimension ref="A2:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1944,7 +1839,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>23/06</t>
+          <t>10/08</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
@@ -2026,7 +1921,7 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>Автухович Ю.И.</t>
+          <t>Клюев С.В.</t>
         </is>
       </c>
       <c r="D11" s="6" t="n"/>
@@ -2127,7 +2022,7 @@
       </c>
       <c r="B17" s="20" t="inlineStr">
         <is>
-          <t>17.06.2022</t>
+          <t>09-10.08.2022</t>
         </is>
       </c>
       <c r="C17" s="20" t="inlineStr">
@@ -2136,7 +2031,7 @@
         </is>
       </c>
       <c r="D17" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="20" t="n"/>
       <c r="F17" s="20" t="n"/>
@@ -2148,7 +2043,7 @@
       </c>
       <c r="B18" s="20" t="inlineStr">
         <is>
-          <t>24.06.2022</t>
+          <t>11-12.08.2022</t>
         </is>
       </c>
       <c r="C18" s="20" t="inlineStr">
@@ -2157,69 +2052,195 @@
         </is>
       </c>
       <c r="D18" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="20" t="n"/>
       <c r="F18" s="20" t="n"/>
       <c r="G18" s="20" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n"/>
-      <c r="B19" s="5" t="n"/>
-      <c r="C19" s="5" t="n"/>
-      <c r="D19" s="5" t="n"/>
-      <c r="E19" s="5" t="n"/>
-      <c r="F19" s="5" t="n"/>
-      <c r="G19" s="5" t="n"/>
+      <c r="A19" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" s="20" t="inlineStr">
+        <is>
+          <t>15-16.08.2022</t>
+        </is>
+      </c>
+      <c r="C19" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D19" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" s="20" t="n"/>
+      <c r="F19" s="20" t="n"/>
+      <c r="G19" s="20" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n"/>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="A20" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" s="20" t="inlineStr">
+        <is>
+          <t>17-18.08.2022</t>
+        </is>
+      </c>
+      <c r="C20" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D20" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="20" t="n"/>
+      <c r="F20" s="20" t="n"/>
+      <c r="G20" s="20" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" s="20" t="inlineStr">
+        <is>
+          <t>19.08.2022</t>
+        </is>
+      </c>
+      <c r="C21" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D21" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="20" t="n"/>
+      <c r="F21" s="20" t="n"/>
+      <c r="G21" s="20" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="20" t="inlineStr">
+        <is>
+          <t>22-23.08.2022</t>
+        </is>
+      </c>
+      <c r="C22" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D22" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="20" t="n"/>
+      <c r="F22" s="20" t="n"/>
+      <c r="G22" s="20" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="20" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" s="20" t="inlineStr">
+        <is>
+          <t>24-25.08.2022</t>
+        </is>
+      </c>
+      <c r="C23" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D23" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="20" t="n"/>
+      <c r="F23" s="20" t="n"/>
+      <c r="G23" s="20" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="B24" s="20" t="inlineStr">
+        <is>
+          <t>29-30.08.2022</t>
+        </is>
+      </c>
+      <c r="C24" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D24" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="20" t="n"/>
+      <c r="F24" s="20" t="n"/>
+      <c r="G24" s="20" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="n"/>
+      <c r="B25" s="5" t="n"/>
+      <c r="C25" s="5" t="n"/>
+      <c r="D25" s="5" t="n"/>
+      <c r="E25" s="5" t="n"/>
+      <c r="F25" s="5" t="n"/>
+      <c r="G25" s="5" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="n"/>
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Итого однодневных </t>
         </is>
       </c>
-      <c r="C20" s="4" t="n"/>
-      <c r="D20" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="n"/>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="C26" s="4" t="n"/>
+      <c r="D26" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5" t="n"/>
+      <c r="F26" s="5" t="n"/>
+      <c r="G26" s="5" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="n"/>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Итого многодневных</t>
         </is>
       </c>
-      <c r="C21" s="5" t="n"/>
-      <c r="D21" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5" t="n"/>
-      <c r="F21" s="5" t="n"/>
-      <c r="G21" s="5" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="n"/>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-    </row>
-    <row r="23">
-      <c r="F23" s="6" t="inlineStr">
+      <c r="C27" s="5" t="n"/>
+      <c r="D27" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="E27" s="5" t="n"/>
+      <c r="F27" s="5" t="n"/>
+      <c r="G27" s="5" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="n"/>
+      <c r="B28" s="5" t="n"/>
+      <c r="C28" s="5" t="n"/>
+      <c r="D28" s="5" t="n"/>
+      <c r="E28" s="5" t="n"/>
+      <c r="F28" s="5" t="n"/>
+      <c r="G28" s="5" t="n"/>
+    </row>
+    <row r="29">
+      <c r="F29" s="6" t="inlineStr">
         <is>
           <t>____________</t>
         </is>
       </c>
-      <c r="G23" s="6" t="inlineStr">
-        <is>
-          <t>Автухович Ю.И.</t>
+      <c r="G29" s="6" t="inlineStr">
+        <is>
+          <t>Клюев С.В.</t>
         </is>
       </c>
     </row>
@@ -2238,6 +2259,498 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <cols>
+    <col width="5" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.77734375" customWidth="1" style="6" min="2" max="2"/>
+    <col width="15.33203125" customWidth="1" style="6" min="3" max="3"/>
+    <col width="12.88671875" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.5546875" customWidth="1" style="6" min="5" max="6"/>
+    <col width="12.44140625" customWidth="1" style="6" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" style="6" min="8" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>Отчет №</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>7/08</t>
+        </is>
+      </c>
+      <c r="F2" s="7" t="inlineStr">
+        <is>
+          <t>"Утверждаю"</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>"     " _________202__г.</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="n"/>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>Начальник ТЭО</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>Корнейчик Е.В.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>_______________________</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>о служебных поездках</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>В ИООО "Белбогемия"</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Транспортно экспедиционный отдел</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="9" t="inlineStr">
+        <is>
+          <t>Фамилия</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>Жук Е.А.</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="9" t="inlineStr">
+        <is>
+          <t>Должность</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr">
+        <is>
+          <t>водитель</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="n"/>
+    </row>
+    <row r="13">
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+    </row>
+    <row r="14" ht="79.8" customHeight="1">
+      <c r="A14" s="15" t="inlineStr">
+        <is>
+          <t>№ п/п</t>
+        </is>
+      </c>
+      <c r="B14" s="15" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="C14" s="15" t="inlineStr">
+        <is>
+          <t>Цель служебной поездки</t>
+        </is>
+      </c>
+      <c r="D14" s="15" t="inlineStr">
+        <is>
+          <t>Количетсво дней (включая дни отъезда/приезда, выходные и праздничные дни</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>Расходы по проезду</t>
+        </is>
+      </c>
+      <c r="F14" s="15" t="inlineStr">
+        <is>
+          <t>Расходы по найму жилого помещения</t>
+        </is>
+      </c>
+      <c r="G14" s="15" t="inlineStr">
+        <is>
+          <t>Иные расходы, произведенные с разрешения нанимателя</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="36" customHeight="1">
+      <c r="A15" s="17" t="n"/>
+      <c r="B15" s="17" t="n"/>
+      <c r="C15" s="17" t="n"/>
+      <c r="D15" s="17" t="n"/>
+      <c r="E15" s="15" t="inlineStr">
+        <is>
+          <t>(указываются виды, суммы расходов и документы, подстверждающие эти расходы</t>
+        </is>
+      </c>
+      <c r="F15" s="18" t="n"/>
+      <c r="G15" s="19" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" s="12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="20" t="inlineStr">
+        <is>
+          <t>01-02.08.2022</t>
+        </is>
+      </c>
+      <c r="C17" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D17" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="20" t="n"/>
+      <c r="F17" s="20" t="n"/>
+      <c r="G17" s="20" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" s="20" t="inlineStr">
+        <is>
+          <t>04-05.08.2022</t>
+        </is>
+      </c>
+      <c r="C18" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D18" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="20" t="n"/>
+      <c r="F18" s="20" t="n"/>
+      <c r="G18" s="20" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" s="20" t="inlineStr">
+        <is>
+          <t>08.08.2022</t>
+        </is>
+      </c>
+      <c r="C19" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D19" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="20" t="n"/>
+      <c r="F19" s="20" t="n"/>
+      <c r="G19" s="20" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" s="20" t="inlineStr">
+        <is>
+          <t>09-10.08.2022</t>
+        </is>
+      </c>
+      <c r="C20" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D20" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="20" t="n"/>
+      <c r="F20" s="20" t="n"/>
+      <c r="G20" s="20" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" s="20" t="inlineStr">
+        <is>
+          <t>11-12.08.2022</t>
+        </is>
+      </c>
+      <c r="C21" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D21" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="20" t="n"/>
+      <c r="F21" s="20" t="n"/>
+      <c r="G21" s="20" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="20" t="inlineStr">
+        <is>
+          <t>15-16.08.2022</t>
+        </is>
+      </c>
+      <c r="C22" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D22" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="20" t="n"/>
+      <c r="F22" s="20" t="n"/>
+      <c r="G22" s="20" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="20" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" s="20" t="inlineStr">
+        <is>
+          <t>18-19.08.2022</t>
+        </is>
+      </c>
+      <c r="C23" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D23" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="20" t="n"/>
+      <c r="F23" s="20" t="n"/>
+      <c r="G23" s="20" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="B24" s="20" t="inlineStr">
+        <is>
+          <t>22-23.08.2022</t>
+        </is>
+      </c>
+      <c r="C24" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D24" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="20" t="n"/>
+      <c r="F24" s="20" t="n"/>
+      <c r="G24" s="20" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="20" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" s="20" t="inlineStr">
+        <is>
+          <t>25.08.2022</t>
+        </is>
+      </c>
+      <c r="C25" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D25" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="20" t="n"/>
+      <c r="F25" s="20" t="n"/>
+      <c r="G25" s="20" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="20" t="n">
+        <v>10</v>
+      </c>
+      <c r="B26" s="20" t="inlineStr">
+        <is>
+          <t>30.08.2022</t>
+        </is>
+      </c>
+      <c r="C26" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D26" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="20" t="n"/>
+      <c r="F26" s="20" t="n"/>
+      <c r="G26" s="20" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="n"/>
+      <c r="B27" s="5" t="n"/>
+      <c r="C27" s="5" t="n"/>
+      <c r="D27" s="5" t="n"/>
+      <c r="E27" s="5" t="n"/>
+      <c r="F27" s="5" t="n"/>
+      <c r="G27" s="5" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="n"/>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Итого однодневных </t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="n"/>
+      <c r="D28" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" s="5" t="n"/>
+      <c r="F28" s="5" t="n"/>
+      <c r="G28" s="5" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="n"/>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>Итого многодневных</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n"/>
+      <c r="D29" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="E29" s="5" t="n"/>
+      <c r="F29" s="5" t="n"/>
+      <c r="G29" s="5" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="n"/>
+      <c r="B30" s="5" t="n"/>
+      <c r="C30" s="5" t="n"/>
+      <c r="D30" s="5" t="n"/>
+      <c r="E30" s="5" t="n"/>
+      <c r="F30" s="5" t="n"/>
+      <c r="G30" s="5" t="n"/>
+    </row>
+    <row r="31">
+      <c r="F31" s="6" t="inlineStr">
+        <is>
+          <t>____________</t>
+        </is>
+      </c>
+      <c r="G31" s="6" t="inlineStr">
+        <is>
+          <t>Жук Е.А.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E15:G15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2268,7 +2781,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>3/06</t>
+          <t>5/08</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
@@ -2350,7 +2863,7 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>Колесень А.Л.</t>
+          <t>Дудорга Р.В.</t>
         </is>
       </c>
       <c r="D11" s="6" t="n"/>
@@ -2451,7 +2964,7 @@
       </c>
       <c r="B17" s="20" t="inlineStr">
         <is>
-          <t>01.06.2022</t>
+          <t>02.08.2022</t>
         </is>
       </c>
       <c r="C17" s="20" t="inlineStr">
@@ -2472,7 +2985,7 @@
       </c>
       <c r="B18" s="20" t="inlineStr">
         <is>
-          <t>06.06.2022</t>
+          <t>03-04.08.2022</t>
         </is>
       </c>
       <c r="C18" s="20" t="inlineStr">
@@ -2481,7 +2994,7 @@
         </is>
       </c>
       <c r="D18" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="20" t="n"/>
       <c r="F18" s="20" t="n"/>
@@ -2493,7 +3006,7 @@
       </c>
       <c r="B19" s="20" t="inlineStr">
         <is>
-          <t>08.06.2022</t>
+          <t>05.08.2022</t>
         </is>
       </c>
       <c r="C19" s="20" t="inlineStr">
@@ -2514,7 +3027,7 @@
       </c>
       <c r="B20" s="20" t="inlineStr">
         <is>
-          <t>10.06.2022</t>
+          <t>08-09.08.2022</t>
         </is>
       </c>
       <c r="C20" s="20" t="inlineStr">
@@ -2523,7 +3036,7 @@
         </is>
       </c>
       <c r="D20" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="20" t="n"/>
       <c r="F20" s="20" t="n"/>
@@ -2535,7 +3048,7 @@
       </c>
       <c r="B21" s="20" t="inlineStr">
         <is>
-          <t>15.06.2022</t>
+          <t>10-11.08.2022</t>
         </is>
       </c>
       <c r="C21" s="20" t="inlineStr">
@@ -2544,7 +3057,7 @@
         </is>
       </c>
       <c r="D21" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="20" t="n"/>
       <c r="F21" s="20" t="n"/>
@@ -2556,7 +3069,7 @@
       </c>
       <c r="B22" s="20" t="inlineStr">
         <is>
-          <t>17.06.2022</t>
+          <t>12.08.2022</t>
         </is>
       </c>
       <c r="C22" s="20" t="inlineStr">
@@ -2577,7 +3090,7 @@
       </c>
       <c r="B23" s="20" t="inlineStr">
         <is>
-          <t>20.06.2022</t>
+          <t>17-18.08.2022</t>
         </is>
       </c>
       <c r="C23" s="20" t="inlineStr">
@@ -2586,7 +3099,7 @@
         </is>
       </c>
       <c r="D23" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="20" t="n"/>
       <c r="F23" s="20" t="n"/>
@@ -2598,7 +3111,7 @@
       </c>
       <c r="B24" s="20" t="inlineStr">
         <is>
-          <t>22.06.2022</t>
+          <t>19.08.2022</t>
         </is>
       </c>
       <c r="C24" s="20" t="inlineStr">
@@ -2619,7 +3132,7 @@
       </c>
       <c r="B25" s="20" t="inlineStr">
         <is>
-          <t>24.06.2022</t>
+          <t>23-24.08.2022</t>
         </is>
       </c>
       <c r="C25" s="20" t="inlineStr">
@@ -2628,7 +3141,7 @@
         </is>
       </c>
       <c r="D25" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="20" t="n"/>
       <c r="F25" s="20" t="n"/>
@@ -2640,7 +3153,7 @@
       </c>
       <c r="B26" s="20" t="inlineStr">
         <is>
-          <t>27.06.2022</t>
+          <t>26.08.2022</t>
         </is>
       </c>
       <c r="C26" s="20" t="inlineStr">
@@ -2661,7 +3174,7 @@
       </c>
       <c r="B27" s="20" t="inlineStr">
         <is>
-          <t>29.06.2022</t>
+          <t>31-01.09.2022</t>
         </is>
       </c>
       <c r="C27" s="20" t="inlineStr">
@@ -2670,7 +3183,7 @@
         </is>
       </c>
       <c r="D27" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="20" t="n"/>
       <c r="F27" s="20" t="n"/>
@@ -2694,7 +3207,7 @@
       </c>
       <c r="C29" s="4" t="n"/>
       <c r="D29" s="13" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E29" s="5" t="n"/>
       <c r="F29" s="5" t="n"/>
@@ -2709,7 +3222,7 @@
       </c>
       <c r="C30" s="5" t="n"/>
       <c r="D30" s="13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E30" s="5" t="n"/>
       <c r="F30" s="5" t="n"/>
@@ -2732,310 +3245,7 @@
       </c>
       <c r="G32" s="6" t="inlineStr">
         <is>
-          <t>Колесень А.Л.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E15:G15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:G22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
-  <cols>
-    <col width="5" customWidth="1" style="6" min="1" max="1"/>
-    <col width="19.77734375" customWidth="1" style="6" min="2" max="2"/>
-    <col width="15.33203125" customWidth="1" style="6" min="3" max="3"/>
-    <col width="12.88671875" customWidth="1" style="6" min="4" max="4"/>
-    <col width="10.5546875" customWidth="1" style="6" min="5" max="6"/>
-    <col width="12.44140625" customWidth="1" style="6" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="6" min="8" max="16384"/>
-  </cols>
-  <sheetData>
-    <row r="2">
-      <c r="B2" s="7" t="inlineStr">
-        <is>
-          <t>Отчет №</t>
-        </is>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>7/06</t>
-        </is>
-      </c>
-      <c r="F2" s="7" t="inlineStr">
-        <is>
-          <t>"Утверждаю"</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="16" t="inlineStr">
-        <is>
-          <t>"     " _________202__г.</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="n"/>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>Начальник ТЭО</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>Корнейчик Е.В.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="6" t="n"/>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>_______________________</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n"/>
-    </row>
-    <row r="7">
-      <c r="C7" s="6" t="n"/>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>о служебных поездках</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="6" t="n"/>
-      <c r="D8" s="6" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>В ИООО "Белбогемия"</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="n"/>
-      <c r="D9" s="6" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Транспортно экспедиционный отдел</t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="6" t="n"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="9" t="inlineStr">
-        <is>
-          <t>Фамилия</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr">
-        <is>
-          <t>Жук Е.А.</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="n"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="9" t="inlineStr">
-        <is>
-          <t>Должность</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr">
-        <is>
-          <t>водитель</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="n"/>
-    </row>
-    <row r="13">
-      <c r="C13" s="6" t="n"/>
-      <c r="D13" s="6" t="n"/>
-    </row>
-    <row r="14" ht="79.8" customHeight="1">
-      <c r="A14" s="15" t="inlineStr">
-        <is>
-          <t>№ п/п</t>
-        </is>
-      </c>
-      <c r="B14" s="15" t="inlineStr">
-        <is>
-          <t>Дата</t>
-        </is>
-      </c>
-      <c r="C14" s="15" t="inlineStr">
-        <is>
-          <t>Цель служебной поездки</t>
-        </is>
-      </c>
-      <c r="D14" s="15" t="inlineStr">
-        <is>
-          <t>Количетсво дней (включая дни отъезда/приезда, выходные и праздничные дни</t>
-        </is>
-      </c>
-      <c r="E14" s="15" t="inlineStr">
-        <is>
-          <t>Расходы по проезду</t>
-        </is>
-      </c>
-      <c r="F14" s="15" t="inlineStr">
-        <is>
-          <t>Расходы по найму жилого помещения</t>
-        </is>
-      </c>
-      <c r="G14" s="15" t="inlineStr">
-        <is>
-          <t>Иные расходы, произведенные с разрешения нанимателя</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="36" customHeight="1">
-      <c r="A15" s="17" t="n"/>
-      <c r="B15" s="17" t="n"/>
-      <c r="C15" s="17" t="n"/>
-      <c r="D15" s="17" t="n"/>
-      <c r="E15" s="15" t="inlineStr">
-        <is>
-          <t>(указываются виды, суммы расходов и документы, подстверждающие эти расходы</t>
-        </is>
-      </c>
-      <c r="F15" s="18" t="n"/>
-      <c r="G15" s="19" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F16" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="G16" s="12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="20" t="inlineStr">
-        <is>
-          <t>02-03.06.2022</t>
-        </is>
-      </c>
-      <c r="C17" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D17" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="20" t="n"/>
-      <c r="F17" s="20" t="n"/>
-      <c r="G17" s="20" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="n"/>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="n"/>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Итого однодневных </t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5" t="n"/>
-      <c r="F19" s="5" t="n"/>
-      <c r="G19" s="5" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="n"/>
-      <c r="B20" s="5" t="inlineStr">
-        <is>
-          <t>Итого многодневных</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="n"/>
-      <c r="B21" s="5" t="n"/>
-      <c r="C21" s="5" t="n"/>
-      <c r="D21" s="5" t="n"/>
-      <c r="E21" s="5" t="n"/>
-      <c r="F21" s="5" t="n"/>
-      <c r="G21" s="5" t="n"/>
-    </row>
-    <row r="22">
-      <c r="F22" s="6" t="inlineStr">
-        <is>
-          <t>____________</t>
-        </is>
-      </c>
-      <c r="G22" s="6" t="inlineStr">
-        <is>
-          <t>Жук Е.А.</t>
+          <t>Дудорга Р.В.</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G25"/>
+  <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3084,7 +3294,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>8/06</t>
+          <t>8/08</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
@@ -3267,7 +3477,7 @@
       </c>
       <c r="B17" s="20" t="inlineStr">
         <is>
-          <t>02.06.2022</t>
+          <t>02.08.2022</t>
         </is>
       </c>
       <c r="C17" s="20" t="inlineStr">
@@ -3288,7 +3498,7 @@
       </c>
       <c r="B18" s="20" t="inlineStr">
         <is>
-          <t>07.06.2022</t>
+          <t>04.08.2022</t>
         </is>
       </c>
       <c r="C18" s="20" t="inlineStr">
@@ -3309,7 +3519,7 @@
       </c>
       <c r="B19" s="20" t="inlineStr">
         <is>
-          <t>09.06.2022</t>
+          <t>08.08.2022</t>
         </is>
       </c>
       <c r="C19" s="20" t="inlineStr">
@@ -3330,7 +3540,7 @@
       </c>
       <c r="B20" s="20" t="inlineStr">
         <is>
-          <t>10.06.2022</t>
+          <t>10.08.2022</t>
         </is>
       </c>
       <c r="C20" s="20" t="inlineStr">
@@ -3346,60 +3556,249 @@
       <c r="G20" s="20" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n"/>
-      <c r="B21" s="5" t="n"/>
-      <c r="C21" s="5" t="n"/>
-      <c r="D21" s="5" t="n"/>
-      <c r="E21" s="5" t="n"/>
-      <c r="F21" s="5" t="n"/>
-      <c r="G21" s="5" t="n"/>
+      <c r="A21" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" s="20" t="inlineStr">
+        <is>
+          <t>12.08.2022</t>
+        </is>
+      </c>
+      <c r="C21" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D21" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="20" t="n"/>
+      <c r="F21" s="20" t="n"/>
+      <c r="G21" s="20" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="n"/>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="A22" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="20" t="inlineStr">
+        <is>
+          <t>15.08.2022</t>
+        </is>
+      </c>
+      <c r="C22" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D22" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="20" t="n"/>
+      <c r="F22" s="20" t="n"/>
+      <c r="G22" s="20" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="20" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" s="20" t="inlineStr">
+        <is>
+          <t>16.08.2022</t>
+        </is>
+      </c>
+      <c r="C23" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D23" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="20" t="n"/>
+      <c r="F23" s="20" t="n"/>
+      <c r="G23" s="20" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="B24" s="20" t="inlineStr">
+        <is>
+          <t>18.08.2022</t>
+        </is>
+      </c>
+      <c r="C24" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D24" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="20" t="n"/>
+      <c r="F24" s="20" t="n"/>
+      <c r="G24" s="20" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="20" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" s="20" t="inlineStr">
+        <is>
+          <t>22.08.2022</t>
+        </is>
+      </c>
+      <c r="C25" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D25" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="20" t="n"/>
+      <c r="F25" s="20" t="n"/>
+      <c r="G25" s="20" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="20" t="n">
+        <v>10</v>
+      </c>
+      <c r="B26" s="20" t="inlineStr">
+        <is>
+          <t>24.08.2022</t>
+        </is>
+      </c>
+      <c r="C26" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D26" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="20" t="n"/>
+      <c r="F26" s="20" t="n"/>
+      <c r="G26" s="20" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="20" t="n">
+        <v>11</v>
+      </c>
+      <c r="B27" s="20" t="inlineStr">
+        <is>
+          <t>26.08.2022</t>
+        </is>
+      </c>
+      <c r="C27" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D27" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="20" t="n"/>
+      <c r="F27" s="20" t="n"/>
+      <c r="G27" s="20" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="20" t="n">
+        <v>12</v>
+      </c>
+      <c r="B28" s="20" t="inlineStr">
+        <is>
+          <t>29.08.2022</t>
+        </is>
+      </c>
+      <c r="C28" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D28" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="20" t="n"/>
+      <c r="F28" s="20" t="n"/>
+      <c r="G28" s="20" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="20" t="n">
+        <v>13</v>
+      </c>
+      <c r="B29" s="20" t="inlineStr">
+        <is>
+          <t>31.08.2022</t>
+        </is>
+      </c>
+      <c r="C29" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D29" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="20" t="n"/>
+      <c r="F29" s="20" t="n"/>
+      <c r="G29" s="20" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="n"/>
+      <c r="B30" s="5" t="n"/>
+      <c r="C30" s="5" t="n"/>
+      <c r="D30" s="5" t="n"/>
+      <c r="E30" s="5" t="n"/>
+      <c r="F30" s="5" t="n"/>
+      <c r="G30" s="5" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="n"/>
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Итого однодневных </t>
         </is>
       </c>
-      <c r="C22" s="4" t="n"/>
-      <c r="D22" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="n"/>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="C31" s="4" t="n"/>
+      <c r="D31" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="E31" s="5" t="n"/>
+      <c r="F31" s="5" t="n"/>
+      <c r="G31" s="5" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="n"/>
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>Итого многодневных</t>
         </is>
       </c>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="13" t="n">
+      <c r="C32" s="5" t="n"/>
+      <c r="D32" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="n"/>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-    </row>
-    <row r="25">
-      <c r="F25" s="6" t="inlineStr">
+      <c r="E32" s="5" t="n"/>
+      <c r="F32" s="5" t="n"/>
+      <c r="G32" s="5" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="n"/>
+      <c r="B33" s="5" t="n"/>
+      <c r="C33" s="5" t="n"/>
+      <c r="D33" s="5" t="n"/>
+      <c r="E33" s="5" t="n"/>
+      <c r="F33" s="5" t="n"/>
+      <c r="G33" s="5" t="n"/>
+    </row>
+    <row r="34">
+      <c r="F34" s="6" t="inlineStr">
         <is>
           <t>____________</t>
         </is>
       </c>
-      <c r="G25" s="6" t="inlineStr">
+      <c r="G34" s="6" t="inlineStr">
         <is>
           <t>Шиманович С.А.</t>
         </is>
@@ -3450,7 +3849,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>14/06</t>
+          <t>14/08</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
@@ -3633,7 +4032,7 @@
       </c>
       <c r="B17" s="20" t="inlineStr">
         <is>
-          <t>03.06.2022</t>
+          <t>03.08.2022</t>
         </is>
       </c>
       <c r="C17" s="20" t="inlineStr">
@@ -3654,7 +4053,7 @@
       </c>
       <c r="B18" s="20" t="inlineStr">
         <is>
-          <t>08.06.2022</t>
+          <t>09.08.2022</t>
         </is>
       </c>
       <c r="C18" s="20" t="inlineStr">
@@ -3675,7 +4074,7 @@
       </c>
       <c r="B19" s="20" t="inlineStr">
         <is>
-          <t>09.06.2022</t>
+          <t>10.08.2022</t>
         </is>
       </c>
       <c r="C19" s="20" t="inlineStr">
@@ -3696,7 +4095,7 @@
       </c>
       <c r="B20" s="20" t="inlineStr">
         <is>
-          <t>10.06.2022</t>
+          <t>12.08.2022</t>
         </is>
       </c>
       <c r="C20" s="20" t="inlineStr">
@@ -3717,7 +4116,7 @@
       </c>
       <c r="B21" s="20" t="inlineStr">
         <is>
-          <t>14.06.2022</t>
+          <t>16.08.2022</t>
         </is>
       </c>
       <c r="C21" s="20" t="inlineStr">
@@ -3738,7 +4137,7 @@
       </c>
       <c r="B22" s="20" t="inlineStr">
         <is>
-          <t>16.06.2022</t>
+          <t>17.08.2022</t>
         </is>
       </c>
       <c r="C22" s="20" t="inlineStr">
@@ -3759,7 +4158,7 @@
       </c>
       <c r="B23" s="20" t="inlineStr">
         <is>
-          <t>17.06.2022</t>
+          <t>19.08.2022</t>
         </is>
       </c>
       <c r="C23" s="20" t="inlineStr">
@@ -3780,7 +4179,7 @@
       </c>
       <c r="B24" s="20" t="inlineStr">
         <is>
-          <t>21.06.2022</t>
+          <t>23.08.2022</t>
         </is>
       </c>
       <c r="C24" s="20" t="inlineStr">
@@ -3801,7 +4200,7 @@
       </c>
       <c r="B25" s="20" t="inlineStr">
         <is>
-          <t>23.06.2022</t>
+          <t>24.08.2022</t>
         </is>
       </c>
       <c r="C25" s="20" t="inlineStr">
@@ -3822,7 +4221,7 @@
       </c>
       <c r="B26" s="20" t="inlineStr">
         <is>
-          <t>27.06.2022</t>
+          <t>25.08.2022</t>
         </is>
       </c>
       <c r="C26" s="20" t="inlineStr">
@@ -3843,7 +4242,7 @@
       </c>
       <c r="B27" s="20" t="inlineStr">
         <is>
-          <t>29.06.2022</t>
+          <t>30.08.2022</t>
         </is>
       </c>
       <c r="C27" s="20" t="inlineStr">
@@ -3938,7 +4337,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G29"/>
+  <dimension ref="A2:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3963,7 +4362,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>9/06</t>
+          <t>6/08</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
@@ -4045,7 +4444,7 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>Логутов В.Н.</t>
+          <t>Колесень С.Л.</t>
         </is>
       </c>
       <c r="D11" s="6" t="n"/>
@@ -4146,7 +4545,7 @@
       </c>
       <c r="B17" s="20" t="inlineStr">
         <is>
-          <t>06-07.06.2022</t>
+          <t>15.08.2022</t>
         </is>
       </c>
       <c r="C17" s="20" t="inlineStr">
@@ -4155,7 +4554,7 @@
         </is>
       </c>
       <c r="D17" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="20" t="n"/>
       <c r="F17" s="20" t="n"/>
@@ -4167,7 +4566,7 @@
       </c>
       <c r="B18" s="20" t="inlineStr">
         <is>
-          <t>08-09.06.2022</t>
+          <t>17.08.2022</t>
         </is>
       </c>
       <c r="C18" s="20" t="inlineStr">
@@ -4176,7 +4575,7 @@
         </is>
       </c>
       <c r="D18" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="20" t="n"/>
       <c r="F18" s="20" t="n"/>
@@ -4188,7 +4587,7 @@
       </c>
       <c r="B19" s="20" t="inlineStr">
         <is>
-          <t>14-15.06.2022</t>
+          <t>18.08.2022</t>
         </is>
       </c>
       <c r="C19" s="20" t="inlineStr">
@@ -4197,7 +4596,7 @@
         </is>
       </c>
       <c r="D19" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="20" t="n"/>
       <c r="F19" s="20" t="n"/>
@@ -4209,7 +4608,7 @@
       </c>
       <c r="B20" s="20" t="inlineStr">
         <is>
-          <t>20-21.06.2022</t>
+          <t>22.08.2022</t>
         </is>
       </c>
       <c r="C20" s="20" t="inlineStr">
@@ -4218,7 +4617,7 @@
         </is>
       </c>
       <c r="D20" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="20" t="n"/>
       <c r="F20" s="20" t="n"/>
@@ -4230,7 +4629,7 @@
       </c>
       <c r="B21" s="20" t="inlineStr">
         <is>
-          <t>22-23.06.2022</t>
+          <t>23.08.2022</t>
         </is>
       </c>
       <c r="C21" s="20" t="inlineStr">
@@ -4239,7 +4638,7 @@
         </is>
       </c>
       <c r="D21" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="20" t="n"/>
       <c r="F21" s="20" t="n"/>
@@ -4251,7 +4650,7 @@
       </c>
       <c r="B22" s="20" t="inlineStr">
         <is>
-          <t>24.06.2022</t>
+          <t>24.08.2022</t>
         </is>
       </c>
       <c r="C22" s="20" t="inlineStr">
@@ -4272,7 +4671,7 @@
       </c>
       <c r="B23" s="20" t="inlineStr">
         <is>
-          <t>27-28.06.2022</t>
+          <t>25.08.2022</t>
         </is>
       </c>
       <c r="C23" s="20" t="inlineStr">
@@ -4281,7 +4680,7 @@
         </is>
       </c>
       <c r="D23" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="20" t="n"/>
       <c r="F23" s="20" t="n"/>
@@ -4293,7 +4692,7 @@
       </c>
       <c r="B24" s="20" t="inlineStr">
         <is>
-          <t>30-01.07.2022</t>
+          <t>29.08.2022</t>
         </is>
       </c>
       <c r="C24" s="20" t="inlineStr">
@@ -4302,32 +4701,38 @@
         </is>
       </c>
       <c r="D24" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="20" t="n"/>
       <c r="F24" s="20" t="n"/>
       <c r="G24" s="20" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n"/>
-      <c r="B25" s="5" t="n"/>
-      <c r="C25" s="5" t="n"/>
-      <c r="D25" s="5" t="n"/>
-      <c r="E25" s="5" t="n"/>
-      <c r="F25" s="5" t="n"/>
-      <c r="G25" s="5" t="n"/>
+      <c r="A25" s="20" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" s="20" t="inlineStr">
+        <is>
+          <t>31.08.2022</t>
+        </is>
+      </c>
+      <c r="C25" s="20" t="inlineStr">
+        <is>
+          <t>Доставка ТМЦ</t>
+        </is>
+      </c>
+      <c r="D25" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="20" t="n"/>
+      <c r="F25" s="20" t="n"/>
+      <c r="G25" s="20" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n"/>
-      <c r="B26" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Итого однодневных </t>
-        </is>
-      </c>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="13" t="n">
-        <v>1</v>
-      </c>
+      <c r="B26" s="5" t="n"/>
+      <c r="C26" s="5" t="n"/>
+      <c r="D26" s="5" t="n"/>
       <c r="E26" s="5" t="n"/>
       <c r="F26" s="5" t="n"/>
       <c r="G26" s="5" t="n"/>
@@ -4336,12 +4741,12 @@
       <c r="A27" s="5" t="n"/>
       <c r="B27" s="5" t="inlineStr">
         <is>
-          <t>Итого многодневных</t>
-        </is>
-      </c>
-      <c r="C27" s="5" t="n"/>
+          <t xml:space="preserve">Итого однодневных </t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="n"/>
       <c r="D27" s="13" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E27" s="5" t="n"/>
       <c r="F27" s="5" t="n"/>
@@ -4349,22 +4754,37 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="5" t="n"/>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>Итого многодневных</t>
+        </is>
+      </c>
       <c r="C28" s="5" t="n"/>
-      <c r="D28" s="5" t="n"/>
+      <c r="D28" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="E28" s="5" t="n"/>
       <c r="F28" s="5" t="n"/>
       <c r="G28" s="5" t="n"/>
     </row>
     <row r="29">
-      <c r="F29" s="6" t="inlineStr">
+      <c r="A29" s="5" t="n"/>
+      <c r="B29" s="5" t="n"/>
+      <c r="C29" s="5" t="n"/>
+      <c r="D29" s="5" t="n"/>
+      <c r="E29" s="5" t="n"/>
+      <c r="F29" s="5" t="n"/>
+      <c r="G29" s="5" t="n"/>
+    </row>
+    <row r="30">
+      <c r="F30" s="6" t="inlineStr">
         <is>
           <t>____________</t>
         </is>
       </c>
-      <c r="G29" s="6" t="inlineStr">
-        <is>
-          <t>Логутов В.Н.</t>
+      <c r="G30" s="6" t="inlineStr">
+        <is>
+          <t>Колесень С.Л.</t>
         </is>
       </c>
     </row>
@@ -4388,7 +4808,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G29"/>
+  <dimension ref="A2:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4413,7 +4833,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>6/06</t>
+          <t>22/08</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
@@ -4495,7 +4915,7 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>Колесень С.Л.</t>
+          <t>Сикорский С.И.</t>
         </is>
       </c>
       <c r="D11" s="6" t="n"/>
@@ -4596,7 +5016,7 @@
       </c>
       <c r="B17" s="20" t="inlineStr">
         <is>
-          <t>13.06.2022</t>
+          <t>19.08.2022</t>
         </is>
       </c>
       <c r="C17" s="20" t="inlineStr">
@@ -4617,7 +5037,7 @@
       </c>
       <c r="B18" s="20" t="inlineStr">
         <is>
-          <t>14.06.2022</t>
+          <t>22.08.2022</t>
         </is>
       </c>
       <c r="C18" s="20" t="inlineStr">
@@ -4638,7 +5058,7 @@
       </c>
       <c r="B19" s="20" t="inlineStr">
         <is>
-          <t>16.06.2022</t>
+          <t>26.08.2022</t>
         </is>
       </c>
       <c r="C19" s="20" t="inlineStr">
@@ -4659,7 +5079,7 @@
       </c>
       <c r="B20" s="20" t="inlineStr">
         <is>
-          <t>20.06.2022</t>
+          <t>29.08.2022</t>
         </is>
       </c>
       <c r="C20" s="20" t="inlineStr">
@@ -4675,146 +5095,62 @@
       <c r="G20" s="20" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" s="20" t="inlineStr">
-        <is>
-          <t>21.06.2022</t>
-        </is>
-      </c>
-      <c r="C21" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D21" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="20" t="n"/>
-      <c r="F21" s="20" t="n"/>
-      <c r="G21" s="20" t="n"/>
+      <c r="A21" s="5" t="n"/>
+      <c r="B21" s="5" t="n"/>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="5" t="n"/>
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="5" t="n"/>
+      <c r="G21" s="5" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="B22" s="20" t="inlineStr">
-        <is>
-          <t>23.06.2022</t>
-        </is>
-      </c>
-      <c r="C22" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D22" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="20" t="n"/>
-      <c r="F22" s="20" t="n"/>
-      <c r="G22" s="20" t="n"/>
+      <c r="A22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Итого однодневных </t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="n"/>
+      <c r="D22" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" s="5" t="n"/>
+      <c r="F22" s="5" t="n"/>
+      <c r="G22" s="5" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="20" t="n">
-        <v>7</v>
-      </c>
-      <c r="B23" s="20" t="inlineStr">
-        <is>
-          <t>28.06.2022</t>
-        </is>
-      </c>
-      <c r="C23" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D23" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="20" t="n"/>
-      <c r="F23" s="20" t="n"/>
-      <c r="G23" s="20" t="n"/>
+      <c r="A23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Итого многодневных</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n"/>
+      <c r="D23" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="n"/>
+      <c r="F23" s="5" t="n"/>
+      <c r="G23" s="5" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="20" t="n">
-        <v>8</v>
-      </c>
-      <c r="B24" s="20" t="inlineStr">
-        <is>
-          <t>30.06.2022</t>
-        </is>
-      </c>
-      <c r="C24" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D24" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="20" t="n"/>
-      <c r="F24" s="20" t="n"/>
-      <c r="G24" s="20" t="n"/>
+      <c r="A24" s="5" t="n"/>
+      <c r="B24" s="5" t="n"/>
+      <c r="C24" s="5" t="n"/>
+      <c r="D24" s="5" t="n"/>
+      <c r="E24" s="5" t="n"/>
+      <c r="F24" s="5" t="n"/>
+      <c r="G24" s="5" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n"/>
-      <c r="B25" s="5" t="n"/>
-      <c r="C25" s="5" t="n"/>
-      <c r="D25" s="5" t="n"/>
-      <c r="E25" s="5" t="n"/>
-      <c r="F25" s="5" t="n"/>
-      <c r="G25" s="5" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="5" t="n"/>
-      <c r="B26" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Итого однодневных </t>
-        </is>
-      </c>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="E26" s="5" t="n"/>
-      <c r="F26" s="5" t="n"/>
-      <c r="G26" s="5" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="n"/>
-      <c r="B27" s="5" t="inlineStr">
-        <is>
-          <t>Итого многодневных</t>
-        </is>
-      </c>
-      <c r="C27" s="5" t="n"/>
-      <c r="D27" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5" t="n"/>
-      <c r="F27" s="5" t="n"/>
-      <c r="G27" s="5" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="n"/>
-      <c r="B28" s="5" t="n"/>
-      <c r="C28" s="5" t="n"/>
-      <c r="D28" s="5" t="n"/>
-      <c r="E28" s="5" t="n"/>
-      <c r="F28" s="5" t="n"/>
-      <c r="G28" s="5" t="n"/>
-    </row>
-    <row r="29">
-      <c r="F29" s="6" t="inlineStr">
+      <c r="F25" s="6" t="inlineStr">
         <is>
           <t>____________</t>
         </is>
       </c>
-      <c r="G29" s="6" t="inlineStr">
-        <is>
-          <t>Колесень С.Л.</t>
+      <c r="G25" s="6" t="inlineStr">
+        <is>
+          <t>Сикорский С.И.</t>
         </is>
       </c>
     </row>
@@ -4863,7 +5199,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>22/06</t>
+          <t>9/08</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
@@ -4945,7 +5281,7 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>Сикорский С.И.</t>
+          <t>Логутов В.Н.</t>
         </is>
       </c>
       <c r="D11" s="6" t="n"/>
@@ -5046,7 +5382,7 @@
       </c>
       <c r="B17" s="20" t="inlineStr">
         <is>
-          <t>17.06.2022</t>
+          <t>24-25.08.2022</t>
         </is>
       </c>
       <c r="C17" s="20" t="inlineStr">
@@ -5055,7 +5391,7 @@
         </is>
       </c>
       <c r="D17" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="20" t="n"/>
       <c r="F17" s="20" t="n"/>
@@ -5067,7 +5403,7 @@
       </c>
       <c r="B18" s="20" t="inlineStr">
         <is>
-          <t>24.06.2022</t>
+          <t>29-30.08.2022</t>
         </is>
       </c>
       <c r="C18" s="20" t="inlineStr">
@@ -5076,7 +5412,7 @@
         </is>
       </c>
       <c r="D18" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="20" t="n"/>
       <c r="F18" s="20" t="n"/>
@@ -5100,7 +5436,7 @@
       </c>
       <c r="C20" s="4" t="n"/>
       <c r="D20" s="13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20" s="5" t="n"/>
       <c r="F20" s="5" t="n"/>
@@ -5115,7 +5451,7 @@
       </c>
       <c r="C21" s="5" t="n"/>
       <c r="D21" s="13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E21" s="5" t="n"/>
       <c r="F21" s="5" t="n"/>
@@ -5138,7 +5474,7 @@
       </c>
       <c r="G23" s="6" t="inlineStr">
         <is>
-          <t>Сикорский С.И.</t>
+          <t>Логутов В.Н.</t>
         </is>
       </c>
     </row>
@@ -5162,7 +5498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G30"/>
+  <dimension ref="A2:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5187,7 +5523,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>11/06</t>
+          <t>16/08</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
@@ -5269,7 +5605,7 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>Ивановский А.С.</t>
+          <t>Можейко А.М.</t>
         </is>
       </c>
       <c r="D11" s="6" t="n"/>
@@ -5370,7 +5706,7 @@
       </c>
       <c r="B17" s="20" t="inlineStr">
         <is>
-          <t>01-02.06.2022</t>
+          <t>01-02.08.2022</t>
         </is>
       </c>
       <c r="C17" s="20" t="inlineStr">
@@ -5391,7 +5727,7 @@
       </c>
       <c r="B18" s="20" t="inlineStr">
         <is>
-          <t>03.06.2022</t>
+          <t>08.08.2022</t>
         </is>
       </c>
       <c r="C18" s="20" t="inlineStr">
@@ -5412,7 +5748,7 @@
       </c>
       <c r="B19" s="20" t="inlineStr">
         <is>
-          <t>06.06.2022</t>
+          <t>19.08.2022</t>
         </is>
       </c>
       <c r="C19" s="20" t="inlineStr">
@@ -5433,7 +5769,7 @@
       </c>
       <c r="B20" s="20" t="inlineStr">
         <is>
-          <t>07.06.2022</t>
+          <t>22.08.2022</t>
         </is>
       </c>
       <c r="C20" s="20" t="inlineStr">
@@ -5454,7 +5790,7 @@
       </c>
       <c r="B21" s="20" t="inlineStr">
         <is>
-          <t>13-14.06.2022</t>
+          <t>25.08.2022</t>
         </is>
       </c>
       <c r="C21" s="20" t="inlineStr">
@@ -5463,7 +5799,7 @@
         </is>
       </c>
       <c r="D21" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="20" t="n"/>
       <c r="F21" s="20" t="n"/>
@@ -5475,7 +5811,7 @@
       </c>
       <c r="B22" s="20" t="inlineStr">
         <is>
-          <t>15-16.06.2022</t>
+          <t>26.08.2022</t>
         </is>
       </c>
       <c r="C22" s="20" t="inlineStr">
@@ -5484,7 +5820,7 @@
         </is>
       </c>
       <c r="D22" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="20" t="n"/>
       <c r="F22" s="20" t="n"/>
@@ -5496,7 +5832,7 @@
       </c>
       <c r="B23" s="20" t="inlineStr">
         <is>
-          <t>21-22.06.2022</t>
+          <t>30.08.2022</t>
         </is>
       </c>
       <c r="C23" s="20" t="inlineStr">
@@ -5505,7 +5841,7 @@
         </is>
       </c>
       <c r="D23" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="20" t="n"/>
       <c r="F23" s="20" t="n"/>
@@ -5517,7 +5853,7 @@
       </c>
       <c r="B24" s="20" t="inlineStr">
         <is>
-          <t>23-24.06.2022</t>
+          <t>31-01.09.2022</t>
         </is>
       </c>
       <c r="C24" s="20" t="inlineStr">
@@ -5533,31 +5869,25 @@
       <c r="G24" s="20" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="20" t="n">
-        <v>9</v>
-      </c>
-      <c r="B25" s="20" t="inlineStr">
-        <is>
-          <t>29-30.06.2022</t>
-        </is>
-      </c>
-      <c r="C25" s="20" t="inlineStr">
-        <is>
-          <t>Доставка ТМЦ</t>
-        </is>
-      </c>
-      <c r="D25" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" s="20" t="n"/>
-      <c r="F25" s="20" t="n"/>
-      <c r="G25" s="20" t="n"/>
+      <c r="A25" s="5" t="n"/>
+      <c r="B25" s="5" t="n"/>
+      <c r="C25" s="5" t="n"/>
+      <c r="D25" s="5" t="n"/>
+      <c r="E25" s="5" t="n"/>
+      <c r="F25" s="5" t="n"/>
+      <c r="G25" s="5" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n"/>
-      <c r="B26" s="5" t="n"/>
-      <c r="C26" s="5" t="n"/>
-      <c r="D26" s="5" t="n"/>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Итого однодневных </t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="n"/>
+      <c r="D26" s="13" t="n">
+        <v>6</v>
+      </c>
       <c r="E26" s="5" t="n"/>
       <c r="F26" s="5" t="n"/>
       <c r="G26" s="5" t="n"/>
@@ -5566,12 +5896,12 @@
       <c r="A27" s="5" t="n"/>
       <c r="B27" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Итого однодневных </t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="n"/>
+          <t>Итого многодневных</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="n"/>
       <c r="D27" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27" s="5" t="n"/>
       <c r="F27" s="5" t="n"/>
@@ -5579,37 +5909,22 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="5" t="inlineStr">
-        <is>
-          <t>Итого многодневных</t>
-        </is>
-      </c>
+      <c r="B28" s="5" t="n"/>
       <c r="C28" s="5" t="n"/>
-      <c r="D28" s="13" t="n">
-        <v>12</v>
-      </c>
+      <c r="D28" s="5" t="n"/>
       <c r="E28" s="5" t="n"/>
       <c r="F28" s="5" t="n"/>
       <c r="G28" s="5" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="n"/>
-      <c r="B29" s="5" t="n"/>
-      <c r="C29" s="5" t="n"/>
-      <c r="D29" s="5" t="n"/>
-      <c r="E29" s="5" t="n"/>
-      <c r="F29" s="5" t="n"/>
-      <c r="G29" s="5" t="n"/>
-    </row>
-    <row r="30">
-      <c r="F30" s="6" t="inlineStr">
+      <c r="F29" s="6" t="inlineStr">
         <is>
           <t>____________</t>
         </is>
       </c>
-      <c r="G30" s="6" t="inlineStr">
-        <is>
-          <t>Ивановский А.С.</t>
+      <c r="G29" s="6" t="inlineStr">
+        <is>
+          <t>Можейко А.М.</t>
         </is>
       </c>
     </row>
